--- a/data/trans_orig/Q5416-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/Q5416-Provincia-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{82CC5906-C1B4-4FE3-9BF0-C206E5CD4F2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{88EEA58B-CB85-4104-8420-5C5ADB9DD388}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{5BBD24E9-54B8-4324-A3E4-14D03D7AF137}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{CC30B829-2677-4C88-A3B9-A05B50C574F5}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1916" uniqueCount="759">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1916" uniqueCount="743">
   <si>
     <t>Población según si es capaz de moverse por su casa en 2007 (Tasa respuesta: 18,18%)</t>
   </si>
@@ -92,13 +92,13 @@
     <t>2,98%</t>
   </si>
   <si>
-    <t>14,52%</t>
+    <t>13,74%</t>
   </si>
   <si>
     <t>1,57%</t>
   </si>
   <si>
-    <t>7,86%</t>
+    <t>9,39%</t>
   </si>
   <si>
     <t>En silla ruedas sin ayuda</t>
@@ -119,13 +119,13 @@
     <t>97,02%</t>
   </si>
   <si>
-    <t>85,48%</t>
+    <t>86,26%</t>
   </si>
   <si>
     <t>98,43%</t>
   </si>
   <si>
-    <t>92,14%</t>
+    <t>90,61%</t>
   </si>
   <si>
     <t>Cadiz</t>
@@ -137,2169 +137,2124 @@
     <t>4,2%</t>
   </si>
   <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>92,58%</t>
+  </si>
+  <si>
+    <t>91,5%</t>
+  </si>
+  <si>
+    <t>84,49%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
+  </si>
+  <si>
+    <t>94,35%</t>
+  </si>
+  <si>
+    <t>89,86%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>90,22%</t>
+  </si>
+  <si>
+    <t>93,17%</t>
+  </si>
+  <si>
+    <t>86,15%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
+  </si>
+  <si>
+    <t>95,05%</t>
+  </si>
+  <si>
+    <t>90,44%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>92,36%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>89,83%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>93,04%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>23,57%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>21,84%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>16,53%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>88,37%</t>
+  </si>
+  <si>
+    <t>72,38%</t>
+  </si>
+  <si>
+    <t>97,07%</t>
+  </si>
+  <si>
+    <t>89,46%</t>
+  </si>
+  <si>
+    <t>74,25%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>89,01%</t>
+  </si>
+  <si>
+    <t>79,44%</t>
+  </si>
+  <si>
+    <t>94,71%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>93,4%</t>
+  </si>
+  <si>
+    <t>84,46%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>95,25%</t>
+  </si>
+  <si>
+    <t>89,19%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>94,87%</t>
+  </si>
+  <si>
+    <t>96,62%</t>
+  </si>
+  <si>
+    <t>92,2%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
+  </si>
+  <si>
+    <t>94,84%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>95,52%</t>
+  </si>
+  <si>
+    <t>89,97%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>95,47%</t>
+  </si>
+  <si>
+    <t>90,99%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>95,49%</t>
+  </si>
+  <si>
+    <t>92,22%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>95,56%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>94,5%</t>
+  </si>
+  <si>
+    <t>92,61%</t>
+  </si>
+  <si>
+    <t>96,15%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
+  </si>
+  <si>
+    <t>94,25%</t>
+  </si>
+  <si>
+    <t>96,74%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de moverse por su casa en 2012 (Tasa respuesta: 18,41%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>95,97%</t>
+  </si>
+  <si>
+    <t>89,52%</t>
+  </si>
+  <si>
+    <t>90,16%</t>
+  </si>
+  <si>
+    <t>82,53%</t>
+  </si>
+  <si>
+    <t>95,57%</t>
+  </si>
+  <si>
+    <t>92,7%</t>
+  </si>
+  <si>
+    <t>86,89%</t>
+  </si>
+  <si>
+    <t>96,2%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>16,69%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>90,92%</t>
+  </si>
+  <si>
+    <t>80,32%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
+  </si>
+  <si>
+    <t>87,76%</t>
+  </si>
+  <si>
+    <t>79,12%</t>
+  </si>
+  <si>
+    <t>94,48%</t>
+  </si>
+  <si>
+    <t>89,05%</t>
+  </si>
+  <si>
+    <t>82,43%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>91,88%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>92,06%</t>
+  </si>
+  <si>
+    <t>86,44%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
+  </si>
+  <si>
+    <t>94,29%</t>
+  </si>
+  <si>
+    <t>90,9%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>17,93%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>19,31%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>92,86%</t>
+  </si>
+  <si>
+    <t>75,03%</t>
+  </si>
+  <si>
+    <t>91,8%</t>
+  </si>
+  <si>
+    <t>81,41%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>92,21%</t>
+  </si>
+  <si>
+    <t>84,76%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>95,88%</t>
+  </si>
+  <si>
+    <t>87,56%</t>
+  </si>
+  <si>
+    <t>87,87%</t>
+  </si>
+  <si>
+    <t>77,63%</t>
+  </si>
+  <si>
+    <t>94,05%</t>
+  </si>
+  <si>
+    <t>91,27%</t>
+  </si>
+  <si>
+    <t>84,97%</t>
+  </si>
+  <si>
+    <t>95,59%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>95,31%</t>
+  </si>
+  <si>
+    <t>87,6%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>92,11%</t>
+  </si>
+  <si>
+    <t>86,58%</t>
+  </si>
+  <si>
+    <t>95,67%</t>
+  </si>
+  <si>
+    <t>93,52%</t>
+  </si>
+  <si>
+    <t>89,6%</t>
+  </si>
+  <si>
+    <t>96,05%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
     <t>1,79%</t>
   </si>
   <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>96,31%</t>
+  </si>
+  <si>
+    <t>90,78%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>92,52%</t>
+  </si>
+  <si>
+    <t>87,31%</t>
+  </si>
+  <si>
+    <t>94,13%</t>
+  </si>
+  <si>
+    <t>91,03%</t>
+  </si>
+  <si>
+    <t>96,57%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>95,44%</t>
+  </si>
+  <si>
+    <t>93,3%</t>
+  </si>
+  <si>
+    <t>88,72%</t>
+  </si>
+  <si>
+    <t>92,94%</t>
+  </si>
+  <si>
+    <t>92,92%</t>
+  </si>
+  <si>
+    <t>91,33%</t>
+  </si>
+  <si>
+    <t>94,33%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de moverse por su casa en 2016 (Tasa respuesta: 19,52%)</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>17,14%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>95,9%</t>
+  </si>
+  <si>
+    <t>87,42%</t>
+  </si>
+  <si>
+    <t>90,73%</t>
+  </si>
+  <si>
+    <t>78,61%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>93,01%</t>
+  </si>
+  <si>
+    <t>85,04%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>92,07%</t>
+  </si>
+  <si>
+    <t>84,34%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
+  </si>
+  <si>
+    <t>94,04%</t>
+  </si>
+  <si>
+    <t>89,43%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>87,22%</t>
+  </si>
+  <si>
+    <t>94,4%</t>
+  </si>
+  <si>
+    <t>83,83%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>94,91%</t>
+  </si>
+  <si>
+    <t>89,54%</t>
+  </si>
+  <si>
+    <t>98,01%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>94,68%</t>
+  </si>
+  <si>
+    <t>86,62%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>97,51%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>94,22%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>23,04%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>90,35%</t>
+  </si>
+  <si>
+    <t>84,61%</t>
+  </si>
+  <si>
+    <t>71,09%</t>
+  </si>
+  <si>
+    <t>92,97%</t>
+  </si>
+  <si>
+    <t>90,74%</t>
+  </si>
+  <si>
+    <t>83,8%</t>
+  </si>
+  <si>
+    <t>96,38%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>14,49%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>20,63%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>14,7%</t>
   </si>
   <si>
     <t>0,66%</t>
   </si>
   <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>91,9%</t>
-  </si>
-  <si>
-    <t>91,5%</t>
-  </si>
-  <si>
-    <t>85,01%</t>
-  </si>
-  <si>
-    <t>96,0%</t>
-  </si>
-  <si>
-    <t>94,35%</t>
-  </si>
-  <si>
-    <t>89,85%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>88,3%</t>
+  </si>
+  <si>
+    <t>77,93%</t>
+  </si>
+  <si>
+    <t>95,06%</t>
+  </si>
+  <si>
+    <t>87,3%</t>
+  </si>
+  <si>
+    <t>76,53%</t>
+  </si>
+  <si>
+    <t>94,54%</t>
+  </si>
+  <si>
+    <t>87,72%</t>
+  </si>
+  <si>
+    <t>80,29%</t>
+  </si>
+  <si>
+    <t>93,38%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>90,24%</t>
+  </si>
+  <si>
+    <t>91,25%</t>
+  </si>
+  <si>
+    <t>84,07%</t>
+  </si>
+  <si>
+    <t>95,08%</t>
+  </si>
+  <si>
+    <t>92,91%</t>
+  </si>
+  <si>
+    <t>88,81%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>92,56%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>93,11%</t>
+  </si>
+  <si>
+    <t>87,7%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
+  </si>
+  <si>
+    <t>95,04%</t>
+  </si>
+  <si>
+    <t>91,6%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>95,6%</t>
+  </si>
+  <si>
+    <t>93,56%</t>
+  </si>
+  <si>
+    <t>96,97%</t>
+  </si>
+  <si>
+    <t>92,34%</t>
+  </si>
+  <si>
+    <t>89,91%</t>
+  </si>
+  <si>
+    <t>92,19%</t>
+  </si>
+  <si>
+    <t>94,96%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de moverse por su casa en 2023 (Tasa respuesta: 31,27%)</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>93,67%</t>
+  </si>
+  <si>
+    <t>86,93%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>96,55%</t>
+  </si>
+  <si>
+    <t>92,74%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
   </si>
   <si>
     <t>1,37%</t>
   </si>
   <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>89,88%</t>
-  </si>
-  <si>
-    <t>93,17%</t>
-  </si>
-  <si>
-    <t>84,8%</t>
-  </si>
-  <si>
-    <t>95,05%</t>
-  </si>
-  <si>
-    <t>89,77%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>92,35%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>90,01%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>94,23%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>22,79%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>21,29%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>17,15%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>88,37%</t>
-  </si>
-  <si>
-    <t>74,11%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
-  </si>
-  <si>
-    <t>89,46%</t>
-  </si>
-  <si>
-    <t>75,62%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>89,01%</t>
-  </si>
-  <si>
-    <t>80,57%</t>
-  </si>
-  <si>
-    <t>95,28%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>88,45%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>87,36%</t>
+  </si>
+  <si>
+    <t>81,53%</t>
+  </si>
+  <si>
+    <t>91,28%</t>
+  </si>
+  <si>
+    <t>90,03%</t>
+  </si>
+  <si>
+    <t>85,9%</t>
+  </si>
+  <si>
+    <t>92,98%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>92,43%</t>
+  </si>
+  <si>
+    <t>86,77%</t>
+  </si>
+  <si>
+    <t>89,11%</t>
+  </si>
+  <si>
+    <t>83,54%</t>
+  </si>
+  <si>
+    <t>93,46%</t>
+  </si>
+  <si>
+    <t>86,11%</t>
+  </si>
+  <si>
+    <t>93,54%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>95,69%</t>
+  </si>
+  <si>
+    <t>92,54%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>95,8%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>95,78%</t>
+  </si>
+  <si>
+    <t>88,7%</t>
+  </si>
+  <si>
+    <t>90,31%</t>
+  </si>
+  <si>
+    <t>94,34%</t>
+  </si>
+  <si>
+    <t>92,33%</t>
+  </si>
+  <si>
+    <t>87,53%</t>
+  </si>
+  <si>
+    <t>95,37%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>96,83%</t>
+  </si>
+  <si>
+    <t>91,97%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>88,17%</t>
+  </si>
+  <si>
+    <t>82,26%</t>
+  </si>
+  <si>
+    <t>92,48%</t>
+  </si>
+  <si>
+    <t>92,29%</t>
+  </si>
+  <si>
+    <t>88,88%</t>
+  </si>
+  <si>
+    <t>94,69%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>94,58%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>95,13%</t>
   </si>
   <si>
     <t>90,07%</t>
   </si>
   <si>
-    <t>93,4%</t>
-  </si>
-  <si>
-    <t>85,15%</t>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>93,48%</t>
   </si>
   <si>
     <t>98,36%</t>
   </si>
   <si>
-    <t>95,25%</t>
-  </si>
-  <si>
-    <t>89,62%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>93,9%</t>
-  </si>
-  <si>
-    <t>96,62%</t>
-  </si>
-  <si>
-    <t>92,03%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
-  </si>
-  <si>
-    <t>94,67%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>95,71%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>93,51%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>95,55%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
   </si>
   <si>
     <t>0,74%</t>
   </si>
   <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>95,52%</t>
-  </si>
-  <si>
-    <t>89,96%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>95,47%</t>
-  </si>
-  <si>
-    <t>90,98%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>95,49%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>95,41%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>94,5%</t>
-  </si>
-  <si>
-    <t>92,46%</t>
-  </si>
-  <si>
-    <t>95,66%</t>
-  </si>
-  <si>
-    <t>94,38%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de moverse por su casa en 2012 (Tasa respuesta: 18,41%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>95,97%</t>
-  </si>
-  <si>
-    <t>88,38%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>90,16%</t>
-  </si>
-  <si>
-    <t>81,76%</t>
-  </si>
-  <si>
-    <t>95,51%</t>
-  </si>
-  <si>
-    <t>92,7%</t>
-  </si>
-  <si>
-    <t>87,71%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>90,92%</t>
-  </si>
-  <si>
-    <t>81,28%</t>
-  </si>
-  <si>
-    <t>96,43%</t>
-  </si>
-  <si>
-    <t>87,76%</t>
-  </si>
-  <si>
-    <t>77,88%</t>
-  </si>
-  <si>
-    <t>93,35%</t>
-  </si>
-  <si>
-    <t>89,05%</t>
-  </si>
-  <si>
-    <t>83,14%</t>
-  </si>
-  <si>
-    <t>93,57%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
-  </si>
-  <si>
-    <t>91,62%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>92,06%</t>
-  </si>
-  <si>
-    <t>85,84%</t>
+    <t>0,46%</t>
   </si>
   <si>
     <t>95,96%</t>
   </si>
   <si>
-    <t>94,29%</t>
-  </si>
-  <si>
-    <t>90,84%</t>
-  </si>
-  <si>
-    <t>96,9%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>16,53%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>15,85%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>14,72%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>92,86%</t>
-  </si>
-  <si>
-    <t>78,05%</t>
-  </si>
-  <si>
-    <t>91,8%</t>
-  </si>
-  <si>
-    <t>81,52%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>92,21%</t>
-  </si>
-  <si>
-    <t>84,54%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>95,88%</t>
-  </si>
-  <si>
-    <t>87,65%</t>
-  </si>
-  <si>
-    <t>87,87%</t>
-  </si>
-  <si>
-    <t>77,64%</t>
-  </si>
-  <si>
-    <t>93,95%</t>
-  </si>
-  <si>
-    <t>91,27%</t>
-  </si>
-  <si>
-    <t>84,24%</t>
-  </si>
-  <si>
-    <t>95,53%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>95,31%</t>
-  </si>
-  <si>
-    <t>88,62%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>92,11%</t>
-  </si>
-  <si>
-    <t>86,89%</t>
-  </si>
-  <si>
-    <t>95,74%</t>
-  </si>
-  <si>
-    <t>93,52%</t>
-  </si>
-  <si>
-    <t>89,57%</t>
-  </si>
-  <si>
-    <t>96,4%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>96,31%</t>
-  </si>
-  <si>
-    <t>91,55%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>92,52%</t>
-  </si>
-  <si>
-    <t>87,31%</t>
-  </si>
-  <si>
-    <t>94,13%</t>
-  </si>
-  <si>
-    <t>90,32%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>95,44%</t>
-  </si>
-  <si>
-    <t>93,51%</t>
-  </si>
-  <si>
-    <t>97,08%</t>
-  </si>
-  <si>
-    <t>91,03%</t>
-  </si>
-  <si>
-    <t>88,64%</t>
-  </si>
-  <si>
-    <t>93,02%</t>
-  </si>
-  <si>
-    <t>92,92%</t>
-  </si>
-  <si>
-    <t>91,23%</t>
-  </si>
-  <si>
-    <t>94,36%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de moverse por su casa en 2015 (Tasa respuesta: 19,52%)</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>17,86%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>95,9%</t>
-  </si>
-  <si>
-    <t>87,37%</t>
-  </si>
-  <si>
-    <t>90,73%</t>
-  </si>
-  <si>
-    <t>79,35%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>93,01%</t>
-  </si>
-  <si>
-    <t>86,13%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>96,65%</t>
-  </si>
-  <si>
-    <t>91,25%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>92,07%</t>
-  </si>
-  <si>
-    <t>85,38%</t>
-  </si>
-  <si>
-    <t>96,6%</t>
-  </si>
-  <si>
-    <t>94,04%</t>
-  </si>
-  <si>
-    <t>89,47%</t>
-  </si>
-  <si>
-    <t>96,94%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>95,57%</t>
-  </si>
-  <si>
-    <t>87,53%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
-  </si>
-  <si>
-    <t>94,4%</t>
-  </si>
-  <si>
-    <t>84,71%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>94,91%</t>
-  </si>
-  <si>
-    <t>89,18%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>94,68%</t>
-  </si>
-  <si>
-    <t>86,34%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>97,51%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>21,6%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>13,55%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>90,17%</t>
-  </si>
-  <si>
-    <t>84,61%</t>
-  </si>
-  <si>
-    <t>71,88%</t>
-  </si>
-  <si>
-    <t>93,3%</t>
-  </si>
-  <si>
-    <t>90,74%</t>
-  </si>
-  <si>
-    <t>82,79%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>16,52%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>15,62%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>88,3%</t>
-  </si>
-  <si>
-    <t>78,11%</t>
-  </si>
-  <si>
-    <t>95,0%</t>
-  </si>
-  <si>
-    <t>87,3%</t>
-  </si>
-  <si>
-    <t>77,19%</t>
-  </si>
-  <si>
-    <t>94,44%</t>
-  </si>
-  <si>
-    <t>87,72%</t>
-  </si>
-  <si>
-    <t>80,27%</t>
-  </si>
-  <si>
-    <t>92,54%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>89,54%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>85,07%</t>
-  </si>
-  <si>
-    <t>95,63%</t>
-  </si>
-  <si>
-    <t>92,91%</t>
-  </si>
-  <si>
-    <t>88,47%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>93,49%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>93,11%</t>
-  </si>
-  <si>
-    <t>87,5%</t>
-  </si>
-  <si>
-    <t>96,51%</t>
-  </si>
-  <si>
-    <t>95,04%</t>
-  </si>
-  <si>
-    <t>91,49%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>95,6%</t>
-  </si>
-  <si>
-    <t>93,73%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>92,34%</t>
-  </si>
-  <si>
-    <t>90,1%</t>
-  </si>
-  <si>
-    <t>93,75%</t>
-  </si>
-  <si>
-    <t>92,24%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de moverse por su casa en 2023 (Tasa respuesta: 31,27%)</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>93,67%</t>
-  </si>
-  <si>
-    <t>86,93%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
-  </si>
-  <si>
-    <t>96,55%</t>
-  </si>
-  <si>
-    <t>92,74%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>88,45%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>87,36%</t>
-  </si>
-  <si>
-    <t>81,53%</t>
-  </si>
-  <si>
-    <t>91,28%</t>
-  </si>
-  <si>
-    <t>90,03%</t>
-  </si>
-  <si>
-    <t>85,9%</t>
-  </si>
-  <si>
-    <t>92,98%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>92,43%</t>
-  </si>
-  <si>
-    <t>86,77%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
-  </si>
-  <si>
-    <t>89,11%</t>
-  </si>
-  <si>
-    <t>83,54%</t>
-  </si>
-  <si>
-    <t>93,46%</t>
-  </si>
-  <si>
-    <t>90,61%</t>
-  </si>
-  <si>
-    <t>86,11%</t>
-  </si>
-  <si>
-    <t>93,54%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>95,69%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>95,8%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>95,78%</t>
-  </si>
-  <si>
-    <t>88,7%</t>
-  </si>
-  <si>
-    <t>90,31%</t>
-  </si>
-  <si>
-    <t>94,34%</t>
-  </si>
-  <si>
-    <t>92,33%</t>
-  </si>
-  <si>
-    <t>95,37%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>96,83%</t>
-  </si>
-  <si>
-    <t>91,97%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>88,17%</t>
-  </si>
-  <si>
-    <t>82,26%</t>
-  </si>
-  <si>
-    <t>92,48%</t>
-  </si>
-  <si>
-    <t>92,29%</t>
-  </si>
-  <si>
-    <t>88,88%</t>
-  </si>
-  <si>
-    <t>94,69%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>94,58%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>95,13%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>93,48%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>95,71%</t>
-  </si>
-  <si>
-    <t>88,81%</t>
-  </si>
-  <si>
-    <t>96,14%</t>
-  </si>
-  <si>
-    <t>95,55%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>97,07%</t>
-  </si>
-  <si>
     <t>98,03%</t>
   </si>
   <si>
@@ -2307,9 +2262,6 @@
   </si>
   <si>
     <t>94,56%</t>
-  </si>
-  <si>
-    <t>94,25%</t>
   </si>
   <si>
     <t>93,13%</t>
@@ -2727,7 +2679,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78DF2AF5-D946-4371-A501-52DB5B69EFF6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1300B4C8-F356-4C9A-8779-05B5340BDDFC}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3497,13 +3449,13 @@
         <v>1161</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3518,10 +3470,10 @@
         <v>49991</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>22</v>
@@ -3533,13 +3485,13 @@
         <v>77818</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="M17" s="7">
         <v>129</v>
@@ -4193,7 +4145,7 @@
         <v>11</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>129</v>
+        <v>60</v>
       </c>
       <c r="H30" s="7">
         <v>4</v>
@@ -4202,10 +4154,10 @@
         <v>4640</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="L30" s="7" t="s">
         <v>131</v>
@@ -4292,7 +4244,7 @@
         <v>135</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>136</v>
+        <v>71</v>
       </c>
       <c r="G32" s="7" t="s">
         <v>22</v>
@@ -4304,13 +4256,13 @@
         <v>65669</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="K32" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="K32" s="7" t="s">
+      <c r="L32" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="M32" s="7">
         <v>111</v>
@@ -4319,13 +4271,13 @@
         <v>111920</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="P32" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="P32" s="7" t="s">
+      <c r="Q32" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4381,7 +4333,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -4393,13 +4345,13 @@
         <v>838</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G34" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="H34" s="7">
         <v>3</v>
@@ -4408,13 +4360,13 @@
         <v>3057</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="K34" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="K34" s="7" t="s">
+      <c r="L34" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="M34" s="7">
         <v>4</v>
@@ -4423,13 +4375,13 @@
         <v>3895</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="P34" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="P34" s="7" t="s">
+      <c r="Q34" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -4444,13 +4396,13 @@
         <v>934</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G35" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>153</v>
       </c>
       <c r="H35" s="7">
         <v>1</v>
@@ -4459,7 +4411,7 @@
         <v>897</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="K35" s="7" t="s">
         <v>11</v>
@@ -4546,10 +4498,10 @@
         <v>104156</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F37" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>160</v>
       </c>
       <c r="G37" s="7" t="s">
         <v>22</v>
@@ -4561,13 +4513,13 @@
         <v>113168</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="K37" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="K37" s="7" t="s">
+      <c r="L37" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="M37" s="7">
         <v>219</v>
@@ -4576,13 +4528,13 @@
         <v>217323</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="P37" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="P37" s="7" t="s">
+      <c r="Q37" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4686,7 +4638,7 @@
         <v>11</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>171</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -4704,10 +4656,10 @@
         <v>58</v>
       </c>
       <c r="F40" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="G40" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="G40" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="H40" s="7">
         <v>1</v>
@@ -4716,13 +4668,13 @@
         <v>1320</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K40" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="M40" s="7">
         <v>5</v>
@@ -4731,13 +4683,13 @@
         <v>5279</v>
       </c>
       <c r="O40" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="P40" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q40" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="P40" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="Q40" s="7" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -4767,13 +4719,13 @@
         <v>4425</v>
       </c>
       <c r="J41" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="K41" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="L41" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="K41" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="L41" s="7" t="s">
-        <v>180</v>
       </c>
       <c r="M41" s="7">
         <v>4</v>
@@ -4782,13 +4734,13 @@
         <v>4425</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -4803,13 +4755,13 @@
         <v>106878</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="H42" s="7">
         <v>138</v>
@@ -4818,13 +4770,13 @@
         <v>146279</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="M42" s="7">
         <v>249</v>
@@ -4833,13 +4785,13 @@
         <v>253157</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>92</v>
+        <v>189</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -4907,13 +4859,13 @@
         <v>2725</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>194</v>
+        <v>37</v>
       </c>
       <c r="H44" s="7">
         <v>10</v>
@@ -4922,13 +4874,13 @@
         <v>9515</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>43</v>
+        <v>146</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="M44" s="7">
         <v>13</v>
@@ -4937,13 +4889,13 @@
         <v>12240</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -4958,13 +4910,13 @@
         <v>10320</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="H45" s="7">
         <v>19</v>
@@ -4973,13 +4925,13 @@
         <v>20990</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="M45" s="7">
         <v>30</v>
@@ -4988,13 +4940,13 @@
         <v>31310</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -5009,7 +4961,7 @@
         <v>868</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>193</v>
+        <v>203</v>
       </c>
       <c r="F46" s="7" t="s">
         <v>11</v>
@@ -5024,13 +4976,13 @@
         <v>6710</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="M46" s="7">
         <v>7</v>
@@ -5042,10 +4994,10 @@
         <v>82</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -5060,13 +5012,13 @@
         <v>488553</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="H47" s="7">
         <v>626</v>
@@ -5075,13 +5027,13 @@
         <v>639627</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>53</v>
+        <v>214</v>
       </c>
       <c r="M47" s="7">
         <v>1134</v>
@@ -5090,13 +5042,13 @@
         <v>1128180</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -5152,7 +5104,7 @@
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
   </sheetData>
@@ -5176,7 +5128,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F79E0B5C-3C6A-4617-A3CC-30F6C70D39A7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADC05C58-00D5-4AA8-BEBC-25EB02C16B9E}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5193,7 +5145,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5298,39 +5250,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5343,39 +5295,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5388,39 +5340,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5433,39 +5385,39 @@
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
       </c>
       <c r="I7" s="7"/>
       <c r="J7" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
       </c>
       <c r="N7" s="7"/>
       <c r="O7" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5478,39 +5430,39 @@
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
       </c>
       <c r="I8" s="7"/>
       <c r="J8" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
       </c>
       <c r="N8" s="7"/>
       <c r="O8" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5527,13 +5479,13 @@
         <v>2130</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="H9" s="7">
         <v>4</v>
@@ -5542,13 +5494,13 @@
         <v>5575</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>63</v>
+        <v>225</v>
       </c>
       <c r="M9" s="7">
         <v>6</v>
@@ -5557,13 +5509,13 @@
         <v>7706</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>228</v>
+        <v>152</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>230</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5578,13 +5530,13 @@
         <v>1062</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
@@ -5593,13 +5545,13 @@
         <v>2217</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="M10" s="7">
         <v>3</v>
@@ -5608,13 +5560,13 @@
         <v>3279</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>236</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5635,7 +5587,7 @@
         <v>12</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="H11" s="7">
         <v>2</v>
@@ -5644,13 +5596,13 @@
         <v>2258</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="M11" s="7">
         <v>2</v>
@@ -5659,13 +5611,13 @@
         <v>2258</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5680,13 +5632,13 @@
         <v>76011</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>244</v>
+        <v>22</v>
       </c>
       <c r="H12" s="7">
         <v>85</v>
@@ -5695,13 +5647,13 @@
         <v>92043</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="M12" s="7">
         <v>151</v>
@@ -5710,13 +5662,13 @@
         <v>168054</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5784,13 +5736,13 @@
         <v>1995</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="H14" s="7">
         <v>6</v>
@@ -5799,13 +5751,13 @@
         <v>6557</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>97</v>
+        <v>233</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="M14" s="7">
         <v>8</v>
@@ -5814,13 +5766,13 @@
         <v>8552</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5835,13 +5787,13 @@
         <v>3068</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>260</v>
+        <v>111</v>
       </c>
       <c r="H15" s="7">
         <v>3</v>
@@ -5850,13 +5802,13 @@
         <v>3235</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>262</v>
+        <v>208</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="M15" s="7">
         <v>6</v>
@@ -5865,13 +5817,13 @@
         <v>6303</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5907,7 +5859,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>266</v>
+        <v>156</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -5922,7 +5874,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5937,13 +5889,13 @@
         <v>50679</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="H17" s="7">
         <v>66</v>
@@ -5952,13 +5904,13 @@
         <v>70176</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="M17" s="7">
         <v>114</v>
@@ -5967,13 +5919,13 @@
         <v>120855</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6041,13 +5993,13 @@
         <v>1168</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="H19" s="7">
         <v>2</v>
@@ -6062,7 +6014,7 @@
         <v>11</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="M19" s="7">
         <v>3</v>
@@ -6071,13 +6023,13 @@
         <v>3342</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6092,13 +6044,13 @@
         <v>1036</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="H20" s="7">
         <v>8</v>
@@ -6107,13 +6059,13 @@
         <v>8499</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="M20" s="7">
         <v>9</v>
@@ -6122,13 +6074,13 @@
         <v>9535</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>133</v>
+        <v>281</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6143,13 +6095,13 @@
         <v>986</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -6173,13 +6125,13 @@
         <v>986</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="P21" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>293</v>
+        <v>206</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6194,13 +6146,13 @@
         <v>105119</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="H22" s="7">
         <v>119</v>
@@ -6209,13 +6161,13 @@
         <v>123795</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="M22" s="7">
         <v>214</v>
@@ -6224,13 +6176,13 @@
         <v>228914</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6304,7 +6256,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="H24" s="7">
         <v>3</v>
@@ -6313,13 +6265,13 @@
         <v>3096</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="M24" s="7">
         <v>3</v>
@@ -6328,13 +6280,13 @@
         <v>3096</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>212</v>
+        <v>300</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6349,13 +6301,13 @@
         <v>1157</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="H25" s="7">
         <v>1</v>
@@ -6364,13 +6316,13 @@
         <v>992</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="M25" s="7">
         <v>2</v>
@@ -6379,13 +6331,13 @@
         <v>2148</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6400,13 +6352,13 @@
         <v>1101</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>48</v>
+        <v>307</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -6421,7 +6373,7 @@
         <v>12</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="M26" s="7">
         <v>1</v>
@@ -6430,13 +6382,13 @@
         <v>1101</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6451,10 +6403,10 @@
         <v>29355</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="G27" s="7" t="s">
         <v>22</v>
@@ -6466,13 +6418,13 @@
         <v>45767</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="M27" s="7">
         <v>70</v>
@@ -6481,13 +6433,13 @@
         <v>75122</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -6555,13 +6507,13 @@
         <v>1057</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>326</v>
+        <v>206</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="H29" s="7">
         <v>3</v>
@@ -6570,13 +6522,13 @@
         <v>3243</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>329</v>
+        <v>79</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="M29" s="7">
         <v>4</v>
@@ -6585,13 +6537,13 @@
         <v>4300</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>331</v>
+        <v>197</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>332</v>
+        <v>151</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6606,13 +6558,13 @@
         <v>1075</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="H30" s="7">
         <v>4</v>
@@ -6621,13 +6573,13 @@
         <v>4176</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="M30" s="7">
         <v>5</v>
@@ -6636,13 +6588,13 @@
         <v>5251</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>339</v>
+        <v>179</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6663,7 +6615,7 @@
         <v>12</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="H31" s="7">
         <v>1</v>
@@ -6678,7 +6630,7 @@
         <v>11</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="M31" s="7">
         <v>1</v>
@@ -6687,13 +6639,13 @@
         <v>1100</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="P31" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6708,10 +6660,10 @@
         <v>49624</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="G32" s="7" t="s">
         <v>22</v>
@@ -6723,13 +6675,13 @@
         <v>61693</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="M32" s="7">
         <v>109</v>
@@ -6738,13 +6690,13 @@
         <v>111317</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6800,7 +6752,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -6812,13 +6764,13 @@
         <v>1989</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>354</v>
+        <v>61</v>
       </c>
       <c r="H34" s="7">
         <v>2</v>
@@ -6827,13 +6779,13 @@
         <v>2025</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>355</v>
+        <v>344</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>356</v>
+        <v>168</v>
       </c>
       <c r="M34" s="7">
         <v>4</v>
@@ -6842,13 +6794,13 @@
         <v>4015</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>292</v>
+        <v>346</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>358</v>
+        <v>58</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6863,13 +6815,13 @@
         <v>1006</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="F35" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="H35" s="7">
         <v>9</v>
@@ -6878,13 +6830,13 @@
         <v>9180</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>362</v>
+        <v>350</v>
       </c>
       <c r="M35" s="7">
         <v>10</v>
@@ -6893,13 +6845,13 @@
         <v>10186</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>175</v>
+        <v>352</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>180</v>
+        <v>353</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6914,13 +6866,13 @@
         <v>2269</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="F36" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -6944,13 +6896,13 @@
         <v>2269</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>332</v>
+        <v>356</v>
       </c>
       <c r="P36" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6965,13 +6917,13 @@
         <v>106999</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="H37" s="7">
         <v>118</v>
@@ -6980,13 +6932,13 @@
         <v>130756</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>370</v>
+        <v>361</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="M37" s="7">
         <v>214</v>
@@ -6995,13 +6947,13 @@
         <v>237757</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -7069,13 +7021,13 @@
         <v>1098</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="F39" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="H39" s="7">
         <v>4</v>
@@ -7084,13 +7036,13 @@
         <v>4478</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="K39" s="7" t="s">
         <v>47</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="M39" s="7">
         <v>5</v>
@@ -7099,13 +7051,13 @@
         <v>5577</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>179</v>
+        <v>153</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>356</v>
+        <v>371</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -7120,13 +7072,13 @@
         <v>3352</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>102</v>
+        <v>372</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>152</v>
+        <v>333</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="H40" s="7">
         <v>6</v>
@@ -7135,13 +7087,13 @@
         <v>6743</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>355</v>
+        <v>375</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="M40" s="7">
         <v>9</v>
@@ -7153,10 +7105,10 @@
         <v>58</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>203</v>
+        <v>18</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>383</v>
+        <v>296</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -7177,7 +7129,7 @@
         <v>12</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>32</v>
+        <v>377</v>
       </c>
       <c r="H41" s="7">
         <v>1</v>
@@ -7186,13 +7138,13 @@
         <v>1077</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="K41" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>385</v>
+        <v>197</v>
       </c>
       <c r="M41" s="7">
         <v>1</v>
@@ -7201,13 +7153,13 @@
         <v>1077</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>386</v>
+        <v>346</v>
       </c>
       <c r="P41" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>199</v>
+        <v>379</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -7222,13 +7174,13 @@
         <v>116302</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="H42" s="7">
         <v>140</v>
@@ -7237,13 +7189,13 @@
         <v>152120</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>53</v>
+        <v>366</v>
       </c>
       <c r="M42" s="7">
         <v>242</v>
@@ -7252,13 +7204,13 @@
         <v>268422</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>375</v>
+        <v>387</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -7326,13 +7278,13 @@
         <v>9438</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>293</v>
+        <v>226</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="H44" s="7">
         <v>24</v>
@@ -7341,13 +7293,13 @@
         <v>27149</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="M44" s="7">
         <v>33</v>
@@ -7356,13 +7308,13 @@
         <v>36587</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>156</v>
+        <v>392</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>398</v>
+        <v>297</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>358</v>
+        <v>393</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -7377,13 +7329,13 @@
         <v>11754</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>400</v>
+        <v>204</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="H45" s="7">
         <v>33</v>
@@ -7392,13 +7344,13 @@
         <v>35043</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="M45" s="7">
         <v>44</v>
@@ -7407,13 +7359,13 @@
         <v>46797</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>406</v>
+        <v>145</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>204</v>
+        <v>132</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -7431,10 +7383,10 @@
         <v>169</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>11</v>
+        <v>400</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="H46" s="7">
         <v>4</v>
@@ -7443,13 +7395,13 @@
         <v>4434</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>316</v>
+        <v>37</v>
       </c>
       <c r="M46" s="7">
         <v>7</v>
@@ -7458,13 +7410,13 @@
         <v>8789</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>410</v>
+        <v>35</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>412</v>
+        <v>375</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -7479,13 +7431,13 @@
         <v>534090</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>415</v>
+        <v>90</v>
       </c>
       <c r="H47" s="7">
         <v>633</v>
@@ -7494,13 +7446,13 @@
         <v>676349</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>416</v>
+        <v>386</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="M47" s="7">
         <v>1114</v>
@@ -7509,13 +7461,13 @@
         <v>1210439</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -7571,7 +7523,7 @@
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
   </sheetData>
@@ -7595,7 +7547,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F84EBE2-71AB-4C4A-8B3B-0B77C2D26575}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1570C437-A2DC-4AE6-943A-299634531BB7}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7612,7 +7564,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7719,13 +7671,13 @@
         <v>802</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>423</v>
+        <v>413</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -7734,13 +7686,13 @@
         <v>1126</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>425</v>
+        <v>415</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>426</v>
+        <v>416</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
@@ -7749,13 +7701,13 @@
         <v>1927</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>428</v>
+        <v>418</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7770,13 +7722,13 @@
         <v>791</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>429</v>
+        <v>419</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="H5" s="7">
         <v>3</v>
@@ -7785,13 +7737,13 @@
         <v>3454</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>278</v>
+        <v>421</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>431</v>
+        <v>413</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>432</v>
+        <v>422</v>
       </c>
       <c r="M5" s="7">
         <v>4</v>
@@ -7800,13 +7752,13 @@
         <v>4246</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>433</v>
+        <v>423</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>434</v>
+        <v>37</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>435</v>
+        <v>424</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7827,7 +7779,7 @@
         <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>436</v>
+        <v>425</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -7842,7 +7794,7 @@
         <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>437</v>
+        <v>426</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -7857,7 +7809,7 @@
         <v>12</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>438</v>
+        <v>257</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -7872,10 +7824,10 @@
         <v>37303</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>439</v>
+        <v>427</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>22</v>
@@ -7887,28 +7839,28 @@
         <v>44811</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>442</v>
+        <v>430</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>443</v>
+        <v>431</v>
       </c>
       <c r="M7" s="7">
         <v>79</v>
       </c>
       <c r="N7" s="7">
-        <v>82114</v>
+        <v>82113</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>444</v>
+        <v>432</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>445</v>
+        <v>433</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>446</v>
+        <v>434</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7950,7 +7902,7 @@
         <v>85</v>
       </c>
       <c r="N8" s="7">
-        <v>88287</v>
+        <v>88286</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>24</v>
@@ -7982,7 +7934,7 @@
         <v>12</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
       <c r="H9" s="7">
         <v>1</v>
@@ -7991,13 +7943,13 @@
         <v>1347</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>448</v>
+        <v>436</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>449</v>
+        <v>437</v>
       </c>
       <c r="M9" s="7">
         <v>1</v>
@@ -8006,13 +7958,13 @@
         <v>1347</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>410</v>
+        <v>35</v>
       </c>
       <c r="P9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>450</v>
+        <v>438</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -8027,13 +7979,13 @@
         <v>2923</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="H10" s="7">
         <v>6</v>
@@ -8042,13 +7994,13 @@
         <v>7796</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>454</v>
+        <v>442</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>455</v>
+        <v>198</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>456</v>
+        <v>443</v>
       </c>
       <c r="M10" s="7">
         <v>9</v>
@@ -8057,13 +8009,13 @@
         <v>10719</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>14</v>
+        <v>445</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -8084,7 +8036,7 @@
         <v>12</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -8114,7 +8066,7 @@
         <v>12</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>458</v>
+        <v>447</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -8129,13 +8081,13 @@
         <v>84372</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>459</v>
+        <v>448</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>460</v>
+        <v>185</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="H12" s="7">
         <v>88</v>
@@ -8144,13 +8096,13 @@
         <v>106085</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>462</v>
+        <v>450</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
       <c r="M12" s="7">
         <v>175</v>
@@ -8159,13 +8111,13 @@
         <v>190457</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>466</v>
+        <v>454</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>467</v>
+        <v>455</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -8239,7 +8191,7 @@
         <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>468</v>
+        <v>456</v>
       </c>
       <c r="H14" s="7">
         <v>3</v>
@@ -8248,13 +8200,13 @@
         <v>4477</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>469</v>
+        <v>457</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>470</v>
+        <v>458</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>471</v>
+        <v>459</v>
       </c>
       <c r="M14" s="7">
         <v>3</v>
@@ -8263,13 +8215,13 @@
         <v>4477</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>472</v>
+        <v>460</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>69</v>
+        <v>158</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>473</v>
+        <v>461</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -8284,13 +8236,13 @@
         <v>2817</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>474</v>
+        <v>462</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>475</v>
+        <v>463</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>476</v>
+        <v>464</v>
       </c>
       <c r="H15" s="7">
         <v>0</v>
@@ -8305,7 +8257,7 @@
         <v>12</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="M15" s="7">
         <v>3</v>
@@ -8314,13 +8266,13 @@
         <v>2817</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>192</v>
+        <v>465</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>477</v>
+        <v>271</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -8341,7 +8293,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>468</v>
+        <v>456</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -8356,7 +8308,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -8371,7 +8323,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -8386,13 +8338,13 @@
         <v>60729</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>478</v>
+        <v>241</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>479</v>
+        <v>466</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>480</v>
+        <v>165</v>
       </c>
       <c r="H17" s="7">
         <v>66</v>
@@ -8401,13 +8353,13 @@
         <v>75420</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>481</v>
+        <v>467</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>482</v>
+        <v>468</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>483</v>
+        <v>469</v>
       </c>
       <c r="M17" s="7">
         <v>135</v>
@@ -8416,13 +8368,13 @@
         <v>136149</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>484</v>
+        <v>470</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>485</v>
+        <v>471</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>486</v>
+        <v>472</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -8490,13 +8442,13 @@
         <v>813</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>434</v>
+        <v>473</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>487</v>
+        <v>474</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -8520,13 +8472,13 @@
         <v>813</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>488</v>
+        <v>475</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>425</v>
+        <v>126</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -8541,13 +8493,13 @@
         <v>827</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>489</v>
+        <v>476</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>317</v>
+        <v>477</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -8571,13 +8523,13 @@
         <v>827</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>490</v>
+        <v>465</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -8592,13 +8544,13 @@
         <v>1804</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>491</v>
+        <v>478</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>492</v>
+        <v>479</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -8628,7 +8580,7 @@
         <v>11</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>207</v>
+        <v>480</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -8643,13 +8595,13 @@
         <v>61268</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>493</v>
+        <v>481</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>494</v>
+        <v>482</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>495</v>
+        <v>483</v>
       </c>
       <c r="H22" s="7">
         <v>76</v>
@@ -8661,7 +8613,7 @@
         <v>22</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>496</v>
+        <v>484</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>24</v>
@@ -8673,13 +8625,13 @@
         <v>152841</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>497</v>
+        <v>485</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>498</v>
+        <v>487</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8753,7 +8705,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>499</v>
+        <v>488</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -8768,7 +8720,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>500</v>
+        <v>489</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -8783,7 +8735,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>326</v>
+        <v>206</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -8798,13 +8750,13 @@
         <v>799</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>501</v>
+        <v>379</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>502</v>
+        <v>490</v>
       </c>
       <c r="H25" s="7">
         <v>5</v>
@@ -8813,13 +8765,13 @@
         <v>5461</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>503</v>
+        <v>134</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>504</v>
+        <v>173</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>505</v>
+        <v>491</v>
       </c>
       <c r="M25" s="7">
         <v>6</v>
@@ -8828,13 +8780,13 @@
         <v>6260</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>506</v>
+        <v>492</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>507</v>
+        <v>493</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>508</v>
+        <v>494</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8855,7 +8807,7 @@
         <v>12</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>499</v>
+        <v>488</v>
       </c>
       <c r="H26" s="7">
         <v>2</v>
@@ -8864,13 +8816,13 @@
         <v>2318</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>509</v>
+        <v>495</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>510</v>
+        <v>496</v>
       </c>
       <c r="M26" s="7">
         <v>2</v>
@@ -8885,7 +8837,7 @@
         <v>11</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>511</v>
+        <v>497</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8900,10 +8852,10 @@
         <v>41281</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>512</v>
+        <v>498</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>513</v>
+        <v>499</v>
       </c>
       <c r="G27" s="7" t="s">
         <v>22</v>
@@ -8915,13 +8867,13 @@
         <v>42753</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>514</v>
+        <v>500</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>515</v>
+        <v>501</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>516</v>
+        <v>502</v>
       </c>
       <c r="M27" s="7">
         <v>85</v>
@@ -8930,13 +8882,13 @@
         <v>84034</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>517</v>
+        <v>503</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>518</v>
+        <v>504</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>519</v>
+        <v>505</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -9010,7 +8962,7 @@
         <v>12</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>520</v>
+        <v>506</v>
       </c>
       <c r="H29" s="7">
         <v>3</v>
@@ -9019,13 +8971,13 @@
         <v>3713</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>279</v>
+        <v>507</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>149</v>
+        <v>508</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>521</v>
+        <v>509</v>
       </c>
       <c r="M29" s="7">
         <v>3</v>
@@ -9034,13 +8986,13 @@
         <v>3713</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>522</v>
+        <v>510</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>523</v>
+        <v>447</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>524</v>
+        <v>511</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -9055,13 +9007,13 @@
         <v>4902</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>60</v>
+        <v>512</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>525</v>
+        <v>513</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>526</v>
+        <v>514</v>
       </c>
       <c r="H30" s="7">
         <v>4</v>
@@ -9070,13 +9022,13 @@
         <v>4847</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>527</v>
+        <v>515</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>528</v>
+        <v>516</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>529</v>
+        <v>517</v>
       </c>
       <c r="M30" s="7">
         <v>10</v>
@@ -9085,13 +9037,13 @@
         <v>9749</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>530</v>
+        <v>518</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>531</v>
+        <v>519</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>532</v>
+        <v>520</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -9106,13 +9058,13 @@
         <v>767</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>533</v>
+        <v>518</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -9127,7 +9079,7 @@
         <v>12</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>534</v>
+        <v>83</v>
       </c>
       <c r="M31" s="7">
         <v>1</v>
@@ -9136,13 +9088,13 @@
         <v>767</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>35</v>
+        <v>521</v>
       </c>
       <c r="P31" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>535</v>
+        <v>522</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -9157,13 +9109,13 @@
         <v>42777</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>536</v>
+        <v>523</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>537</v>
+        <v>524</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>538</v>
+        <v>525</v>
       </c>
       <c r="H32" s="7">
         <v>52</v>
@@ -9172,13 +9124,13 @@
         <v>58829</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>539</v>
+        <v>526</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>540</v>
+        <v>527</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>541</v>
+        <v>528</v>
       </c>
       <c r="M32" s="7">
         <v>100</v>
@@ -9187,13 +9139,13 @@
         <v>101606</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>542</v>
+        <v>529</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>543</v>
+        <v>530</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>544</v>
+        <v>531</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -9249,7 +9201,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -9261,13 +9213,13 @@
         <v>3715</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>385</v>
+        <v>274</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>155</v>
+        <v>532</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>545</v>
+        <v>533</v>
       </c>
       <c r="H34" s="7">
         <v>2</v>
@@ -9276,13 +9228,13 @@
         <v>2542</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>546</v>
+        <v>534</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>547</v>
+        <v>535</v>
       </c>
       <c r="M34" s="7">
         <v>6</v>
@@ -9291,13 +9243,13 @@
         <v>6257</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>256</v>
+        <v>445</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>152</v>
+        <v>536</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>548</v>
+        <v>537</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -9312,13 +9264,13 @@
         <v>890</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F35" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>549</v>
+        <v>538</v>
       </c>
       <c r="H35" s="7">
         <v>8</v>
@@ -9327,13 +9279,13 @@
         <v>10369</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>550</v>
+        <v>539</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>286</v>
+        <v>438</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>551</v>
+        <v>540</v>
       </c>
       <c r="M35" s="7">
         <v>9</v>
@@ -9342,13 +9294,13 @@
         <v>11259</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>552</v>
+        <v>541</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>379</v>
+        <v>401</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>553</v>
+        <v>542</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -9363,13 +9315,13 @@
         <v>898</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>554</v>
+        <v>543</v>
       </c>
       <c r="F36" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>555</v>
+        <v>544</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -9384,7 +9336,7 @@
         <v>12</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>556</v>
+        <v>327</v>
       </c>
       <c r="M36" s="7">
         <v>1</v>
@@ -9393,13 +9345,13 @@
         <v>898</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>557</v>
+        <v>545</v>
       </c>
       <c r="P36" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>558</v>
+        <v>546</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -9417,10 +9369,10 @@
         <v>23</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>559</v>
+        <v>547</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>560</v>
+        <v>77</v>
       </c>
       <c r="H37" s="7">
         <v>115</v>
@@ -9429,13 +9381,13 @@
         <v>134714</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>460</v>
+        <v>548</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>561</v>
+        <v>549</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>562</v>
+        <v>550</v>
       </c>
       <c r="M37" s="7">
         <v>218</v>
@@ -9444,13 +9396,13 @@
         <v>241397</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>563</v>
+        <v>551</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>564</v>
+        <v>552</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>565</v>
+        <v>553</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -9524,7 +9476,7 @@
         <v>12</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="H39" s="7">
         <v>0</v>
@@ -9539,7 +9491,7 @@
         <v>12</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="M39" s="7">
         <v>0</v>
@@ -9569,13 +9521,13 @@
         <v>3248</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>566</v>
+        <v>554</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>567</v>
+        <v>418</v>
       </c>
       <c r="H40" s="7">
         <v>9</v>
@@ -9584,13 +9536,13 @@
         <v>12152</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>568</v>
+        <v>555</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>569</v>
+        <v>556</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>570</v>
+        <v>557</v>
       </c>
       <c r="M40" s="7">
         <v>12</v>
@@ -9599,13 +9551,13 @@
         <v>15400</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>284</v>
+        <v>558</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>156</v>
+        <v>305</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>571</v>
+        <v>559</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -9626,7 +9578,7 @@
         <v>12</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="H41" s="7">
         <v>0</v>
@@ -9641,7 +9593,7 @@
         <v>12</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="M41" s="7">
         <v>0</v>
@@ -9671,13 +9623,13 @@
         <v>130920</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>572</v>
+        <v>560</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>573</v>
+        <v>561</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>574</v>
+        <v>562</v>
       </c>
       <c r="H42" s="7">
         <v>133</v>
@@ -9686,13 +9638,13 @@
         <v>164145</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>575</v>
+        <v>563</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>576</v>
+        <v>564</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>577</v>
+        <v>565</v>
       </c>
       <c r="M42" s="7">
         <v>271</v>
@@ -9701,13 +9653,13 @@
         <v>295065</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>578</v>
+        <v>566</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>579</v>
+        <v>567</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>580</v>
+        <v>319</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -9775,13 +9727,13 @@
         <v>5329</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>581</v>
+        <v>568</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>582</v>
+        <v>569</v>
       </c>
       <c r="H44" s="7">
         <v>10</v>
@@ -9790,13 +9742,13 @@
         <v>13205</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>583</v>
+        <v>570</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>584</v>
+        <v>532</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>585</v>
+        <v>571</v>
       </c>
       <c r="M44" s="7">
         <v>16</v>
@@ -9805,13 +9757,13 @@
         <v>18534</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>554</v>
+        <v>572</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>586</v>
+        <v>229</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -9826,13 +9778,13 @@
         <v>17199</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>587</v>
+        <v>573</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>32</v>
+        <v>377</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>588</v>
+        <v>175</v>
       </c>
       <c r="H45" s="7">
         <v>35</v>
@@ -9841,13 +9793,13 @@
         <v>44077</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>589</v>
+        <v>574</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>590</v>
+        <v>488</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>591</v>
+        <v>575</v>
       </c>
       <c r="M45" s="7">
         <v>54</v>
@@ -9856,13 +9808,13 @@
         <v>61276</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>366</v>
+        <v>236</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>592</v>
+        <v>576</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>593</v>
+        <v>577</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -9877,13 +9829,13 @@
         <v>3468</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>594</v>
+        <v>232</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>595</v>
+        <v>403</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>596</v>
+        <v>37</v>
       </c>
       <c r="H46" s="7">
         <v>2</v>
@@ -9892,13 +9844,13 @@
         <v>2318</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>597</v>
+        <v>578</v>
       </c>
       <c r="K46" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>197</v>
+        <v>447</v>
       </c>
       <c r="M46" s="7">
         <v>6</v>
@@ -9907,13 +9859,13 @@
         <v>5786</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>598</v>
+        <v>579</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>409</v>
+        <v>191</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>332</v>
+        <v>356</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -9928,13 +9880,13 @@
         <v>565332</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>599</v>
+        <v>580</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>600</v>
+        <v>581</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>601</v>
+        <v>582</v>
       </c>
       <c r="H47" s="7">
         <v>608</v>
@@ -9943,13 +9895,13 @@
         <v>718330</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>602</v>
+        <v>583</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>603</v>
+        <v>584</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>219</v>
+        <v>486</v>
       </c>
       <c r="M47" s="7">
         <v>1206</v>
@@ -9958,13 +9910,13 @@
         <v>1283663</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>604</v>
+        <v>268</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>605</v>
+        <v>585</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>23</v>
+        <v>586</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -10020,7 +9972,7 @@
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
   </sheetData>
@@ -10044,7 +9996,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2289780-5C09-4C87-8506-50B19A731AC9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38B3FB4B-EE65-421C-AEAC-66FCD5189731}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10061,7 +10013,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>606</v>
+        <v>587</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -10174,7 +10126,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>425</v>
+        <v>415</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -10183,13 +10135,13 @@
         <v>616</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>607</v>
+        <v>588</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -10198,7 +10150,7 @@
         <v>616</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
@@ -10225,7 +10177,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>425</v>
+        <v>415</v>
       </c>
       <c r="H5" s="7">
         <v>2</v>
@@ -10234,13 +10186,13 @@
         <v>1284</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>423</v>
+        <v>413</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>608</v>
+        <v>589</v>
       </c>
       <c r="M5" s="7">
         <v>2</v>
@@ -10249,13 +10201,13 @@
         <v>1284</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>400</v>
+        <v>196</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>170</v>
+        <v>590</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -10276,7 +10228,7 @@
         <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>425</v>
+        <v>415</v>
       </c>
       <c r="H6" s="7">
         <v>3</v>
@@ -10285,13 +10237,13 @@
         <v>2041</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>609</v>
+        <v>591</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>610</v>
+        <v>592</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>611</v>
+        <v>593</v>
       </c>
       <c r="M6" s="7">
         <v>3</v>
@@ -10300,13 +10252,13 @@
         <v>2041</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>32</v>
+        <v>377</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>612</v>
+        <v>594</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>613</v>
+        <v>595</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -10324,7 +10276,7 @@
         <v>22</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>614</v>
+        <v>596</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>24</v>
@@ -10336,13 +10288,13 @@
         <v>58278</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>615</v>
+        <v>597</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>616</v>
+        <v>598</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>617</v>
+        <v>599</v>
       </c>
       <c r="M7" s="7">
         <v>209</v>
@@ -10351,13 +10303,13 @@
         <v>110198</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>618</v>
+        <v>600</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>619</v>
+        <v>601</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>620</v>
+        <v>602</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -10425,13 +10377,13 @@
         <v>882</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>621</v>
+        <v>603</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>622</v>
+        <v>604</v>
       </c>
       <c r="H9" s="7">
         <v>7</v>
@@ -10440,13 +10392,13 @@
         <v>5385</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>623</v>
+        <v>605</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>624</v>
+        <v>41</v>
       </c>
       <c r="M9" s="7">
         <v>8</v>
@@ -10455,13 +10407,13 @@
         <v>6267</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>625</v>
+        <v>606</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>626</v>
+        <v>607</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>627</v>
+        <v>608</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -10476,13 +10428,13 @@
         <v>3952</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>628</v>
+        <v>609</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>629</v>
+        <v>610</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>630</v>
+        <v>611</v>
       </c>
       <c r="H10" s="7">
         <v>15</v>
@@ -10491,13 +10443,13 @@
         <v>10549</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>631</v>
+        <v>612</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>632</v>
+        <v>613</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>633</v>
+        <v>614</v>
       </c>
       <c r="M10" s="7">
         <v>19</v>
@@ -10506,13 +10458,13 @@
         <v>14500</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>634</v>
+        <v>474</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>635</v>
+        <v>615</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>85</v>
+        <v>616</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -10542,13 +10494,13 @@
         <v>1940</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>62</v>
+        <v>617</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>281</v>
+        <v>618</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>636</v>
+        <v>619</v>
       </c>
       <c r="M11" s="7">
         <v>3</v>
@@ -10560,10 +10512,10 @@
         <v>158</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>211</v>
+        <v>620</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>266</v>
+        <v>156</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -10578,13 +10530,13 @@
         <v>81481</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>481</v>
+        <v>467</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>637</v>
+        <v>621</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>638</v>
+        <v>622</v>
       </c>
       <c r="H12" s="7">
         <v>198</v>
@@ -10593,13 +10545,13 @@
         <v>123483</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>639</v>
+        <v>623</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>640</v>
+        <v>624</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>641</v>
+        <v>625</v>
       </c>
       <c r="M12" s="7">
         <v>288</v>
@@ -10608,13 +10560,13 @@
         <v>204964</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>642</v>
+        <v>626</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>643</v>
+        <v>627</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>644</v>
+        <v>628</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -10682,13 +10634,13 @@
         <v>2127</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>645</v>
+        <v>629</v>
       </c>
       <c r="H14" s="7">
         <v>4</v>
@@ -10697,13 +10649,13 @@
         <v>2289</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>256</v>
+        <v>445</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>646</v>
+        <v>43</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>36</v>
+        <v>228</v>
       </c>
       <c r="M14" s="7">
         <v>7</v>
@@ -10712,13 +10664,13 @@
         <v>4417</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>647</v>
+        <v>630</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>607</v>
+        <v>588</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -10733,13 +10685,13 @@
         <v>2406</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>158</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>648</v>
+        <v>631</v>
       </c>
       <c r="H15" s="7">
         <v>13</v>
@@ -10748,13 +10700,13 @@
         <v>7416</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>591</v>
+        <v>632</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>151</v>
+        <v>519</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>649</v>
+        <v>633</v>
       </c>
       <c r="M15" s="7">
         <v>17</v>
@@ -10763,13 +10715,13 @@
         <v>9821</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>650</v>
+        <v>634</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>651</v>
+        <v>635</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>652</v>
+        <v>636</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -10784,13 +10736,13 @@
         <v>1339</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>653</v>
+        <v>508</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>654</v>
+        <v>637</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -10799,13 +10751,13 @@
         <v>632</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>410</v>
+        <v>35</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>655</v>
+        <v>438</v>
       </c>
       <c r="M16" s="7">
         <v>3</v>
@@ -10814,13 +10766,13 @@
         <v>1972</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>656</v>
+        <v>638</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>657</v>
+        <v>639</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -10835,13 +10787,13 @@
         <v>71729</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>658</v>
+        <v>640</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>659</v>
+        <v>641</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>660</v>
+        <v>244</v>
       </c>
       <c r="H17" s="7">
         <v>151</v>
@@ -10850,13 +10802,13 @@
         <v>84614</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>661</v>
+        <v>642</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>662</v>
+        <v>643</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>663</v>
+        <v>644</v>
       </c>
       <c r="M17" s="7">
         <v>264</v>
@@ -10865,13 +10817,13 @@
         <v>156342</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>664</v>
+        <v>28</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>665</v>
+        <v>645</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>666</v>
+        <v>646</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -10945,7 +10897,7 @@
         <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>667</v>
+        <v>546</v>
       </c>
       <c r="H19" s="7">
         <v>3</v>
@@ -10957,10 +10909,10 @@
         <v>113</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>668</v>
+        <v>647</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>651</v>
+        <v>635</v>
       </c>
       <c r="M19" s="7">
         <v>3</v>
@@ -10969,13 +10921,13 @@
         <v>1359</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>669</v>
+        <v>648</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>670</v>
+        <v>649</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>671</v>
+        <v>650</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -10996,7 +10948,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>667</v>
+        <v>546</v>
       </c>
       <c r="H20" s="7">
         <v>7</v>
@@ -11005,13 +10957,13 @@
         <v>2932</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>672</v>
+        <v>651</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>344</v>
+        <v>652</v>
       </c>
       <c r="M20" s="7">
         <v>7</v>
@@ -11020,13 +10972,13 @@
         <v>2932</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>65</v>
+        <v>458</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>673</v>
+        <v>653</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -11047,7 +10999,7 @@
         <v>12</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>667</v>
+        <v>546</v>
       </c>
       <c r="H21" s="7">
         <v>1</v>
@@ -11056,13 +11008,13 @@
         <v>474</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>281</v>
+        <v>618</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>210</v>
+        <v>654</v>
       </c>
       <c r="M21" s="7">
         <v>1</v>
@@ -11071,13 +11023,13 @@
         <v>474</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>411</v>
+        <v>655</v>
       </c>
       <c r="P21" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>434</v>
+        <v>473</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -11095,7 +11047,7 @@
         <v>22</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>674</v>
+        <v>656</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>24</v>
@@ -11107,13 +11059,13 @@
         <v>105690</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>675</v>
+        <v>657</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>544</v>
+        <v>658</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>676</v>
+        <v>659</v>
       </c>
       <c r="M22" s="7">
         <v>363</v>
@@ -11122,13 +11074,13 @@
         <v>184495</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>677</v>
+        <v>660</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>678</v>
+        <v>661</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>679</v>
+        <v>662</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -11202,7 +11154,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>680</v>
+        <v>663</v>
       </c>
       <c r="H24" s="7">
         <v>2</v>
@@ -11211,13 +11163,13 @@
         <v>983</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>329</v>
+        <v>664</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>681</v>
+        <v>154</v>
       </c>
       <c r="M24" s="7">
         <v>2</v>
@@ -11226,7 +11178,7 @@
         <v>983</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>682</v>
+        <v>665</v>
       </c>
       <c r="P24" s="7" t="s">
         <v>11</v>
@@ -11247,13 +11199,13 @@
         <v>1616</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>683</v>
+        <v>48</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>227</v>
+        <v>208</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>684</v>
+        <v>666</v>
       </c>
       <c r="H25" s="7">
         <v>12</v>
@@ -11262,13 +11214,13 @@
         <v>5361</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>685</v>
+        <v>667</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>366</v>
+        <v>236</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>686</v>
+        <v>668</v>
       </c>
       <c r="M25" s="7">
         <v>15</v>
@@ -11277,13 +11229,13 @@
         <v>6978</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>687</v>
+        <v>669</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>450</v>
+        <v>670</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>688</v>
+        <v>279</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -11304,7 +11256,7 @@
         <v>12</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>680</v>
+        <v>663</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -11319,7 +11271,7 @@
         <v>12</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>689</v>
+        <v>671</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -11334,7 +11286,7 @@
         <v>12</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>584</v>
+        <v>532</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -11349,13 +11301,13 @@
         <v>36715</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>690</v>
+        <v>672</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>691</v>
+        <v>673</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>679</v>
+        <v>662</v>
       </c>
       <c r="H27" s="7">
         <v>151</v>
@@ -11364,13 +11316,13 @@
         <v>59136</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>692</v>
+        <v>674</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>514</v>
+        <v>500</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>693</v>
+        <v>675</v>
       </c>
       <c r="M27" s="7">
         <v>219</v>
@@ -11379,13 +11331,13 @@
         <v>95851</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>694</v>
+        <v>676</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>479</v>
+        <v>677</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>695</v>
+        <v>678</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -11453,13 +11405,13 @@
         <v>1591</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>266</v>
+        <v>156</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>594</v>
+        <v>232</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>696</v>
+        <v>679</v>
       </c>
       <c r="H29" s="7">
         <v>9</v>
@@ -11468,13 +11420,13 @@
         <v>3775</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>697</v>
+        <v>334</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>42</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>698</v>
+        <v>85</v>
       </c>
       <c r="M29" s="7">
         <v>13</v>
@@ -11483,13 +11435,13 @@
         <v>5366</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>699</v>
+        <v>680</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>700</v>
+        <v>681</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>701</v>
+        <v>682</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -11504,13 +11456,13 @@
         <v>409</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>702</v>
+        <v>683</v>
       </c>
       <c r="H30" s="7">
         <v>13</v>
@@ -11519,13 +11471,13 @@
         <v>4487</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>703</v>
+        <v>684</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>704</v>
+        <v>685</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>705</v>
+        <v>686</v>
       </c>
       <c r="M30" s="7">
         <v>14</v>
@@ -11534,13 +11486,13 @@
         <v>4895</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>706</v>
+        <v>202</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>700</v>
+        <v>681</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>36</v>
+        <v>228</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -11561,7 +11513,7 @@
         <v>12</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -11576,7 +11528,7 @@
         <v>12</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="M31" s="7">
         <v>0</v>
@@ -11591,7 +11543,7 @@
         <v>12</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>646</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -11606,13 +11558,13 @@
         <v>61183</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>707</v>
+        <v>687</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>708</v>
+        <v>688</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>709</v>
+        <v>689</v>
       </c>
       <c r="H32" s="7">
         <v>155</v>
@@ -11621,13 +11573,13 @@
         <v>61592</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>710</v>
+        <v>690</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>711</v>
+        <v>691</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>712</v>
+        <v>692</v>
       </c>
       <c r="M32" s="7">
         <v>285</v>
@@ -11636,13 +11588,13 @@
         <v>122776</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>713</v>
+        <v>693</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>714</v>
+        <v>694</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>715</v>
+        <v>695</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -11698,7 +11650,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -11710,13 +11662,13 @@
         <v>760</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>716</v>
+        <v>696</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>566</v>
+        <v>554</v>
       </c>
       <c r="H34" s="7">
         <v>4</v>
@@ -11725,13 +11677,13 @@
         <v>2610</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>717</v>
+        <v>536</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="M34" s="7">
         <v>5</v>
@@ -11740,13 +11692,13 @@
         <v>3370</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>718</v>
+        <v>191</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>305</v>
+        <v>697</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -11761,13 +11713,13 @@
         <v>1641</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="F35" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>241</v>
+        <v>698</v>
       </c>
       <c r="H35" s="7">
         <v>10</v>
@@ -11776,13 +11728,13 @@
         <v>5793</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>719</v>
+        <v>699</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>720</v>
+        <v>537</v>
       </c>
       <c r="M35" s="7">
         <v>12</v>
@@ -11791,13 +11743,13 @@
         <v>7434</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>528</v>
+        <v>700</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>721</v>
+        <v>701</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>520</v>
+        <v>506</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -11812,13 +11764,13 @@
         <v>698</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>490</v>
+        <v>465</v>
       </c>
       <c r="F36" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>587</v>
+        <v>573</v>
       </c>
       <c r="H36" s="7">
         <v>8</v>
@@ -11830,10 +11782,10 @@
         <v>99</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>722</v>
+        <v>207</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="M36" s="7">
         <v>9</v>
@@ -11842,13 +11794,13 @@
         <v>4892</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>434</v>
+        <v>473</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>211</v>
+        <v>620</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>566</v>
+        <v>554</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -11863,13 +11815,13 @@
         <v>127740</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>723</v>
+        <v>702</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>724</v>
+        <v>703</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>725</v>
+        <v>704</v>
       </c>
       <c r="H37" s="7">
         <v>220</v>
@@ -11878,13 +11830,13 @@
         <v>246247</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>726</v>
+        <v>705</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>136</v>
+        <v>706</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>727</v>
+        <v>707</v>
       </c>
       <c r="M37" s="7">
         <v>384</v>
@@ -11893,13 +11845,13 @@
         <v>373987</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>728</v>
+        <v>708</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>139</v>
+        <v>709</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -11973,7 +11925,7 @@
         <v>12</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>584</v>
+        <v>532</v>
       </c>
       <c r="H39" s="7">
         <v>0</v>
@@ -11988,7 +11940,7 @@
         <v>12</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>198</v>
+        <v>710</v>
       </c>
       <c r="M39" s="7">
         <v>0</v>
@@ -12003,7 +11955,7 @@
         <v>12</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>729</v>
+        <v>711</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -12018,13 +11970,13 @@
         <v>2161</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>730</v>
+        <v>712</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>525</v>
+        <v>713</v>
       </c>
       <c r="H40" s="7">
         <v>17</v>
@@ -12033,13 +11985,13 @@
         <v>13858</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>731</v>
+        <v>714</v>
       </c>
       <c r="M40" s="7">
         <v>20</v>
@@ -12051,10 +12003,10 @@
         <v>64</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>566</v>
+        <v>554</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>732</v>
+        <v>715</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -12069,13 +12021,13 @@
         <v>865</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>733</v>
+        <v>716</v>
       </c>
       <c r="F41" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
       <c r="H41" s="7">
         <v>1</v>
@@ -12084,7 +12036,7 @@
         <v>614</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>722</v>
+        <v>207</v>
       </c>
       <c r="K41" s="7" t="s">
         <v>11</v>
@@ -12099,13 +12051,13 @@
         <v>1479</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>386</v>
+        <v>346</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>734</v>
+        <v>717</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>735</v>
+        <v>718</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -12120,13 +12072,13 @@
         <v>166902</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>736</v>
+        <v>719</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>737</v>
+        <v>720</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>498</v>
+        <v>721</v>
       </c>
       <c r="H42" s="7">
         <v>325</v>
@@ -12135,13 +12087,13 @@
         <v>208570</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>414</v>
+        <v>722</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>738</v>
+        <v>552</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>739</v>
+        <v>723</v>
       </c>
       <c r="M42" s="7">
         <v>555</v>
@@ -12150,13 +12102,13 @@
         <v>375472</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>740</v>
+        <v>724</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>741</v>
+        <v>725</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -12224,13 +12176,13 @@
         <v>5360</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>355</v>
+        <v>344</v>
       </c>
       <c r="H44" s="7">
         <v>30</v>
@@ -12239,13 +12191,13 @@
         <v>17017</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>339</v>
+        <v>130</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>266</v>
+        <v>156</v>
       </c>
       <c r="M44" s="7">
         <v>39</v>
@@ -12254,13 +12206,13 @@
         <v>22377</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>742</v>
+        <v>726</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>332</v>
+        <v>356</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -12275,13 +12227,13 @@
         <v>12184</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>743</v>
+        <v>727</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>744</v>
+        <v>728</v>
       </c>
       <c r="H45" s="7">
         <v>89</v>
@@ -12290,13 +12242,13 @@
         <v>51679</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>745</v>
+        <v>729</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>48</v>
+        <v>307</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>746</v>
+        <v>730</v>
       </c>
       <c r="M45" s="7">
         <v>106</v>
@@ -12305,13 +12257,13 @@
         <v>63864</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>636</v>
+        <v>619</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -12326,13 +12278,13 @@
         <v>2902</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>598</v>
+        <v>579</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>747</v>
+        <v>731</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>748</v>
+        <v>732</v>
       </c>
       <c r="H46" s="7">
         <v>17</v>
@@ -12341,13 +12293,13 @@
         <v>9895</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>749</v>
+        <v>733</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>750</v>
+        <v>734</v>
       </c>
       <c r="M46" s="7">
         <v>22</v>
@@ -12356,13 +12308,13 @@
         <v>12797</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>176</v>
+        <v>735</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>751</v>
+        <v>736</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>629</v>
+        <v>610</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -12377,13 +12329,13 @@
         <v>676474</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>752</v>
+        <v>117</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>299</v>
+        <v>737</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>753</v>
+        <v>738</v>
       </c>
       <c r="H47" s="7">
         <v>1571</v>
@@ -12392,13 +12344,13 @@
         <v>947611</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>602</v>
+        <v>583</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>754</v>
+        <v>739</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>755</v>
+        <v>740</v>
       </c>
       <c r="M47" s="7">
         <v>2567</v>
@@ -12407,13 +12359,13 @@
         <v>1624086</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>756</v>
+        <v>216</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>757</v>
+        <v>741</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>758</v>
+        <v>742</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -12469,7 +12421,7 @@
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/Q5416-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/Q5416-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{88EEA58B-CB85-4104-8420-5C5ADB9DD388}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1802D5BD-CB46-461E-BE55-1C28F6990B53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{CC30B829-2677-4C88-A3B9-A05B50C574F5}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{46A5A402-A03D-4F71-8BFD-5B1385544EE1}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1916" uniqueCount="743">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1916" uniqueCount="750">
   <si>
     <t>Población según si es capaz de moverse por su casa en 2007 (Tasa respuesta: 18,18%)</t>
   </si>
@@ -92,13 +92,13 @@
     <t>2,98%</t>
   </si>
   <si>
-    <t>13,74%</t>
+    <t>14,52%</t>
   </si>
   <si>
     <t>1,57%</t>
   </si>
   <si>
-    <t>9,39%</t>
+    <t>7,81%</t>
   </si>
   <si>
     <t>En silla ruedas sin ayuda</t>
@@ -119,2155 +119,2176 @@
     <t>97,02%</t>
   </si>
   <si>
-    <t>86,26%</t>
+    <t>85,48%</t>
   </si>
   <si>
     <t>98,43%</t>
   </si>
   <si>
+    <t>92,19%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>92,21%</t>
+  </si>
+  <si>
+    <t>91,5%</t>
+  </si>
+  <si>
+    <t>84,03%</t>
+  </si>
+  <si>
+    <t>96,07%</t>
+  </si>
+  <si>
+    <t>94,35%</t>
+  </si>
+  <si>
+    <t>89,62%</t>
+  </si>
+  <si>
+    <t>97,37%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>89,83%</t>
+  </si>
+  <si>
+    <t>93,17%</t>
+  </si>
+  <si>
+    <t>84,8%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>95,05%</t>
+  </si>
+  <si>
+    <t>90,68%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>91,33%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>90,05%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>93,06%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>22,45%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>19,22%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>88,37%</t>
+  </si>
+  <si>
+    <t>74,74%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
+  </si>
+  <si>
+    <t>89,46%</t>
+  </si>
+  <si>
+    <t>74,42%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
+  </si>
+  <si>
+    <t>89,01%</t>
+  </si>
+  <si>
+    <t>79,47%</t>
+  </si>
+  <si>
+    <t>94,67%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>87,77%</t>
+  </si>
+  <si>
+    <t>93,4%</t>
+  </si>
+  <si>
+    <t>85,15%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>95,25%</t>
+  </si>
+  <si>
+    <t>90,43%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>94,41%</t>
+  </si>
+  <si>
+    <t>96,62%</t>
+  </si>
+  <si>
+    <t>91,72%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
+  </si>
+  <si>
+    <t>94,64%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>95,52%</t>
+  </si>
+  <si>
+    <t>90,16%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>95,47%</t>
+  </si>
+  <si>
+    <t>90,81%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>95,49%</t>
+  </si>
+  <si>
+    <t>92,37%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>95,53%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>94,5%</t>
+  </si>
+  <si>
+    <t>92,51%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de moverse por su casa en 2012 (Tasa respuesta: 18,41%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>95,97%</t>
+  </si>
+  <si>
+    <t>89,51%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>81,71%</t>
+  </si>
+  <si>
+    <t>95,0%</t>
+  </si>
+  <si>
+    <t>92,7%</t>
+  </si>
+  <si>
+    <t>87,99%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>90,92%</t>
+  </si>
+  <si>
+    <t>80,95%</t>
+  </si>
+  <si>
+    <t>96,53%</t>
+  </si>
+  <si>
+    <t>87,76%</t>
+  </si>
+  <si>
+    <t>78,54%</t>
+  </si>
+  <si>
+    <t>94,3%</t>
+  </si>
+  <si>
+    <t>89,05%</t>
+  </si>
+  <si>
+    <t>82,44%</t>
+  </si>
+  <si>
+    <t>93,6%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>92,62%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>92,06%</t>
+  </si>
+  <si>
+    <t>86,29%</t>
+  </si>
+  <si>
+    <t>94,29%</t>
+  </si>
+  <si>
+    <t>90,75%</t>
+  </si>
+  <si>
+    <t>96,83%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>16,53%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>92,86%</t>
+  </si>
+  <si>
+    <t>77,89%</t>
+  </si>
+  <si>
+    <t>91,8%</t>
+  </si>
+  <si>
+    <t>81,52%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>84,16%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>95,88%</t>
+  </si>
+  <si>
+    <t>85,85%</t>
+  </si>
+  <si>
+    <t>87,87%</t>
+  </si>
+  <si>
+    <t>77,64%</t>
+  </si>
+  <si>
+    <t>93,95%</t>
+  </si>
+  <si>
+    <t>91,27%</t>
+  </si>
+  <si>
+    <t>85,16%</t>
+  </si>
+  <si>
+    <t>95,58%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>95,31%</t>
+  </si>
+  <si>
+    <t>87,57%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>92,11%</t>
+  </si>
+  <si>
+    <t>86,99%</t>
+  </si>
+  <si>
+    <t>93,52%</t>
+  </si>
+  <si>
+    <t>89,44%</t>
+  </si>
+  <si>
+    <t>96,31%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>91,34%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>92,52%</t>
+  </si>
+  <si>
+    <t>87,38%</t>
+  </si>
+  <si>
+    <t>96,03%</t>
+  </si>
+  <si>
+    <t>94,13%</t>
+  </si>
+  <si>
+    <t>90,62%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>95,44%</t>
+  </si>
+  <si>
+    <t>93,27%</t>
+  </si>
+  <si>
+    <t>97,13%</t>
+  </si>
+  <si>
+    <t>91,03%</t>
+  </si>
+  <si>
+    <t>88,6%</t>
+  </si>
+  <si>
+    <t>92,92%</t>
+  </si>
+  <si>
+    <t>91,45%</t>
+  </si>
+  <si>
+    <t>94,27%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de moverse por su casa en 2016 (Tasa respuesta: 19,52%)</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>19,02%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>95,9%</t>
+  </si>
+  <si>
+    <t>87,44%</t>
+  </si>
+  <si>
+    <t>90,73%</t>
+  </si>
+  <si>
+    <t>76,74%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>93,01%</t>
+  </si>
+  <si>
+    <t>85,55%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
+  </si>
+  <si>
+    <t>91,25%</t>
+  </si>
+  <si>
+    <t>92,07%</t>
+  </si>
+  <si>
+    <t>85,01%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
+  </si>
+  <si>
+    <t>94,04%</t>
+  </si>
+  <si>
+    <t>88,98%</t>
+  </si>
+  <si>
+    <t>96,8%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>95,57%</t>
+  </si>
+  <si>
+    <t>88,29%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>94,4%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>94,91%</t>
+  </si>
+  <si>
+    <t>89,7%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>94,68%</t>
+  </si>
+  <si>
+    <t>87,19%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>97,51%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>94,75%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>22,23%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>89,24%</t>
+  </si>
+  <si>
+    <t>84,61%</t>
+  </si>
+  <si>
+    <t>73,65%</t>
+  </si>
+  <si>
+    <t>90,74%</t>
+  </si>
+  <si>
+    <t>82,92%</t>
+  </si>
+  <si>
+    <t>95,38%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>14,1%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>18,99%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>16,76%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>88,3%</t>
+  </si>
+  <si>
+    <t>79,53%</t>
+  </si>
+  <si>
+    <t>95,08%</t>
+  </si>
+  <si>
+    <t>87,3%</t>
+  </si>
+  <si>
+    <t>77,46%</t>
+  </si>
+  <si>
+    <t>94,65%</t>
+  </si>
+  <si>
+    <t>87,72%</t>
+  </si>
+  <si>
+    <t>80,25%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>89,52%</t>
+  </si>
+  <si>
+    <t>84,73%</t>
+  </si>
+  <si>
+    <t>95,61%</t>
+  </si>
+  <si>
+    <t>92,91%</t>
+  </si>
+  <si>
+    <t>88,64%</t>
+  </si>
+  <si>
+    <t>95,74%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>92,34%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>93,11%</t>
+  </si>
+  <si>
+    <t>87,46%</t>
+  </si>
+  <si>
+    <t>96,71%</t>
+  </si>
+  <si>
+    <t>95,04%</t>
+  </si>
+  <si>
+    <t>91,53%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>95,6%</t>
+  </si>
+  <si>
+    <t>93,72%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
+  </si>
+  <si>
+    <t>89,88%</t>
+  </si>
+  <si>
+    <t>94,37%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
+  </si>
+  <si>
+    <t>92,26%</t>
+  </si>
+  <si>
+    <t>94,96%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de moverse por su casa en 2023 (Tasa respuesta: 31,27%)</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>93,67%</t>
+  </si>
+  <si>
+    <t>87,4%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>96,55%</t>
+  </si>
+  <si>
+    <t>92,61%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>87,69%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>87,36%</t>
+  </si>
+  <si>
+    <t>81,65%</t>
+  </si>
+  <si>
+    <t>90,03%</t>
+  </si>
+  <si>
+    <t>86,13%</t>
+  </si>
+  <si>
+    <t>93,18%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>92,43%</t>
+  </si>
+  <si>
+    <t>86,67%</t>
+  </si>
+  <si>
+    <t>95,94%</t>
+  </si>
+  <si>
+    <t>89,11%</t>
+  </si>
+  <si>
+    <t>83,6%</t>
+  </si>
+  <si>
+    <t>93,2%</t>
+  </si>
+  <si>
     <t>90,61%</t>
   </si>
   <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
+    <t>86,78%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>95,69%</t>
+  </si>
+  <si>
+    <t>93,05%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>95,77%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
   </si>
   <si>
     <t>4,22%</t>
   </si>
   <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>92,58%</t>
-  </si>
-  <si>
-    <t>91,5%</t>
-  </si>
-  <si>
-    <t>84,49%</t>
-  </si>
-  <si>
-    <t>95,92%</t>
-  </si>
-  <si>
-    <t>94,35%</t>
-  </si>
-  <si>
-    <t>89,86%</t>
-  </si>
-  <si>
-    <t>97,27%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>95,78%</t>
+  </si>
+  <si>
+    <t>88,94%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>90,31%</t>
+  </si>
+  <si>
+    <t>84,37%</t>
+  </si>
+  <si>
+    <t>94,34%</t>
+  </si>
+  <si>
+    <t>92,33%</t>
+  </si>
+  <si>
+    <t>87,98%</t>
+  </si>
+  <si>
+    <t>95,62%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>92,99%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>88,17%</t>
+  </si>
+  <si>
+    <t>82,4%</t>
+  </si>
+  <si>
+    <t>92,35%</t>
+  </si>
+  <si>
+    <t>92,29%</t>
+  </si>
+  <si>
+    <t>89,16%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>94,16%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>95,13%</t>
+  </si>
+  <si>
+    <t>90,48%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>93,66%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
   </si>
   <si>
     <t>1,36%</t>
   </si>
   <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>90,22%</t>
-  </si>
-  <si>
-    <t>93,17%</t>
-  </si>
-  <si>
-    <t>86,15%</t>
-  </si>
-  <si>
-    <t>97,31%</t>
-  </si>
-  <si>
-    <t>95,05%</t>
-  </si>
-  <si>
-    <t>90,44%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>92,36%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>89,83%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>93,04%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>23,57%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>21,84%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>16,53%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>88,37%</t>
-  </si>
-  <si>
-    <t>72,38%</t>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>95,72%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>93,51%</t>
+  </si>
+  <si>
+    <t>89,02%</t>
+  </si>
+  <si>
+    <t>96,09%</t>
+  </si>
+  <si>
+    <t>95,55%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
   </si>
   <si>
     <t>97,07%</t>
   </si>
   <si>
-    <t>89,46%</t>
-  </si>
-  <si>
-    <t>74,25%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>89,01%</t>
-  </si>
-  <si>
-    <t>79,44%</t>
-  </si>
-  <si>
-    <t>94,71%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>93,4%</t>
-  </si>
-  <si>
-    <t>84,46%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>95,25%</t>
-  </si>
-  <si>
-    <t>89,19%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>94,87%</t>
-  </si>
-  <si>
-    <t>96,62%</t>
-  </si>
-  <si>
-    <t>92,2%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
-  </si>
-  <si>
-    <t>94,84%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>95,52%</t>
-  </si>
-  <si>
-    <t>89,97%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>95,47%</t>
-  </si>
-  <si>
-    <t>90,99%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>95,49%</t>
-  </si>
-  <si>
-    <t>92,22%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>94,5%</t>
-  </si>
-  <si>
-    <t>92,61%</t>
-  </si>
-  <si>
-    <t>96,15%</t>
-  </si>
-  <si>
-    <t>95,66%</t>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>90,6%</t>
+  </si>
+  <si>
+    <t>94,69%</t>
   </si>
   <si>
     <t>94,25%</t>
   </si>
   <si>
-    <t>96,74%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de moverse por su casa en 2012 (Tasa respuesta: 18,41%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>95,97%</t>
-  </si>
-  <si>
-    <t>89,52%</t>
-  </si>
-  <si>
-    <t>90,16%</t>
-  </si>
-  <si>
-    <t>82,53%</t>
-  </si>
-  <si>
-    <t>95,57%</t>
-  </si>
-  <si>
-    <t>92,7%</t>
-  </si>
-  <si>
-    <t>86,89%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>90,92%</t>
-  </si>
-  <si>
-    <t>80,32%</t>
-  </si>
-  <si>
-    <t>96,5%</t>
-  </si>
-  <si>
-    <t>87,76%</t>
-  </si>
-  <si>
-    <t>79,12%</t>
-  </si>
-  <si>
-    <t>94,48%</t>
-  </si>
-  <si>
-    <t>89,05%</t>
-  </si>
-  <si>
-    <t>82,43%</t>
-  </si>
-  <si>
-    <t>93,75%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
-  </si>
-  <si>
-    <t>91,88%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>92,06%</t>
-  </si>
-  <si>
-    <t>86,44%</t>
-  </si>
-  <si>
-    <t>96,11%</t>
-  </si>
-  <si>
-    <t>94,29%</t>
-  </si>
-  <si>
-    <t>90,9%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>17,93%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>19,31%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>92,86%</t>
-  </si>
-  <si>
-    <t>75,03%</t>
-  </si>
-  <si>
-    <t>91,8%</t>
-  </si>
-  <si>
-    <t>81,41%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>92,21%</t>
-  </si>
-  <si>
-    <t>84,76%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>95,88%</t>
-  </si>
-  <si>
-    <t>87,56%</t>
-  </si>
-  <si>
-    <t>87,87%</t>
-  </si>
-  <si>
-    <t>77,63%</t>
-  </si>
-  <si>
-    <t>94,05%</t>
-  </si>
-  <si>
-    <t>91,27%</t>
-  </si>
-  <si>
-    <t>84,97%</t>
-  </si>
-  <si>
-    <t>95,59%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>95,31%</t>
-  </si>
-  <si>
-    <t>87,6%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>92,11%</t>
-  </si>
-  <si>
-    <t>86,58%</t>
-  </si>
-  <si>
-    <t>95,67%</t>
-  </si>
-  <si>
-    <t>93,52%</t>
-  </si>
-  <si>
-    <t>89,6%</t>
-  </si>
-  <si>
-    <t>96,05%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>96,31%</t>
-  </si>
-  <si>
-    <t>90,78%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>92,52%</t>
-  </si>
-  <si>
-    <t>87,31%</t>
-  </si>
-  <si>
-    <t>94,13%</t>
-  </si>
-  <si>
-    <t>91,03%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>95,44%</t>
-  </si>
-  <si>
-    <t>93,3%</t>
-  </si>
-  <si>
-    <t>88,72%</t>
-  </si>
-  <si>
-    <t>92,94%</t>
-  </si>
-  <si>
-    <t>92,92%</t>
-  </si>
-  <si>
-    <t>91,33%</t>
-  </si>
-  <si>
-    <t>94,33%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de moverse por su casa en 2016 (Tasa respuesta: 19,52%)</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>17,14%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>95,9%</t>
-  </si>
-  <si>
-    <t>87,42%</t>
-  </si>
-  <si>
-    <t>90,73%</t>
-  </si>
-  <si>
-    <t>78,61%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>93,01%</t>
-  </si>
-  <si>
-    <t>85,04%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>96,65%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>92,07%</t>
-  </si>
-  <si>
-    <t>84,34%</t>
-  </si>
-  <si>
-    <t>96,51%</t>
-  </si>
-  <si>
-    <t>94,04%</t>
-  </si>
-  <si>
-    <t>89,43%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>87,22%</t>
-  </si>
-  <si>
-    <t>94,4%</t>
-  </si>
-  <si>
-    <t>83,83%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>94,91%</t>
-  </si>
-  <si>
-    <t>89,54%</t>
-  </si>
-  <si>
-    <t>98,01%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>94,68%</t>
-  </si>
-  <si>
-    <t>86,62%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>97,51%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>94,22%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>23,04%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>90,35%</t>
-  </si>
-  <si>
-    <t>84,61%</t>
-  </si>
-  <si>
-    <t>71,09%</t>
-  </si>
-  <si>
-    <t>92,97%</t>
-  </si>
-  <si>
-    <t>90,74%</t>
-  </si>
-  <si>
-    <t>83,8%</t>
-  </si>
-  <si>
-    <t>96,38%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>20,63%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>88,3%</t>
-  </si>
-  <si>
-    <t>77,93%</t>
-  </si>
-  <si>
-    <t>95,06%</t>
-  </si>
-  <si>
-    <t>87,3%</t>
-  </si>
-  <si>
-    <t>76,53%</t>
-  </si>
-  <si>
-    <t>94,54%</t>
-  </si>
-  <si>
-    <t>87,72%</t>
-  </si>
-  <si>
-    <t>80,29%</t>
-  </si>
-  <si>
-    <t>93,38%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>90,24%</t>
-  </si>
-  <si>
-    <t>91,25%</t>
-  </si>
-  <si>
-    <t>84,07%</t>
-  </si>
-  <si>
-    <t>95,08%</t>
-  </si>
-  <si>
-    <t>92,91%</t>
-  </si>
-  <si>
-    <t>88,81%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>92,56%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>93,11%</t>
-  </si>
-  <si>
-    <t>87,7%</t>
-  </si>
-  <si>
-    <t>96,56%</t>
-  </si>
-  <si>
-    <t>95,04%</t>
-  </si>
-  <si>
-    <t>91,6%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>95,6%</t>
-  </si>
-  <si>
-    <t>93,56%</t>
-  </si>
-  <si>
-    <t>96,97%</t>
-  </si>
-  <si>
-    <t>92,34%</t>
-  </si>
-  <si>
-    <t>89,91%</t>
-  </si>
-  <si>
-    <t>92,19%</t>
-  </si>
-  <si>
-    <t>94,96%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de moverse por su casa en 2023 (Tasa respuesta: 31,27%)</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>93,67%</t>
-  </si>
-  <si>
-    <t>86,93%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
-  </si>
-  <si>
-    <t>96,55%</t>
-  </si>
-  <si>
-    <t>92,74%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>88,45%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>87,36%</t>
-  </si>
-  <si>
-    <t>81,53%</t>
-  </si>
-  <si>
-    <t>91,28%</t>
-  </si>
-  <si>
-    <t>90,03%</t>
-  </si>
-  <si>
-    <t>85,9%</t>
-  </si>
-  <si>
-    <t>92,98%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>92,43%</t>
-  </si>
-  <si>
-    <t>86,77%</t>
-  </si>
-  <si>
-    <t>89,11%</t>
-  </si>
-  <si>
-    <t>83,54%</t>
-  </si>
-  <si>
-    <t>93,46%</t>
-  </si>
-  <si>
-    <t>86,11%</t>
-  </si>
-  <si>
-    <t>93,54%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>95,69%</t>
-  </si>
-  <si>
-    <t>92,54%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>95,8%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>95,78%</t>
-  </si>
-  <si>
-    <t>88,7%</t>
-  </si>
-  <si>
-    <t>90,31%</t>
-  </si>
-  <si>
-    <t>94,34%</t>
-  </si>
-  <si>
-    <t>92,33%</t>
-  </si>
-  <si>
-    <t>87,53%</t>
-  </si>
-  <si>
-    <t>95,37%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>96,83%</t>
-  </si>
-  <si>
-    <t>91,97%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>88,17%</t>
-  </si>
-  <si>
-    <t>82,26%</t>
-  </si>
-  <si>
-    <t>92,48%</t>
-  </si>
-  <si>
-    <t>92,29%</t>
-  </si>
-  <si>
-    <t>88,88%</t>
-  </si>
-  <si>
-    <t>94,69%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>94,58%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>95,13%</t>
-  </si>
-  <si>
-    <t>90,07%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>93,48%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>95,71%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>93,51%</t>
-  </si>
-  <si>
-    <t>96,14%</t>
-  </si>
-  <si>
-    <t>95,55%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>95,96%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
-  </si>
-  <si>
-    <t>90,58%</t>
-  </si>
-  <si>
-    <t>94,56%</t>
-  </si>
-  <si>
-    <t>93,13%</t>
-  </si>
-  <si>
-    <t>95,38%</t>
+    <t>93,15%</t>
   </si>
 </sst>
 </file>
@@ -2679,7 +2700,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1300B4C8-F356-4C9A-8779-05B5340BDDFC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4765763-9023-40BD-9A3F-9F628485C00D}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3449,13 +3470,13 @@
         <v>1161</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3470,10 +3491,10 @@
         <v>49991</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>22</v>
@@ -3485,13 +3506,13 @@
         <v>77818</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M17" s="7">
         <v>129</v>
@@ -3500,13 +3521,13 @@
         <v>127809</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3562,7 +3583,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3574,13 +3595,13 @@
         <v>831</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -3595,7 +3616,7 @@
         <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M19" s="7">
         <v>1</v>
@@ -3604,13 +3625,13 @@
         <v>831</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3640,13 +3661,13 @@
         <v>2142</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M20" s="7">
         <v>2</v>
@@ -3655,13 +3676,13 @@
         <v>2142</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3697,7 +3718,7 @@
         <v>12</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M21" s="7">
         <v>0</v>
@@ -3727,10 +3748,10 @@
         <v>54291</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>22</v>
@@ -3742,10 +3763,10 @@
         <v>72171</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>22</v>
@@ -3757,13 +3778,13 @@
         <v>126463</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3819,7 +3840,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -3837,7 +3858,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H24" s="7">
         <v>1</v>
@@ -3846,13 +3867,13 @@
         <v>1141</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M24" s="7">
         <v>1</v>
@@ -3861,13 +3882,13 @@
         <v>1141</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="P24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3882,7 +3903,7 @@
         <v>2545</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>102</v>
@@ -4145,7 +4166,7 @@
         <v>11</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>60</v>
+        <v>129</v>
       </c>
       <c r="H30" s="7">
         <v>4</v>
@@ -4154,10 +4175,10 @@
         <v>4640</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="L30" s="7" t="s">
         <v>131</v>
@@ -4172,10 +4193,10 @@
         <v>132</v>
       </c>
       <c r="P30" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4241,10 +4262,10 @@
         <v>46250</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F32" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="G32" s="7" t="s">
         <v>22</v>
@@ -4411,13 +4432,13 @@
         <v>897</v>
       </c>
       <c r="J35" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L35" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="K35" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="M35" s="7">
         <v>2</v>
@@ -4426,13 +4447,13 @@
         <v>1831</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q35" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="P35" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -4453,7 +4474,7 @@
         <v>12</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -4468,7 +4489,7 @@
         <v>12</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M36" s="7">
         <v>0</v>
@@ -4483,7 +4504,7 @@
         <v>12</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4498,7 +4519,7 @@
         <v>104156</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>77</v>
+        <v>158</v>
       </c>
       <c r="F37" s="7" t="s">
         <v>159</v>
@@ -4608,7 +4629,7 @@
         <v>11</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>168</v>
+        <v>144</v>
       </c>
       <c r="H39" s="7">
         <v>1</v>
@@ -4617,13 +4638,13 @@
         <v>1201</v>
       </c>
       <c r="J39" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="K39" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L39" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="K39" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L39" s="7" t="s">
-        <v>170</v>
       </c>
       <c r="M39" s="7">
         <v>2</v>
@@ -4632,13 +4653,13 @@
         <v>2257</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="P39" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -4656,10 +4677,10 @@
         <v>58</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>171</v>
+        <v>69</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H40" s="7">
         <v>1</v>
@@ -4668,13 +4689,13 @@
         <v>1320</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="K40" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="M40" s="7">
         <v>5</v>
@@ -4683,13 +4704,13 @@
         <v>5279</v>
       </c>
       <c r="O40" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="P40" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q40" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="P40" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q40" s="7" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -4719,13 +4740,13 @@
         <v>4425</v>
       </c>
       <c r="J41" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="K41" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="L41" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="K41" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="L41" s="7" t="s">
-        <v>178</v>
       </c>
       <c r="M41" s="7">
         <v>4</v>
@@ -4734,13 +4755,13 @@
         <v>4425</v>
       </c>
       <c r="O41" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="P41" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q41" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="P41" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="Q41" s="7" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -4755,13 +4776,13 @@
         <v>106878</v>
       </c>
       <c r="E42" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="F42" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="F42" s="7" t="s">
+      <c r="G42" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="G42" s="7" t="s">
-        <v>183</v>
       </c>
       <c r="H42" s="7">
         <v>138</v>
@@ -4770,13 +4791,13 @@
         <v>146279</v>
       </c>
       <c r="J42" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="K42" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="K42" s="7" t="s">
+      <c r="L42" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="L42" s="7" t="s">
-        <v>186</v>
       </c>
       <c r="M42" s="7">
         <v>249</v>
@@ -4785,13 +4806,13 @@
         <v>253157</v>
       </c>
       <c r="O42" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="P42" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="P42" s="7" t="s">
+      <c r="Q42" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="Q42" s="7" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -4859,13 +4880,13 @@
         <v>2725</v>
       </c>
       <c r="E44" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="F44" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="F44" s="7" t="s">
+      <c r="G44" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="G44" s="7" t="s">
-        <v>37</v>
       </c>
       <c r="H44" s="7">
         <v>10</v>
@@ -4877,10 +4898,10 @@
         <v>192</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>146</v>
+        <v>193</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>193</v>
+        <v>82</v>
       </c>
       <c r="M44" s="7">
         <v>13</v>
@@ -4892,10 +4913,10 @@
         <v>194</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>148</v>
+        <v>196</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -4910,13 +4931,13 @@
         <v>10320</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="H45" s="7">
         <v>19</v>
@@ -4925,13 +4946,13 @@
         <v>20990</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="M45" s="7">
         <v>30</v>
@@ -4940,13 +4961,13 @@
         <v>31310</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -4961,13 +4982,13 @@
         <v>868</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="F46" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>40</v>
+        <v>194</v>
       </c>
       <c r="H46" s="7">
         <v>6</v>
@@ -4976,13 +4997,13 @@
         <v>6710</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="M46" s="7">
         <v>7</v>
@@ -4991,13 +5012,13 @@
         <v>7578</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -5012,13 +5033,13 @@
         <v>488553</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="H47" s="7">
         <v>626</v>
@@ -5027,13 +5048,13 @@
         <v>639627</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="M47" s="7">
         <v>1134</v>
@@ -5042,13 +5063,13 @@
         <v>1128180</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -5104,7 +5125,7 @@
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
   </sheetData>
@@ -5128,7 +5149,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADC05C58-00D5-4AA8-BEBC-25EB02C16B9E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90D2BC17-5436-408B-8616-BD3AC3B5831B}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5145,7 +5166,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5250,39 +5271,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5295,39 +5316,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5340,39 +5361,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5385,39 +5406,39 @@
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
       </c>
       <c r="I7" s="7"/>
       <c r="J7" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
       </c>
       <c r="N7" s="7"/>
       <c r="O7" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5430,39 +5451,39 @@
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
       </c>
       <c r="I8" s="7"/>
       <c r="J8" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
       </c>
       <c r="N8" s="7"/>
       <c r="O8" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5479,13 +5500,13 @@
         <v>2130</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="H9" s="7">
         <v>4</v>
@@ -5494,13 +5515,13 @@
         <v>5575</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="M9" s="7">
         <v>6</v>
@@ -5509,13 +5530,13 @@
         <v>7706</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>152</v>
+        <v>228</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>66</v>
+        <v>230</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5530,13 +5551,13 @@
         <v>1062</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
@@ -5545,13 +5566,13 @@
         <v>2217</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="M10" s="7">
         <v>3</v>
@@ -5560,13 +5581,13 @@
         <v>3279</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>231</v>
+        <v>204</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>96</v>
+        <v>236</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5587,7 +5608,7 @@
         <v>12</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="H11" s="7">
         <v>2</v>
@@ -5596,13 +5617,13 @@
         <v>2258</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="M11" s="7">
         <v>2</v>
@@ -5611,13 +5632,13 @@
         <v>2258</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5632,13 +5653,13 @@
         <v>76011</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>22</v>
+        <v>244</v>
       </c>
       <c r="H12" s="7">
         <v>85</v>
@@ -5647,13 +5668,13 @@
         <v>92043</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>239</v>
+        <v>181</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="M12" s="7">
         <v>151</v>
@@ -5662,13 +5683,13 @@
         <v>168054</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5736,13 +5757,13 @@
         <v>1995</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="H14" s="7">
         <v>6</v>
@@ -5751,13 +5772,13 @@
         <v>6557</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>233</v>
+        <v>98</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="M14" s="7">
         <v>8</v>
@@ -5766,13 +5787,13 @@
         <v>8552</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5787,13 +5808,13 @@
         <v>3068</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>111</v>
+        <v>259</v>
       </c>
       <c r="H15" s="7">
         <v>3</v>
@@ -5802,13 +5823,13 @@
         <v>3235</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>208</v>
+        <v>261</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="M15" s="7">
         <v>6</v>
@@ -5817,13 +5838,13 @@
         <v>6303</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>258</v>
+        <v>133</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5859,7 +5880,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>156</v>
+        <v>265</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -5874,7 +5895,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5889,13 +5910,13 @@
         <v>50679</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="H17" s="7">
         <v>66</v>
@@ -5904,13 +5925,13 @@
         <v>70176</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="M17" s="7">
         <v>114</v>
@@ -5919,13 +5940,13 @@
         <v>120855</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5981,7 +6002,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -5993,13 +6014,13 @@
         <v>1168</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="H19" s="7">
         <v>2</v>
@@ -6008,13 +6029,13 @@
         <v>2174</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="M19" s="7">
         <v>3</v>
@@ -6023,13 +6044,13 @@
         <v>3342</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>274</v>
+        <v>125</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6044,13 +6065,13 @@
         <v>1036</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="H20" s="7">
         <v>8</v>
@@ -6059,13 +6080,13 @@
         <v>8499</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="M20" s="7">
         <v>9</v>
@@ -6074,13 +6095,13 @@
         <v>9535</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>280</v>
+        <v>48</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6095,13 +6116,13 @@
         <v>986</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -6125,13 +6146,13 @@
         <v>986</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>285</v>
+        <v>178</v>
       </c>
       <c r="P21" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>206</v>
+        <v>290</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6146,13 +6167,13 @@
         <v>105119</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="H22" s="7">
         <v>119</v>
@@ -6161,13 +6182,13 @@
         <v>123795</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>291</v>
+        <v>216</v>
       </c>
       <c r="M22" s="7">
         <v>214</v>
@@ -6176,13 +6197,13 @@
         <v>228914</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6238,7 +6259,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -6256,7 +6277,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>295</v>
+        <v>234</v>
       </c>
       <c r="H24" s="7">
         <v>3</v>
@@ -6265,13 +6286,13 @@
         <v>3096</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="M24" s="7">
         <v>3</v>
@@ -6280,13 +6301,13 @@
         <v>3096</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6301,13 +6322,13 @@
         <v>1157</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="H25" s="7">
         <v>1</v>
@@ -6316,13 +6337,13 @@
         <v>992</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="M25" s="7">
         <v>2</v>
@@ -6331,13 +6352,13 @@
         <v>2148</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6352,13 +6373,13 @@
         <v>1101</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -6373,7 +6394,7 @@
         <v>12</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="M26" s="7">
         <v>1</v>
@@ -6382,13 +6403,13 @@
         <v>1101</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>311</v>
+        <v>147</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6403,10 +6424,10 @@
         <v>29355</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="G27" s="7" t="s">
         <v>22</v>
@@ -6418,13 +6439,13 @@
         <v>45767</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="M27" s="7">
         <v>70</v>
@@ -6433,13 +6454,13 @@
         <v>75122</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>317</v>
+        <v>50</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -6507,13 +6528,13 @@
         <v>1057</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>206</v>
+        <v>321</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="H29" s="7">
         <v>3</v>
@@ -6522,13 +6543,13 @@
         <v>3243</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>79</v>
+        <v>324</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="M29" s="7">
         <v>4</v>
@@ -6537,13 +6558,13 @@
         <v>4300</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>197</v>
+        <v>326</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>151</v>
+        <v>327</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>323</v>
+        <v>230</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6558,13 +6579,13 @@
         <v>1075</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>325</v>
+        <v>81</v>
       </c>
       <c r="H30" s="7">
         <v>4</v>
@@ -6573,13 +6594,13 @@
         <v>4176</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="M30" s="7">
         <v>5</v>
@@ -6588,13 +6609,13 @@
         <v>5251</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>330</v>
+        <v>309</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6615,7 +6636,7 @@
         <v>12</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>331</v>
+        <v>241</v>
       </c>
       <c r="H31" s="7">
         <v>1</v>
@@ -6770,7 +6791,7 @@
         <v>11</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>61</v>
+        <v>344</v>
       </c>
       <c r="H34" s="7">
         <v>2</v>
@@ -6779,13 +6800,13 @@
         <v>2025</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>168</v>
+        <v>346</v>
       </c>
       <c r="M34" s="7">
         <v>4</v>
@@ -6794,13 +6815,13 @@
         <v>4015</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>346</v>
+        <v>178</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>58</v>
+        <v>348</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6821,7 +6842,7 @@
         <v>11</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="H35" s="7">
         <v>9</v>
@@ -6830,13 +6851,13 @@
         <v>9180</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>349</v>
+        <v>155</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="M35" s="7">
         <v>10</v>
@@ -6845,13 +6866,13 @@
         <v>10186</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6866,7 +6887,7 @@
         <v>2269</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>354</v>
+        <v>290</v>
       </c>
       <c r="F36" s="7" t="s">
         <v>11</v>
@@ -6896,13 +6917,13 @@
         <v>2269</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="P36" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q36" s="7" t="s">
         <v>356</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6917,13 +6938,13 @@
         <v>106999</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="F37" s="7" t="s">
         <v>358</v>
       </c>
-      <c r="F37" s="7" t="s">
+      <c r="G37" s="7" t="s">
         <v>359</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>360</v>
       </c>
       <c r="H37" s="7">
         <v>118</v>
@@ -6932,13 +6953,13 @@
         <v>130756</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="K37" s="7" t="s">
         <v>361</v>
       </c>
-      <c r="K37" s="7" t="s">
-        <v>362</v>
-      </c>
       <c r="L37" s="7" t="s">
-        <v>363</v>
+        <v>335</v>
       </c>
       <c r="M37" s="7">
         <v>214</v>
@@ -6947,13 +6968,13 @@
         <v>237757</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="P37" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="Q37" s="7" t="s">
         <v>364</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>365</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -7021,13 +7042,13 @@
         <v>1098</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="F39" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>367</v>
+        <v>61</v>
       </c>
       <c r="H39" s="7">
         <v>4</v>
@@ -7036,13 +7057,13 @@
         <v>4478</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="K39" s="7" t="s">
         <v>47</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="M39" s="7">
         <v>5</v>
@@ -7051,13 +7072,13 @@
         <v>5577</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>153</v>
+        <v>368</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>371</v>
+        <v>174</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -7072,13 +7093,13 @@
         <v>3352</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="H40" s="7">
         <v>6</v>
@@ -7087,13 +7108,13 @@
         <v>6743</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>375</v>
+        <v>345</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="M40" s="7">
         <v>9</v>
@@ -7105,10 +7126,10 @@
         <v>58</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>18</v>
+        <v>373</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>296</v>
+        <v>374</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -7129,7 +7150,7 @@
         <v>12</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>377</v>
+        <v>229</v>
       </c>
       <c r="H41" s="7">
         <v>1</v>
@@ -7138,13 +7159,13 @@
         <v>1077</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="K41" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>197</v>
+        <v>376</v>
       </c>
       <c r="M41" s="7">
         <v>1</v>
@@ -7153,13 +7174,13 @@
         <v>1077</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>346</v>
+        <v>377</v>
       </c>
       <c r="P41" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -7174,13 +7195,13 @@
         <v>116302</v>
       </c>
       <c r="E42" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="G42" s="7" t="s">
         <v>380</v>
-      </c>
-      <c r="F42" s="7" t="s">
-        <v>381</v>
-      </c>
-      <c r="G42" s="7" t="s">
-        <v>382</v>
       </c>
       <c r="H42" s="7">
         <v>140</v>
@@ -7189,13 +7210,13 @@
         <v>152120</v>
       </c>
       <c r="J42" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="K42" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="L42" s="7" t="s">
         <v>383</v>
-      </c>
-      <c r="K42" s="7" t="s">
-        <v>384</v>
-      </c>
-      <c r="L42" s="7" t="s">
-        <v>366</v>
       </c>
       <c r="M42" s="7">
         <v>242</v>
@@ -7204,13 +7225,13 @@
         <v>268422</v>
       </c>
       <c r="O42" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="P42" s="7" t="s">
         <v>385</v>
       </c>
-      <c r="P42" s="7" t="s">
+      <c r="Q42" s="7" t="s">
         <v>386</v>
-      </c>
-      <c r="Q42" s="7" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -7278,13 +7299,13 @@
         <v>9438</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>226</v>
+        <v>387</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>153</v>
+        <v>388</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H44" s="7">
         <v>24</v>
@@ -7293,13 +7314,13 @@
         <v>27149</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M44" s="7">
         <v>33</v>
@@ -7308,13 +7329,13 @@
         <v>36587</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>297</v>
+        <v>128</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>393</v>
+        <v>312</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -7332,10 +7353,10 @@
         <v>394</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>204</v>
+        <v>395</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H45" s="7">
         <v>33</v>
@@ -7344,13 +7365,13 @@
         <v>35043</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>398</v>
+        <v>239</v>
       </c>
       <c r="M45" s="7">
         <v>44</v>
@@ -7362,10 +7383,10 @@
         <v>399</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>145</v>
+        <v>400</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>132</v>
+        <v>401</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -7380,13 +7401,13 @@
         <v>4355</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="H46" s="7">
         <v>4</v>
@@ -7395,13 +7416,13 @@
         <v>4434</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>37</v>
+        <v>324</v>
       </c>
       <c r="M46" s="7">
         <v>7</v>
@@ -7413,10 +7434,10 @@
         <v>35</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>375</v>
+        <v>407</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -7431,13 +7452,13 @@
         <v>534090</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>90</v>
+        <v>410</v>
       </c>
       <c r="H47" s="7">
         <v>633</v>
@@ -7446,13 +7467,13 @@
         <v>676349</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>386</v>
+        <v>411</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>408</v>
+        <v>94</v>
       </c>
       <c r="M47" s="7">
         <v>1114</v>
@@ -7461,13 +7482,13 @@
         <v>1210439</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -7523,7 +7544,7 @@
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
   </sheetData>
@@ -7547,7 +7568,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1570C437-A2DC-4AE6-943A-299634531BB7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F85A9AF4-8A77-4317-A25B-AF2CD7D29EFA}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7564,7 +7585,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7671,13 +7692,13 @@
         <v>802</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -7686,13 +7707,13 @@
         <v>1126</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
@@ -7701,13 +7722,13 @@
         <v>1927</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>417</v>
+        <v>105</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7722,13 +7743,13 @@
         <v>791</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>419</v>
+        <v>353</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="H5" s="7">
         <v>3</v>
@@ -7740,10 +7761,10 @@
         <v>421</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>413</v>
+        <v>328</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="M5" s="7">
         <v>4</v>
@@ -7752,13 +7773,13 @@
         <v>4246</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>37</v>
+        <v>425</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7779,7 +7800,7 @@
         <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -7794,7 +7815,7 @@
         <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -7809,7 +7830,7 @@
         <v>12</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>257</v>
+        <v>429</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -7824,10 +7845,10 @@
         <v>37303</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>22</v>
@@ -7839,28 +7860,28 @@
         <v>44811</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="M7" s="7">
         <v>79</v>
       </c>
       <c r="N7" s="7">
-        <v>82113</v>
+        <v>82114</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>434</v>
+        <v>410</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7902,7 +7923,7 @@
         <v>85</v>
       </c>
       <c r="N8" s="7">
-        <v>88286</v>
+        <v>88287</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>24</v>
@@ -7934,7 +7955,7 @@
         <v>12</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="H9" s="7">
         <v>1</v>
@@ -7943,13 +7964,13 @@
         <v>1347</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="M9" s="7">
         <v>1</v>
@@ -7964,7 +7985,7 @@
         <v>11</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -7979,13 +8000,13 @@
         <v>2923</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="H10" s="7">
         <v>6</v>
@@ -7994,13 +8015,13 @@
         <v>7796</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>198</v>
+        <v>445</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="M10" s="7">
         <v>9</v>
@@ -8009,13 +8030,13 @@
         <v>10719</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>446</v>
+        <v>322</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -8036,7 +8057,7 @@
         <v>12</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -8066,7 +8087,7 @@
         <v>12</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -8081,13 +8102,13 @@
         <v>84372</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>185</v>
+        <v>451</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>449</v>
+        <v>182</v>
       </c>
       <c r="H12" s="7">
         <v>88</v>
@@ -8096,13 +8117,13 @@
         <v>106085</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="M12" s="7">
         <v>175</v>
@@ -8111,13 +8132,13 @@
         <v>190457</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -8191,7 +8212,7 @@
         <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>456</v>
+        <v>102</v>
       </c>
       <c r="H14" s="7">
         <v>3</v>
@@ -8200,13 +8221,13 @@
         <v>4477</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="M14" s="7">
         <v>3</v>
@@ -8215,13 +8236,13 @@
         <v>4477</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -8236,10 +8257,10 @@
         <v>2817</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>463</v>
+        <v>303</v>
       </c>
       <c r="G15" s="7" t="s">
         <v>464</v>
@@ -8257,7 +8278,7 @@
         <v>12</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="M15" s="7">
         <v>3</v>
@@ -8266,13 +8287,13 @@
         <v>2817</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>465</v>
+        <v>189</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>271</v>
+        <v>225</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -8293,7 +8314,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>456</v>
+        <v>102</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -8308,7 +8329,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -8323,7 +8344,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -8338,13 +8359,13 @@
         <v>60729</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>241</v>
+        <v>465</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>466</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>165</v>
+        <v>467</v>
       </c>
       <c r="H17" s="7">
         <v>66</v>
@@ -8353,10 +8374,10 @@
         <v>75420</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>468</v>
+        <v>453</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>469</v>
@@ -8430,7 +8451,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -8478,7 +8499,7 @@
         <v>11</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>126</v>
+        <v>308</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -8523,13 +8544,13 @@
         <v>827</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>465</v>
+        <v>478</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>221</v>
+        <v>479</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -8544,13 +8565,13 @@
         <v>1804</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -8580,7 +8601,7 @@
         <v>11</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -8595,13 +8616,13 @@
         <v>61268</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="H22" s="7">
         <v>76</v>
@@ -8613,7 +8634,7 @@
         <v>22</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>24</v>
@@ -8625,13 +8646,13 @@
         <v>152841</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8687,7 +8708,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -8705,7 +8726,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -8720,7 +8741,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>489</v>
+        <v>179</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -8735,7 +8756,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>206</v>
+        <v>321</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -8750,13 +8771,13 @@
         <v>799</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>379</v>
+        <v>491</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="H25" s="7">
         <v>5</v>
@@ -8765,13 +8786,13 @@
         <v>5461</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>134</v>
+        <v>262</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>173</v>
+        <v>493</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="M25" s="7">
         <v>6</v>
@@ -8780,13 +8801,13 @@
         <v>6260</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>492</v>
+        <v>366</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>493</v>
+        <v>391</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8807,7 +8828,7 @@
         <v>12</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="H26" s="7">
         <v>2</v>
@@ -8816,13 +8837,13 @@
         <v>2318</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="M26" s="7">
         <v>2</v>
@@ -8837,7 +8858,7 @@
         <v>11</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8852,10 +8873,10 @@
         <v>41281</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="G27" s="7" t="s">
         <v>22</v>
@@ -8867,13 +8888,13 @@
         <v>42753</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>502</v>
+        <v>136</v>
       </c>
       <c r="M27" s="7">
         <v>85</v>
@@ -8974,10 +8995,10 @@
         <v>507</v>
       </c>
       <c r="K29" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>508</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>509</v>
       </c>
       <c r="M29" s="7">
         <v>3</v>
@@ -8986,13 +9007,13 @@
         <v>3713</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>509</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>510</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>447</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>511</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -9007,13 +9028,13 @@
         <v>4902</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>511</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>512</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>513</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>514</v>
       </c>
       <c r="H30" s="7">
         <v>4</v>
@@ -9022,13 +9043,13 @@
         <v>4847</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>514</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>515</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>516</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>517</v>
       </c>
       <c r="M30" s="7">
         <v>10</v>
@@ -9037,13 +9058,13 @@
         <v>9749</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>517</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>518</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>519</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>520</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -9058,13 +9079,13 @@
         <v>767</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -9079,7 +9100,7 @@
         <v>12</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>83</v>
+        <v>520</v>
       </c>
       <c r="M31" s="7">
         <v>1</v>
@@ -9094,7 +9115,7 @@
         <v>11</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>522</v>
+        <v>108</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -9109,13 +9130,13 @@
         <v>42777</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>522</v>
+      </c>
+      <c r="F32" s="7" t="s">
         <v>523</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="G32" s="7" t="s">
         <v>524</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>525</v>
       </c>
       <c r="H32" s="7">
         <v>52</v>
@@ -9124,13 +9145,13 @@
         <v>58829</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>525</v>
+      </c>
+      <c r="K32" s="7" t="s">
         <v>526</v>
       </c>
-      <c r="K32" s="7" t="s">
+      <c r="L32" s="7" t="s">
         <v>527</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>528</v>
       </c>
       <c r="M32" s="7">
         <v>100</v>
@@ -9139,13 +9160,13 @@
         <v>101606</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>528</v>
+      </c>
+      <c r="P32" s="7" t="s">
         <v>529</v>
       </c>
-      <c r="P32" s="7" t="s">
-        <v>530</v>
-      </c>
       <c r="Q32" s="7" t="s">
-        <v>531</v>
+        <v>94</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -9213,13 +9234,13 @@
         <v>3715</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>274</v>
+        <v>376</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="H34" s="7">
         <v>2</v>
@@ -9228,13 +9249,13 @@
         <v>2542</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="M34" s="7">
         <v>6</v>
@@ -9243,13 +9264,13 @@
         <v>6257</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>445</v>
+        <v>534</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>536</v>
+        <v>69</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -9270,7 +9291,7 @@
         <v>11</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="H35" s="7">
         <v>8</v>
@@ -9279,13 +9300,13 @@
         <v>10369</v>
       </c>
       <c r="J35" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="L35" s="7" t="s">
         <v>539</v>
-      </c>
-      <c r="K35" s="7" t="s">
-        <v>438</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>540</v>
       </c>
       <c r="M35" s="7">
         <v>9</v>
@@ -9294,13 +9315,13 @@
         <v>11259</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="Q35" s="7" t="s">
         <v>541</v>
-      </c>
-      <c r="P35" s="7" t="s">
-        <v>401</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>542</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -9315,13 +9336,13 @@
         <v>898</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="F36" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>544</v>
+        <v>310</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -9336,7 +9357,7 @@
         <v>12</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>327</v>
+        <v>543</v>
       </c>
       <c r="M36" s="7">
         <v>1</v>
@@ -9345,13 +9366,13 @@
         <v>898</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="P36" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q36" s="7" t="s">
         <v>545</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>546</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -9369,10 +9390,10 @@
         <v>23</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>77</v>
+        <v>158</v>
       </c>
       <c r="H37" s="7">
         <v>115</v>
@@ -9381,13 +9402,13 @@
         <v>134714</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>547</v>
+      </c>
+      <c r="L37" s="7" t="s">
         <v>548</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>549</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>550</v>
       </c>
       <c r="M37" s="7">
         <v>218</v>
@@ -9396,13 +9417,13 @@
         <v>241397</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>549</v>
+      </c>
+      <c r="P37" s="7" t="s">
+        <v>550</v>
+      </c>
+      <c r="Q37" s="7" t="s">
         <v>551</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>552</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>553</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -9476,7 +9497,7 @@
         <v>12</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="H39" s="7">
         <v>0</v>
@@ -9491,7 +9512,7 @@
         <v>12</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="M39" s="7">
         <v>0</v>
@@ -9521,13 +9542,13 @@
         <v>3248</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>418</v>
+        <v>553</v>
       </c>
       <c r="H40" s="7">
         <v>9</v>
@@ -9536,13 +9557,13 @@
         <v>12152</v>
       </c>
       <c r="J40" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="K40" s="7" t="s">
+        <v>554</v>
+      </c>
+      <c r="L40" s="7" t="s">
         <v>555</v>
-      </c>
-      <c r="K40" s="7" t="s">
-        <v>556</v>
-      </c>
-      <c r="L40" s="7" t="s">
-        <v>557</v>
       </c>
       <c r="M40" s="7">
         <v>12</v>
@@ -9551,13 +9572,13 @@
         <v>15400</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>305</v>
+        <v>126</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -9578,7 +9599,7 @@
         <v>12</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="H41" s="7">
         <v>0</v>
@@ -9593,7 +9614,7 @@
         <v>12</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="M41" s="7">
         <v>0</v>
@@ -9623,13 +9644,13 @@
         <v>130920</v>
       </c>
       <c r="E42" s="7" t="s">
+        <v>558</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>559</v>
+      </c>
+      <c r="G42" s="7" t="s">
         <v>560</v>
-      </c>
-      <c r="F42" s="7" t="s">
-        <v>561</v>
-      </c>
-      <c r="G42" s="7" t="s">
-        <v>562</v>
       </c>
       <c r="H42" s="7">
         <v>133</v>
@@ -9638,13 +9659,13 @@
         <v>164145</v>
       </c>
       <c r="J42" s="7" t="s">
+        <v>561</v>
+      </c>
+      <c r="K42" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="L42" s="7" t="s">
         <v>563</v>
-      </c>
-      <c r="K42" s="7" t="s">
-        <v>564</v>
-      </c>
-      <c r="L42" s="7" t="s">
-        <v>565</v>
       </c>
       <c r="M42" s="7">
         <v>271</v>
@@ -9653,13 +9674,13 @@
         <v>295065</v>
       </c>
       <c r="O42" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="P42" s="7" t="s">
+        <v>565</v>
+      </c>
+      <c r="Q42" s="7" t="s">
         <v>566</v>
-      </c>
-      <c r="P42" s="7" t="s">
-        <v>567</v>
-      </c>
-      <c r="Q42" s="7" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -9730,10 +9751,10 @@
         <v>333</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>568</v>
+        <v>178</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>569</v>
+        <v>197</v>
       </c>
       <c r="H44" s="7">
         <v>10</v>
@@ -9742,13 +9763,13 @@
         <v>13205</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>570</v>
+        <v>378</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="M44" s="7">
         <v>16</v>
@@ -9757,13 +9778,13 @@
         <v>18534</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>572</v>
+        <v>168</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>229</v>
+        <v>417</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -9778,13 +9799,13 @@
         <v>17199</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>573</v>
+        <v>155</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>377</v>
+        <v>229</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>175</v>
+        <v>568</v>
       </c>
       <c r="H45" s="7">
         <v>35</v>
@@ -9793,13 +9814,13 @@
         <v>44077</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>488</v>
+        <v>570</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="M45" s="7">
         <v>54</v>
@@ -9808,13 +9829,13 @@
         <v>61276</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>236</v>
+        <v>572</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>577</v>
+        <v>439</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -9829,13 +9850,13 @@
         <v>3468</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>232</v>
+        <v>574</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>37</v>
+        <v>425</v>
       </c>
       <c r="H46" s="7">
         <v>2</v>
@@ -9844,13 +9865,13 @@
         <v>2318</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="K46" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>447</v>
+        <v>167</v>
       </c>
       <c r="M46" s="7">
         <v>6</v>
@@ -9859,13 +9880,13 @@
         <v>5786</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>191</v>
+        <v>405</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>356</v>
+        <v>288</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -9880,13 +9901,13 @@
         <v>565332</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="H47" s="7">
         <v>608</v>
@@ -9895,13 +9916,13 @@
         <v>718330</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>583</v>
+        <v>559</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>486</v>
+        <v>581</v>
       </c>
       <c r="M47" s="7">
         <v>1206</v>
@@ -9910,13 +9931,13 @@
         <v>1283663</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>268</v>
+        <v>582</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -9972,7 +9993,7 @@
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
   </sheetData>
@@ -9996,7 +10017,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38B3FB4B-EE65-421C-AEAC-66FCD5189731}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31696655-5862-4B27-B471-DD204D9C1B0A}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10013,7 +10034,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -10126,7 +10147,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -10135,13 +10156,13 @@
         <v>616</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -10150,13 +10171,13 @@
         <v>616</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>84</v>
+        <v>587</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -10177,7 +10198,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="H5" s="7">
         <v>2</v>
@@ -10186,13 +10207,13 @@
         <v>1284</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="M5" s="7">
         <v>2</v>
@@ -10201,13 +10222,13 @@
         <v>1284</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>196</v>
+        <v>589</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>590</v>
+        <v>490</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -10228,7 +10249,7 @@
         <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="H6" s="7">
         <v>3</v>
@@ -10237,13 +10258,13 @@
         <v>2041</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>590</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>591</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>592</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>593</v>
       </c>
       <c r="M6" s="7">
         <v>3</v>
@@ -10252,13 +10273,13 @@
         <v>2041</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>377</v>
+        <v>229</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>595</v>
+        <v>277</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -10276,7 +10297,7 @@
         <v>22</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>24</v>
@@ -10288,13 +10309,13 @@
         <v>58278</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>595</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>596</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>597</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>598</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>599</v>
       </c>
       <c r="M7" s="7">
         <v>209</v>
@@ -10303,13 +10324,13 @@
         <v>110198</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>598</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>599</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>600</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>601</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>602</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -10377,13 +10398,13 @@
         <v>882</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="H9" s="7">
         <v>7</v>
@@ -10392,13 +10413,13 @@
         <v>5385</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>367</v>
+        <v>603</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>605</v>
+        <v>266</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>41</v>
+        <v>252</v>
       </c>
       <c r="M9" s="7">
         <v>8</v>
@@ -10407,13 +10428,13 @@
         <v>6267</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>608</v>
+        <v>257</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -10428,13 +10449,13 @@
         <v>3952</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>609</v>
+        <v>152</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="H10" s="7">
         <v>15</v>
@@ -10443,13 +10464,13 @@
         <v>10549</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>612</v>
+        <v>101</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>613</v>
+        <v>428</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="M10" s="7">
         <v>19</v>
@@ -10458,13 +10479,13 @@
         <v>14500</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>474</v>
+        <v>609</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>615</v>
+        <v>312</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>616</v>
+        <v>610</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -10494,13 +10515,13 @@
         <v>1940</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>617</v>
+        <v>62</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>618</v>
+        <v>280</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>619</v>
+        <v>390</v>
       </c>
       <c r="M11" s="7">
         <v>3</v>
@@ -10509,13 +10530,13 @@
         <v>1940</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>620</v>
+        <v>611</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>156</v>
+        <v>612</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -10530,13 +10551,13 @@
         <v>81481</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>621</v>
+        <v>613</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>622</v>
+        <v>614</v>
       </c>
       <c r="H12" s="7">
         <v>198</v>
@@ -10545,13 +10566,13 @@
         <v>123483</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>623</v>
+        <v>615</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>624</v>
+        <v>616</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>625</v>
+        <v>51</v>
       </c>
       <c r="M12" s="7">
         <v>288</v>
@@ -10560,13 +10581,13 @@
         <v>204964</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>626</v>
+        <v>617</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>627</v>
+        <v>618</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>628</v>
+        <v>619</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -10634,13 +10655,13 @@
         <v>2127</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="H14" s="7">
         <v>4</v>
@@ -10649,13 +10670,13 @@
         <v>2289</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>445</v>
+        <v>534</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>43</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>228</v>
+        <v>621</v>
       </c>
       <c r="M14" s="7">
         <v>7</v>
@@ -10664,13 +10685,13 @@
         <v>4417</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>630</v>
+        <v>622</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>269</v>
+        <v>449</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>588</v>
+        <v>623</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -10685,13 +10706,13 @@
         <v>2406</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>631</v>
+        <v>624</v>
       </c>
       <c r="H15" s="7">
         <v>13</v>
@@ -10700,13 +10721,13 @@
         <v>7416</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>632</v>
+        <v>19</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>519</v>
+        <v>334</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>633</v>
+        <v>625</v>
       </c>
       <c r="M15" s="7">
         <v>17</v>
@@ -10715,13 +10736,13 @@
         <v>9821</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>634</v>
+        <v>626</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>636</v>
+        <v>628</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -10736,13 +10757,13 @@
         <v>1339</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>508</v>
+        <v>629</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>637</v>
+        <v>225</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -10757,7 +10778,7 @@
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>438</v>
+        <v>630</v>
       </c>
       <c r="M16" s="7">
         <v>3</v>
@@ -10766,13 +10787,13 @@
         <v>1972</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>638</v>
+        <v>606</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>205</v>
+        <v>593</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>639</v>
+        <v>631</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -10787,13 +10808,13 @@
         <v>71729</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>640</v>
+        <v>632</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>641</v>
+        <v>633</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>244</v>
+        <v>634</v>
       </c>
       <c r="H17" s="7">
         <v>151</v>
@@ -10802,13 +10823,13 @@
         <v>84614</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>642</v>
+        <v>635</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>643</v>
+        <v>636</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>644</v>
+        <v>637</v>
       </c>
       <c r="M17" s="7">
         <v>264</v>
@@ -10817,13 +10838,13 @@
         <v>156342</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>28</v>
+        <v>638</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>646</v>
+        <v>640</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -10879,7 +10900,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -10897,7 +10918,7 @@
         <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>546</v>
+        <v>641</v>
       </c>
       <c r="H19" s="7">
         <v>3</v>
@@ -10909,10 +10930,10 @@
         <v>113</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>635</v>
+        <v>643</v>
       </c>
       <c r="M19" s="7">
         <v>3</v>
@@ -10921,13 +10942,13 @@
         <v>1359</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -10948,7 +10969,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>546</v>
+        <v>641</v>
       </c>
       <c r="H20" s="7">
         <v>7</v>
@@ -10957,13 +10978,13 @@
         <v>2932</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>651</v>
+        <v>606</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="M20" s="7">
         <v>7</v>
@@ -10972,13 +10993,13 @@
         <v>2932</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>458</v>
+        <v>191</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>378</v>
+        <v>35</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -10999,7 +11020,7 @@
         <v>12</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>546</v>
+        <v>641</v>
       </c>
       <c r="H21" s="7">
         <v>1</v>
@@ -11008,13 +11029,13 @@
         <v>474</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>618</v>
+        <v>280</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
       <c r="M21" s="7">
         <v>1</v>
@@ -11023,7 +11044,7 @@
         <v>474</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="P21" s="7" t="s">
         <v>11</v>
@@ -11047,7 +11068,7 @@
         <v>22</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>24</v>
@@ -11059,13 +11080,13 @@
         <v>105690</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="M22" s="7">
         <v>363</v>
@@ -11074,13 +11095,13 @@
         <v>184495</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>662</v>
+        <v>657</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -11136,7 +11157,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -11154,7 +11175,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="H24" s="7">
         <v>2</v>
@@ -11163,13 +11184,13 @@
         <v>983</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>664</v>
+        <v>324</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>154</v>
+        <v>659</v>
       </c>
       <c r="M24" s="7">
         <v>2</v>
@@ -11178,13 +11199,13 @@
         <v>983</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="P24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>30</v>
+        <v>661</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -11199,13 +11220,13 @@
         <v>1616</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>48</v>
+        <v>662</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>208</v>
+        <v>226</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="H25" s="7">
         <v>12</v>
@@ -11214,13 +11235,13 @@
         <v>5361</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>236</v>
+        <v>665</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="M25" s="7">
         <v>15</v>
@@ -11229,13 +11250,13 @@
         <v>6978</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>669</v>
+        <v>239</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>279</v>
+        <v>668</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -11256,7 +11277,7 @@
         <v>12</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -11271,7 +11292,7 @@
         <v>12</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -11286,7 +11307,7 @@
         <v>12</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -11301,13 +11322,13 @@
         <v>36715</v>
       </c>
       <c r="E27" s="7" t="s">
+        <v>670</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>671</v>
+      </c>
+      <c r="G27" s="7" t="s">
         <v>672</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>673</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>662</v>
       </c>
       <c r="H27" s="7">
         <v>151</v>
@@ -11316,10 +11337,10 @@
         <v>59136</v>
       </c>
       <c r="J27" s="7" t="s">
+        <v>673</v>
+      </c>
+      <c r="K27" s="7" t="s">
         <v>674</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>500</v>
       </c>
       <c r="L27" s="7" t="s">
         <v>675</v>
@@ -11405,13 +11426,13 @@
         <v>1591</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>156</v>
+        <v>265</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>232</v>
+        <v>195</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>679</v>
+        <v>44</v>
       </c>
       <c r="H29" s="7">
         <v>9</v>
@@ -11420,13 +11441,13 @@
         <v>3775</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>334</v>
+        <v>679</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>42</v>
+        <v>203</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M29" s="7">
         <v>13</v>
@@ -11456,7 +11477,7 @@
         <v>409</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>11</v>
@@ -11486,13 +11507,13 @@
         <v>4895</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>681</v>
+        <v>687</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>228</v>
+        <v>688</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -11528,7 +11549,7 @@
         <v>12</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="M31" s="7">
         <v>0</v>
@@ -11558,13 +11579,13 @@
         <v>61183</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>687</v>
+        <v>298</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="H32" s="7">
         <v>155</v>
@@ -11573,13 +11594,13 @@
         <v>61592</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="M32" s="7">
         <v>285</v>
@@ -11588,13 +11609,13 @@
         <v>122776</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>695</v>
+        <v>488</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -11662,7 +11683,7 @@
         <v>760</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>696</v>
+        <v>235</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>11</v>
@@ -11677,13 +11698,13 @@
         <v>2610</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>536</v>
+        <v>696</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>368</v>
+        <v>697</v>
       </c>
       <c r="M34" s="7">
         <v>5</v>
@@ -11692,13 +11713,13 @@
         <v>3370</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>191</v>
+        <v>698</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>697</v>
+        <v>491</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -11713,13 +11734,13 @@
         <v>1641</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="F35" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="H35" s="7">
         <v>10</v>
@@ -11728,13 +11749,13 @@
         <v>5793</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>180</v>
+        <v>544</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>537</v>
+        <v>701</v>
       </c>
       <c r="M35" s="7">
         <v>12</v>
@@ -11743,13 +11764,13 @@
         <v>7434</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>700</v>
+        <v>515</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>701</v>
+        <v>195</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>506</v>
+        <v>702</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -11764,13 +11785,13 @@
         <v>698</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>465</v>
+        <v>478</v>
       </c>
       <c r="F36" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>573</v>
+        <v>85</v>
       </c>
       <c r="H36" s="7">
         <v>8</v>
@@ -11779,13 +11800,13 @@
         <v>4194</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>207</v>
+        <v>645</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>280</v>
+        <v>703</v>
       </c>
       <c r="M36" s="7">
         <v>9</v>
@@ -11797,10 +11818,10 @@
         <v>473</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>620</v>
+        <v>642</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>554</v>
+        <v>704</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -11815,13 +11836,13 @@
         <v>127740</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>702</v>
+        <v>705</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>703</v>
+        <v>706</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>704</v>
+        <v>707</v>
       </c>
       <c r="H37" s="7">
         <v>220</v>
@@ -11830,13 +11851,13 @@
         <v>246247</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>705</v>
+        <v>708</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>706</v>
+        <v>709</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>707</v>
+        <v>710</v>
       </c>
       <c r="M37" s="7">
         <v>384</v>
@@ -11845,13 +11866,13 @@
         <v>373987</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>708</v>
+        <v>711</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>709</v>
+        <v>712</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -11925,7 +11946,7 @@
         <v>12</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="H39" s="7">
         <v>0</v>
@@ -11940,7 +11961,7 @@
         <v>12</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>710</v>
+        <v>713</v>
       </c>
       <c r="M39" s="7">
         <v>0</v>
@@ -11955,7 +11976,7 @@
         <v>12</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>711</v>
+        <v>714</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -11970,13 +11991,13 @@
         <v>2161</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>712</v>
+        <v>715</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>285</v>
+        <v>178</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>713</v>
+        <v>482</v>
       </c>
       <c r="H40" s="7">
         <v>17</v>
@@ -11985,13 +12006,13 @@
         <v>13858</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>245</v>
+        <v>716</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>714</v>
+        <v>717</v>
       </c>
       <c r="M40" s="7">
         <v>20</v>
@@ -12003,10 +12024,10 @@
         <v>64</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>554</v>
+        <v>718</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>715</v>
+        <v>130</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -12021,13 +12042,13 @@
         <v>865</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>716</v>
+        <v>719</v>
       </c>
       <c r="F41" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>417</v>
+        <v>720</v>
       </c>
       <c r="H41" s="7">
         <v>1</v>
@@ -12036,13 +12057,13 @@
         <v>614</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="K41" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>67</v>
+        <v>721</v>
       </c>
       <c r="M41" s="7">
         <v>3</v>
@@ -12051,13 +12072,13 @@
         <v>1479</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>346</v>
+        <v>377</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>717</v>
+        <v>722</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>718</v>
+        <v>303</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -12072,13 +12093,13 @@
         <v>166902</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>719</v>
+        <v>723</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>720</v>
+        <v>724</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>721</v>
+        <v>725</v>
       </c>
       <c r="H42" s="7">
         <v>325</v>
@@ -12087,13 +12108,13 @@
         <v>208570</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>722</v>
+        <v>726</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>552</v>
+        <v>727</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>723</v>
+        <v>728</v>
       </c>
       <c r="M42" s="7">
         <v>555</v>
@@ -12102,13 +12123,13 @@
         <v>375472</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>724</v>
+        <v>729</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>312</v>
+        <v>435</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>725</v>
+        <v>730</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -12176,13 +12197,13 @@
         <v>5360</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>205</v>
+        <v>731</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>344</v>
+        <v>732</v>
       </c>
       <c r="H44" s="7">
         <v>30</v>
@@ -12191,13 +12212,13 @@
         <v>17017</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>130</v>
+        <v>264</v>
       </c>
       <c r="K44" s="7" t="s">
         <v>194</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>156</v>
+        <v>42</v>
       </c>
       <c r="M44" s="7">
         <v>39</v>
@@ -12206,13 +12227,13 @@
         <v>22377</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>726</v>
+        <v>733</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>356</v>
+        <v>151</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>343</v>
+        <v>229</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -12230,10 +12251,10 @@
         <v>148</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>727</v>
+        <v>734</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>728</v>
+        <v>237</v>
       </c>
       <c r="H45" s="7">
         <v>89</v>
@@ -12242,13 +12263,13 @@
         <v>51679</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>729</v>
+        <v>735</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>307</v>
+        <v>398</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>730</v>
+        <v>736</v>
       </c>
       <c r="M45" s="7">
         <v>106</v>
@@ -12257,13 +12278,13 @@
         <v>63864</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>619</v>
+        <v>737</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>176</v>
+        <v>480</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>321</v>
+        <v>738</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -12278,13 +12299,13 @@
         <v>2902</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>731</v>
+        <v>739</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>732</v>
+        <v>740</v>
       </c>
       <c r="H46" s="7">
         <v>17</v>
@@ -12293,13 +12314,13 @@
         <v>9895</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>733</v>
+        <v>741</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>734</v>
+        <v>742</v>
       </c>
       <c r="M46" s="7">
         <v>22</v>
@@ -12308,13 +12329,13 @@
         <v>12797</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>735</v>
+        <v>368</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>736</v>
+        <v>743</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>610</v>
+        <v>45</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -12329,13 +12350,13 @@
         <v>676474</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>117</v>
+        <v>744</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>737</v>
+        <v>335</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>738</v>
+        <v>745</v>
       </c>
       <c r="H47" s="7">
         <v>1571</v>
@@ -12344,13 +12365,13 @@
         <v>947611</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>583</v>
+        <v>559</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>739</v>
+        <v>746</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>740</v>
+        <v>747</v>
       </c>
       <c r="M47" s="7">
         <v>2567</v>
@@ -12359,13 +12380,13 @@
         <v>1624086</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>216</v>
+        <v>748</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>741</v>
+        <v>749</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>742</v>
+        <v>183</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -12421,7 +12442,7 @@
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/Q5416-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/Q5416-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1802D5BD-CB46-461E-BE55-1C28F6990B53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8775AA51-30DF-498D-87A0-42DFE6F76F17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{46A5A402-A03D-4F71-8BFD-5B1385544EE1}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{74622187-7FF4-4F5D-A62A-E3A1B77D43B1}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1916" uniqueCount="750">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1916" uniqueCount="753">
   <si>
     <t>Población según si es capaz de moverse por su casa en 2007 (Tasa respuesta: 18,18%)</t>
   </si>
@@ -707,7 +707,70 @@
     <t>Población según si es capaz de moverse por su casa en 2012 (Tasa respuesta: 18,41%)</t>
   </si>
   <si>
-    <t>—%</t>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>24,83%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>88,9%</t>
+  </si>
+  <si>
+    <t>84,67%</t>
+  </si>
+  <si>
+    <t>71,04%</t>
+  </si>
+  <si>
+    <t>93,37%</t>
+  </si>
+  <si>
+    <t>90,9%</t>
+  </si>
+  <si>
+    <t>84,25%</t>
+  </si>
+  <si>
+    <t>95,6%</t>
   </si>
   <si>
     <t>2,69%</t>
@@ -869,1426 +932,1372 @@
     <t>93,6%</t>
   </si>
   <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
+  </si>
+  <si>
+    <t>88,34%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>90,08%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>96,4%</t>
+  </si>
+  <si>
+    <t>91,99%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>16,53%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>92,86%</t>
+  </si>
+  <si>
+    <t>77,89%</t>
+  </si>
+  <si>
+    <t>91,8%</t>
+  </si>
+  <si>
+    <t>81,52%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>84,16%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>95,88%</t>
+  </si>
+  <si>
+    <t>85,85%</t>
+  </si>
+  <si>
+    <t>87,87%</t>
+  </si>
+  <si>
+    <t>77,64%</t>
+  </si>
+  <si>
+    <t>93,95%</t>
+  </si>
+  <si>
+    <t>91,27%</t>
+  </si>
+  <si>
+    <t>85,16%</t>
+  </si>
+  <si>
+    <t>95,58%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>95,31%</t>
+  </si>
+  <si>
+    <t>87,57%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>92,11%</t>
+  </si>
+  <si>
+    <t>86,99%</t>
+  </si>
+  <si>
+    <t>93,52%</t>
+  </si>
+  <si>
+    <t>89,44%</t>
+  </si>
+  <si>
+    <t>96,31%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>91,34%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>92,52%</t>
+  </si>
+  <si>
+    <t>87,38%</t>
+  </si>
+  <si>
+    <t>96,03%</t>
+  </si>
+  <si>
+    <t>94,13%</t>
+  </si>
+  <si>
+    <t>90,62%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>95,44%</t>
+  </si>
+  <si>
+    <t>93,27%</t>
+  </si>
+  <si>
+    <t>97,13%</t>
+  </si>
+  <si>
+    <t>91,03%</t>
+  </si>
+  <si>
+    <t>88,6%</t>
+  </si>
+  <si>
+    <t>92,92%</t>
+  </si>
+  <si>
+    <t>91,45%</t>
+  </si>
+  <si>
+    <t>94,27%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de moverse por su casa en 2016 (Tasa respuesta: 19,52%)</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>19,02%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>95,9%</t>
+  </si>
+  <si>
+    <t>87,44%</t>
+  </si>
+  <si>
+    <t>90,73%</t>
+  </si>
+  <si>
+    <t>76,74%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>93,01%</t>
+  </si>
+  <si>
+    <t>85,55%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
+  </si>
+  <si>
+    <t>91,25%</t>
+  </si>
+  <si>
+    <t>92,07%</t>
+  </si>
+  <si>
+    <t>85,01%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
+  </si>
+  <si>
+    <t>94,04%</t>
+  </si>
+  <si>
+    <t>88,98%</t>
+  </si>
+  <si>
+    <t>96,8%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>95,57%</t>
+  </si>
+  <si>
+    <t>88,29%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>94,4%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>94,91%</t>
+  </si>
+  <si>
+    <t>89,7%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>94,68%</t>
+  </si>
+  <si>
+    <t>87,19%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>97,51%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>94,75%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>22,23%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>89,24%</t>
+  </si>
+  <si>
+    <t>84,61%</t>
+  </si>
+  <si>
+    <t>73,65%</t>
+  </si>
+  <si>
+    <t>90,74%</t>
+  </si>
+  <si>
+    <t>82,92%</t>
+  </si>
+  <si>
+    <t>95,38%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>14,1%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>18,99%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>16,76%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>88,3%</t>
+  </si>
+  <si>
+    <t>79,53%</t>
+  </si>
+  <si>
+    <t>95,08%</t>
+  </si>
+  <si>
+    <t>87,3%</t>
+  </si>
+  <si>
+    <t>77,46%</t>
+  </si>
+  <si>
+    <t>94,65%</t>
+  </si>
+  <si>
+    <t>87,72%</t>
+  </si>
+  <si>
+    <t>80,25%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>89,52%</t>
+  </si>
+  <si>
+    <t>84,73%</t>
+  </si>
+  <si>
+    <t>95,61%</t>
+  </si>
+  <si>
+    <t>92,91%</t>
+  </si>
+  <si>
+    <t>88,64%</t>
+  </si>
+  <si>
+    <t>95,74%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>92,34%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>93,11%</t>
+  </si>
+  <si>
+    <t>87,46%</t>
+  </si>
+  <si>
+    <t>96,71%</t>
+  </si>
+  <si>
+    <t>95,04%</t>
+  </si>
+  <si>
+    <t>91,53%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>93,72%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
+  </si>
+  <si>
+    <t>89,88%</t>
+  </si>
+  <si>
+    <t>94,37%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
+  </si>
+  <si>
+    <t>92,26%</t>
+  </si>
+  <si>
+    <t>94,96%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de moverse por su casa en 2023 (Tasa respuesta: 31,27%)</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>93,77%</t>
+  </si>
+  <si>
+    <t>87,59%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>92,85%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>94,48%</t>
+  </si>
+  <si>
+    <t>88,1%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>87,74%</t>
+  </si>
+  <si>
+    <t>82,46%</t>
+  </si>
+  <si>
+    <t>91,88%</t>
+  </si>
+  <si>
+    <t>90,33%</t>
+  </si>
+  <si>
+    <t>86,65%</t>
+  </si>
+  <si>
+    <t>93,36%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>92,46%</t>
+  </si>
+  <si>
+    <t>86,87%</t>
+  </si>
+  <si>
+    <t>89,33%</t>
+  </si>
+  <si>
+    <t>83,78%</t>
+  </si>
+  <si>
+    <t>93,44%</t>
+  </si>
+  <si>
+    <t>90,76%</t>
+  </si>
+  <si>
+    <t>87,06%</t>
+  </si>
+  <si>
+    <t>93,97%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
+  </si>
+  <si>
+    <t>89,07%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>90,55%</t>
+  </si>
+  <si>
+    <t>84,87%</t>
+  </si>
+  <si>
+    <t>94,47%</t>
+  </si>
+  <si>
+    <t>88,21%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
     <t>1,08%</t>
   </si>
   <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
-  </si>
-  <si>
-    <t>92,62%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>92,06%</t>
-  </si>
-  <si>
-    <t>86,29%</t>
-  </si>
-  <si>
-    <t>94,29%</t>
-  </si>
-  <si>
-    <t>90,75%</t>
-  </si>
-  <si>
-    <t>96,83%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>16,53%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>92,86%</t>
-  </si>
-  <si>
-    <t>77,89%</t>
-  </si>
-  <si>
-    <t>91,8%</t>
-  </si>
-  <si>
-    <t>81,52%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>84,16%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>95,88%</t>
-  </si>
-  <si>
-    <t>85,85%</t>
-  </si>
-  <si>
-    <t>87,87%</t>
-  </si>
-  <si>
-    <t>77,64%</t>
-  </si>
-  <si>
-    <t>93,95%</t>
-  </si>
-  <si>
-    <t>91,27%</t>
-  </si>
-  <si>
-    <t>85,16%</t>
-  </si>
-  <si>
-    <t>95,58%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>95,31%</t>
-  </si>
-  <si>
-    <t>87,57%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>92,11%</t>
-  </si>
-  <si>
-    <t>86,99%</t>
-  </si>
-  <si>
-    <t>93,52%</t>
-  </si>
-  <si>
-    <t>89,44%</t>
-  </si>
-  <si>
-    <t>96,31%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>91,34%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>92,52%</t>
-  </si>
-  <si>
-    <t>87,38%</t>
-  </si>
-  <si>
-    <t>96,03%</t>
-  </si>
-  <si>
-    <t>94,13%</t>
-  </si>
-  <si>
-    <t>90,62%</t>
-  </si>
-  <si>
-    <t>96,51%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>95,44%</t>
-  </si>
-  <si>
-    <t>93,27%</t>
-  </si>
-  <si>
-    <t>97,13%</t>
-  </si>
-  <si>
-    <t>91,03%</t>
-  </si>
-  <si>
-    <t>88,6%</t>
-  </si>
-  <si>
-    <t>92,92%</t>
-  </si>
-  <si>
-    <t>91,45%</t>
-  </si>
-  <si>
-    <t>94,27%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de moverse por su casa en 2016 (Tasa respuesta: 19,52%)</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>19,02%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>95,9%</t>
-  </si>
-  <si>
-    <t>87,44%</t>
-  </si>
-  <si>
-    <t>90,73%</t>
-  </si>
-  <si>
-    <t>76,74%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>93,01%</t>
-  </si>
-  <si>
-    <t>85,55%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>96,65%</t>
-  </si>
-  <si>
-    <t>91,25%</t>
-  </si>
-  <si>
-    <t>92,07%</t>
-  </si>
-  <si>
-    <t>85,01%</t>
-  </si>
-  <si>
-    <t>96,63%</t>
-  </si>
-  <si>
-    <t>94,04%</t>
-  </si>
-  <si>
-    <t>88,98%</t>
-  </si>
-  <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>95,57%</t>
-  </si>
-  <si>
-    <t>88,29%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>94,4%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>94,91%</t>
-  </si>
-  <si>
-    <t>89,7%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>94,68%</t>
-  </si>
-  <si>
-    <t>87,19%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>97,51%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>94,75%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>22,23%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>89,24%</t>
-  </si>
-  <si>
-    <t>84,61%</t>
-  </si>
-  <si>
-    <t>73,65%</t>
-  </si>
-  <si>
-    <t>90,74%</t>
-  </si>
-  <si>
-    <t>82,92%</t>
-  </si>
-  <si>
-    <t>95,38%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>18,99%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>16,76%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>14,94%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>88,3%</t>
-  </si>
-  <si>
-    <t>79,53%</t>
-  </si>
-  <si>
-    <t>95,08%</t>
-  </si>
-  <si>
-    <t>87,3%</t>
-  </si>
-  <si>
-    <t>77,46%</t>
-  </si>
-  <si>
-    <t>94,65%</t>
-  </si>
-  <si>
-    <t>87,72%</t>
-  </si>
-  <si>
-    <t>80,25%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>89,52%</t>
-  </si>
-  <si>
-    <t>84,73%</t>
-  </si>
-  <si>
-    <t>95,61%</t>
-  </si>
-  <si>
-    <t>92,91%</t>
-  </si>
-  <si>
-    <t>88,64%</t>
-  </si>
-  <si>
-    <t>95,74%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>92,34%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>93,11%</t>
-  </si>
-  <si>
-    <t>87,46%</t>
-  </si>
-  <si>
-    <t>96,71%</t>
-  </si>
-  <si>
-    <t>95,04%</t>
-  </si>
-  <si>
-    <t>91,53%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>95,6%</t>
-  </si>
-  <si>
-    <t>93,72%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
-  </si>
-  <si>
-    <t>89,88%</t>
-  </si>
-  <si>
-    <t>94,37%</t>
-  </si>
-  <si>
-    <t>93,75%</t>
-  </si>
-  <si>
-    <t>92,26%</t>
-  </si>
-  <si>
-    <t>94,96%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de moverse por su casa en 2023 (Tasa respuesta: 31,27%)</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>93,67%</t>
-  </si>
-  <si>
-    <t>87,4%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
-  </si>
-  <si>
-    <t>96,55%</t>
-  </si>
-  <si>
-    <t>92,61%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
+    <t>96,85%</t>
+  </si>
+  <si>
+    <t>93,08%</t>
+  </si>
+  <si>
+    <t>88,2%</t>
+  </si>
+  <si>
+    <t>92,49%</t>
+  </si>
+  <si>
+    <t>92,35%</t>
+  </si>
+  <si>
+    <t>89,22%</t>
+  </si>
+  <si>
+    <t>94,71%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>94,12%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>96,61%</t>
+  </si>
+  <si>
+    <t>90,58%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>96,87%</t>
+  </si>
+  <si>
+    <t>93,91%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>95,78%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>94,18%</t>
+  </si>
+  <si>
+    <t>96,38%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
   </si>
   <si>
     <t>2,29%</t>
   </si>
   <si>
-    <t>87,69%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>87,36%</t>
-  </si>
-  <si>
-    <t>81,65%</t>
-  </si>
-  <si>
-    <t>90,03%</t>
-  </si>
-  <si>
-    <t>86,13%</t>
-  </si>
-  <si>
-    <t>93,18%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>92,43%</t>
-  </si>
-  <si>
-    <t>86,67%</t>
-  </si>
-  <si>
-    <t>95,94%</t>
-  </si>
-  <si>
-    <t>89,11%</t>
-  </si>
-  <si>
-    <t>83,6%</t>
-  </si>
-  <si>
-    <t>93,2%</t>
-  </si>
-  <si>
-    <t>90,61%</t>
-  </si>
-  <si>
-    <t>86,78%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>95,69%</t>
-  </si>
-  <si>
-    <t>93,05%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>95,77%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
+    <t>5,82%</t>
   </si>
   <si>
     <t>3,32%</t>
   </si>
   <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>95,78%</t>
-  </si>
-  <si>
-    <t>88,94%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>90,31%</t>
-  </si>
-  <si>
-    <t>84,37%</t>
-  </si>
-  <si>
-    <t>94,34%</t>
-  </si>
-  <si>
-    <t>92,33%</t>
-  </si>
-  <si>
-    <t>87,98%</t>
-  </si>
-  <si>
-    <t>95,62%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>92,99%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>88,17%</t>
-  </si>
-  <si>
-    <t>82,4%</t>
-  </si>
-  <si>
-    <t>92,35%</t>
-  </si>
-  <si>
-    <t>92,29%</t>
-  </si>
-  <si>
-    <t>89,16%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>94,16%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>95,13%</t>
-  </si>
-  <si>
-    <t>90,48%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>93,66%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>95,72%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>93,51%</t>
-  </si>
-  <si>
-    <t>89,02%</t>
-  </si>
-  <si>
-    <t>96,09%</t>
-  </si>
-  <si>
-    <t>95,55%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
+    <t>2,16%</t>
   </si>
   <si>
     <t>0,12%</t>
   </si>
   <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>97,07%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>90,6%</t>
-  </si>
-  <si>
-    <t>94,69%</t>
-  </si>
-  <si>
-    <t>94,25%</t>
-  </si>
-  <si>
-    <t>93,15%</t>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>93,3%</t>
+  </si>
+  <si>
+    <t>91,16%</t>
+  </si>
+  <si>
+    <t>94,77%</t>
+  </si>
+  <si>
+    <t>93,68%</t>
+  </si>
+  <si>
+    <t>96,66%</t>
   </si>
 </sst>
 </file>
@@ -2700,7 +2709,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4765763-9023-40BD-9A3F-9F628485C00D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{450AE34A-959B-4208-AC4B-8D0DE688DCBE}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -5149,7 +5158,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90D2BC17-5436-408B-8616-BD3AC3B5831B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F57C794B-A40E-4B93-BC4A-D49EB41F9F8E}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5269,41 +5278,47 @@
       <c r="C4" s="7">
         <v>0</v>
       </c>
-      <c r="D4" s="7"/>
+      <c r="D4" s="7">
+        <v>0</v>
+      </c>
       <c r="E4" s="7" t="s">
-        <v>222</v>
+        <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>222</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>222</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="I4" s="7">
+        <v>2174</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>222</v>
+        <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="N4" s="7">
+        <v>2174</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>222</v>
+        <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5314,41 +5329,47 @@
       <c r="C5" s="7">
         <v>0</v>
       </c>
-      <c r="D5" s="7"/>
+      <c r="D5" s="7">
+        <v>0</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>222</v>
+        <v>11</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>222</v>
+        <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>222</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>5</v>
+      </c>
+      <c r="I5" s="7">
+        <v>5323</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>222</v>
+        <v>174</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>5</v>
+      </c>
+      <c r="N5" s="7">
+        <v>5323</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5357,43 +5378,49 @@
         <v>20</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="D6" s="7">
+        <v>986</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>222</v>
+        <v>11</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>222</v>
+        <v>233</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
-      <c r="I6" s="7"/>
+      <c r="I6" s="7">
+        <v>0</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>222</v>
+        <v>11</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>222</v>
+        <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>222</v>
+        <v>234</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="N6" s="7">
+        <v>986</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>222</v>
+        <v>235</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>222</v>
+        <v>11</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5402,43 +5429,49 @@
         <v>21</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
-      </c>
-      <c r="D7" s="7"/>
+        <v>39</v>
+      </c>
+      <c r="D7" s="7">
+        <v>43295</v>
+      </c>
       <c r="E7" s="7" t="s">
-        <v>222</v>
+        <v>236</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>222</v>
+        <v>237</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>222</v>
+        <v>22</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7"/>
+        <v>40</v>
+      </c>
+      <c r="I7" s="7">
+        <v>41397</v>
+      </c>
       <c r="J7" s="7" t="s">
-        <v>222</v>
+        <v>238</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>222</v>
+        <v>239</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>222</v>
+        <v>240</v>
       </c>
       <c r="M7" s="7">
-        <v>0</v>
-      </c>
-      <c r="N7" s="7"/>
+        <v>79</v>
+      </c>
+      <c r="N7" s="7">
+        <v>84693</v>
+      </c>
       <c r="O7" s="7" t="s">
-        <v>222</v>
+        <v>241</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>222</v>
+        <v>242</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>222</v>
+        <v>243</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5447,43 +5480,49 @@
         <v>3</v>
       </c>
       <c r="C8" s="7">
-        <v>0</v>
-      </c>
-      <c r="D8" s="7"/>
+        <v>40</v>
+      </c>
+      <c r="D8" s="7">
+        <v>44281</v>
+      </c>
       <c r="E8" s="7" t="s">
-        <v>222</v>
+        <v>24</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>222</v>
+        <v>24</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>222</v>
+        <v>24</v>
       </c>
       <c r="H8" s="7">
-        <v>0</v>
-      </c>
-      <c r="I8" s="7"/>
+        <v>47</v>
+      </c>
+      <c r="I8" s="7">
+        <v>48894</v>
+      </c>
       <c r="J8" s="7" t="s">
-        <v>222</v>
+        <v>24</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>222</v>
+        <v>24</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>222</v>
+        <v>24</v>
       </c>
       <c r="M8" s="7">
-        <v>0</v>
-      </c>
-      <c r="N8" s="7"/>
+        <v>87</v>
+      </c>
+      <c r="N8" s="7">
+        <v>93175</v>
+      </c>
       <c r="O8" s="7" t="s">
-        <v>222</v>
+        <v>24</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>222</v>
+        <v>24</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>222</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5500,13 +5539,13 @@
         <v>2130</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>223</v>
+        <v>244</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>224</v>
+        <v>245</v>
       </c>
       <c r="H9" s="7">
         <v>4</v>
@@ -5515,13 +5554,13 @@
         <v>5575</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>225</v>
+        <v>246</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>226</v>
+        <v>247</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>227</v>
+        <v>248</v>
       </c>
       <c r="M9" s="7">
         <v>6</v>
@@ -5530,13 +5569,13 @@
         <v>7706</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>229</v>
+        <v>250</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>230</v>
+        <v>251</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5551,13 +5590,13 @@
         <v>1062</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>231</v>
+        <v>252</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>232</v>
+        <v>253</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
@@ -5566,13 +5605,13 @@
         <v>2217</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>233</v>
+        <v>254</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>234</v>
+        <v>255</v>
       </c>
       <c r="M10" s="7">
         <v>3</v>
@@ -5584,10 +5623,10 @@
         <v>204</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>235</v>
+        <v>256</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>236</v>
+        <v>257</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5608,7 +5647,7 @@
         <v>12</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>237</v>
+        <v>258</v>
       </c>
       <c r="H11" s="7">
         <v>2</v>
@@ -5617,13 +5656,13 @@
         <v>2258</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>238</v>
+        <v>259</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>239</v>
+        <v>260</v>
       </c>
       <c r="M11" s="7">
         <v>2</v>
@@ -5632,13 +5671,13 @@
         <v>2258</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>240</v>
+        <v>261</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>241</v>
+        <v>262</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5653,13 +5692,13 @@
         <v>76011</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>242</v>
+        <v>263</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>243</v>
+        <v>264</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>244</v>
+        <v>265</v>
       </c>
       <c r="H12" s="7">
         <v>85</v>
@@ -5671,10 +5710,10 @@
         <v>181</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>245</v>
+        <v>266</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>246</v>
+        <v>267</v>
       </c>
       <c r="M12" s="7">
         <v>151</v>
@@ -5683,13 +5722,13 @@
         <v>168054</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>247</v>
+        <v>268</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>248</v>
+        <v>269</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>249</v>
+        <v>270</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5757,13 +5796,13 @@
         <v>1995</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>250</v>
+        <v>271</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>251</v>
+        <v>272</v>
       </c>
       <c r="H14" s="7">
         <v>6</v>
@@ -5772,13 +5811,13 @@
         <v>6557</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>252</v>
+        <v>273</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>98</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>253</v>
+        <v>274</v>
       </c>
       <c r="M14" s="7">
         <v>8</v>
@@ -5787,13 +5826,13 @@
         <v>8552</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>254</v>
+        <v>275</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>255</v>
+        <v>276</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>256</v>
+        <v>277</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5808,13 +5847,13 @@
         <v>3068</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>257</v>
+        <v>278</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>258</v>
+        <v>279</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>259</v>
+        <v>280</v>
       </c>
       <c r="H15" s="7">
         <v>3</v>
@@ -5823,13 +5862,13 @@
         <v>3235</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>260</v>
+        <v>281</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>261</v>
+        <v>282</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>262</v>
+        <v>283</v>
       </c>
       <c r="M15" s="7">
         <v>6</v>
@@ -5838,10 +5877,10 @@
         <v>6303</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>263</v>
+        <v>284</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>264</v>
+        <v>285</v>
       </c>
       <c r="Q15" s="7" t="s">
         <v>133</v>
@@ -5880,7 +5919,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>265</v>
+        <v>286</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -5895,7 +5934,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>266</v>
+        <v>287</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5910,13 +5949,13 @@
         <v>50679</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>267</v>
+        <v>288</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>268</v>
+        <v>289</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>269</v>
+        <v>290</v>
       </c>
       <c r="H17" s="7">
         <v>66</v>
@@ -5925,13 +5964,13 @@
         <v>70176</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>270</v>
+        <v>291</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>271</v>
+        <v>292</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>272</v>
+        <v>293</v>
       </c>
       <c r="M17" s="7">
         <v>114</v>
@@ -5940,13 +5979,13 @@
         <v>120855</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>273</v>
+        <v>294</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>274</v>
+        <v>295</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>275</v>
+        <v>296</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6014,43 +6053,43 @@
         <v>1168</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>276</v>
+        <v>297</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>277</v>
+        <v>298</v>
       </c>
       <c r="H19" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" s="7">
-        <v>2174</v>
+        <v>0</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>100</v>
+        <v>11</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>278</v>
+        <v>299</v>
       </c>
       <c r="M19" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N19" s="7">
-        <v>3342</v>
+        <v>1168</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>279</v>
+        <v>168</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>280</v>
+        <v>11</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>125</v>
+        <v>199</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6065,43 +6104,43 @@
         <v>1036</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>281</v>
+        <v>100</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="H20" s="7">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="I20" s="7">
-        <v>8499</v>
+        <v>3177</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>283</v>
+        <v>300</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>284</v>
+        <v>301</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>285</v>
+        <v>302</v>
       </c>
       <c r="M20" s="7">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="N20" s="7">
-        <v>9535</v>
+        <v>4212</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>48</v>
+        <v>126</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>286</v>
+        <v>303</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>287</v>
+        <v>304</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6110,19 +6149,19 @@
         <v>20</v>
       </c>
       <c r="C21" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21" s="7">
-        <v>986</v>
+        <v>0</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>288</v>
+        <v>11</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>289</v>
+        <v>305</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -6137,22 +6176,22 @@
         <v>12</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>37</v>
+        <v>299</v>
       </c>
       <c r="M21" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N21" s="7">
-        <v>986</v>
+        <v>0</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>178</v>
+        <v>11</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>290</v>
+        <v>306</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6161,49 +6200,49 @@
         <v>21</v>
       </c>
       <c r="C22" s="7">
-        <v>95</v>
+        <v>56</v>
       </c>
       <c r="D22" s="7">
-        <v>105119</v>
+        <v>61825</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>291</v>
+        <v>307</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>292</v>
+        <v>308</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>293</v>
+        <v>22</v>
       </c>
       <c r="H22" s="7">
-        <v>119</v>
+        <v>79</v>
       </c>
       <c r="I22" s="7">
-        <v>123795</v>
+        <v>82397</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>294</v>
+        <v>309</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>295</v>
+        <v>310</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>216</v>
+        <v>311</v>
       </c>
       <c r="M22" s="7">
-        <v>214</v>
+        <v>135</v>
       </c>
       <c r="N22" s="7">
-        <v>228914</v>
+        <v>144222</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>296</v>
+        <v>312</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>297</v>
+        <v>313</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>298</v>
+        <v>314</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6212,10 +6251,10 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>98</v>
+        <v>58</v>
       </c>
       <c r="D23" s="7">
-        <v>108308</v>
+        <v>64028</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>24</v>
@@ -6227,10 +6266,10 @@
         <v>24</v>
       </c>
       <c r="H23" s="7">
-        <v>129</v>
+        <v>82</v>
       </c>
       <c r="I23" s="7">
-        <v>134468</v>
+        <v>85574</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>24</v>
@@ -6242,10 +6281,10 @@
         <v>24</v>
       </c>
       <c r="M23" s="7">
-        <v>227</v>
+        <v>140</v>
       </c>
       <c r="N23" s="7">
-        <v>242777</v>
+        <v>149602</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>24</v>
@@ -6277,7 +6316,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>234</v>
+        <v>255</v>
       </c>
       <c r="H24" s="7">
         <v>3</v>
@@ -6286,13 +6325,13 @@
         <v>3096</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>299</v>
+        <v>315</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>300</v>
+        <v>316</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>301</v>
+        <v>317</v>
       </c>
       <c r="M24" s="7">
         <v>3</v>
@@ -6301,13 +6340,13 @@
         <v>3096</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>302</v>
+        <v>318</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>303</v>
+        <v>319</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>304</v>
+        <v>320</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6322,13 +6361,13 @@
         <v>1157</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>305</v>
+        <v>321</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>306</v>
+        <v>322</v>
       </c>
       <c r="H25" s="7">
         <v>1</v>
@@ -6343,7 +6382,7 @@
         <v>11</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>307</v>
+        <v>323</v>
       </c>
       <c r="M25" s="7">
         <v>2</v>
@@ -6352,13 +6391,13 @@
         <v>2148</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>308</v>
+        <v>324</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>309</v>
+        <v>325</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6373,13 +6412,13 @@
         <v>1101</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>310</v>
+        <v>326</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>311</v>
+        <v>327</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -6394,7 +6433,7 @@
         <v>12</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>312</v>
+        <v>328</v>
       </c>
       <c r="M26" s="7">
         <v>1</v>
@@ -6403,7 +6442,7 @@
         <v>1101</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>313</v>
+        <v>329</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>11</v>
@@ -6424,10 +6463,10 @@
         <v>29355</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>314</v>
+        <v>330</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>315</v>
+        <v>331</v>
       </c>
       <c r="G27" s="7" t="s">
         <v>22</v>
@@ -6439,13 +6478,13 @@
         <v>45767</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>316</v>
+        <v>332</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>317</v>
+        <v>333</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>318</v>
+        <v>334</v>
       </c>
       <c r="M27" s="7">
         <v>70</v>
@@ -6457,10 +6496,10 @@
         <v>50</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>319</v>
+        <v>335</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>320</v>
+        <v>336</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -6528,13 +6567,13 @@
         <v>1057</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>321</v>
+        <v>337</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>322</v>
+        <v>338</v>
       </c>
       <c r="H29" s="7">
         <v>3</v>
@@ -6543,13 +6582,13 @@
         <v>3243</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>323</v>
+        <v>339</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>324</v>
+        <v>340</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>325</v>
+        <v>341</v>
       </c>
       <c r="M29" s="7">
         <v>4</v>
@@ -6558,13 +6597,13 @@
         <v>4300</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>326</v>
+        <v>342</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>327</v>
+        <v>343</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>230</v>
+        <v>251</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6579,7 +6618,7 @@
         <v>1075</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>328</v>
+        <v>344</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>11</v>
@@ -6594,13 +6633,13 @@
         <v>4176</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>329</v>
+        <v>345</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>324</v>
+        <v>340</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>330</v>
+        <v>346</v>
       </c>
       <c r="M30" s="7">
         <v>5</v>
@@ -6609,13 +6648,13 @@
         <v>5251</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>331</v>
+        <v>347</v>
       </c>
       <c r="P30" s="7" t="s">
         <v>177</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>309</v>
+        <v>325</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6636,7 +6675,7 @@
         <v>12</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>241</v>
+        <v>262</v>
       </c>
       <c r="H31" s="7">
         <v>1</v>
@@ -6651,7 +6690,7 @@
         <v>11</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>332</v>
+        <v>348</v>
       </c>
       <c r="M31" s="7">
         <v>1</v>
@@ -6660,13 +6699,13 @@
         <v>1100</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>333</v>
+        <v>349</v>
       </c>
       <c r="P31" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>334</v>
+        <v>350</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6681,10 +6720,10 @@
         <v>49624</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>335</v>
+        <v>351</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>336</v>
+        <v>352</v>
       </c>
       <c r="G32" s="7" t="s">
         <v>22</v>
@@ -6696,13 +6735,13 @@
         <v>61693</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>337</v>
+        <v>353</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>338</v>
+        <v>354</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>339</v>
+        <v>355</v>
       </c>
       <c r="M32" s="7">
         <v>109</v>
@@ -6711,13 +6750,13 @@
         <v>111317</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>340</v>
+        <v>356</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>341</v>
+        <v>357</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>342</v>
+        <v>358</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6785,13 +6824,13 @@
         <v>1989</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>343</v>
+        <v>359</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>344</v>
+        <v>360</v>
       </c>
       <c r="H34" s="7">
         <v>2</v>
@@ -6800,13 +6839,13 @@
         <v>2025</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>345</v>
+        <v>361</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>346</v>
+        <v>362</v>
       </c>
       <c r="M34" s="7">
         <v>4</v>
@@ -6815,13 +6854,13 @@
         <v>4015</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>347</v>
+        <v>363</v>
       </c>
       <c r="P34" s="7" t="s">
         <v>178</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>348</v>
+        <v>364</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6836,13 +6875,13 @@
         <v>1006</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>333</v>
+        <v>349</v>
       </c>
       <c r="F35" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>349</v>
+        <v>365</v>
       </c>
       <c r="H35" s="7">
         <v>9</v>
@@ -6851,13 +6890,13 @@
         <v>9180</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>350</v>
+        <v>366</v>
       </c>
       <c r="K35" s="7" t="s">
         <v>155</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>351</v>
+        <v>367</v>
       </c>
       <c r="M35" s="7">
         <v>10</v>
@@ -6866,13 +6905,13 @@
         <v>10186</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>352</v>
+        <v>368</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>353</v>
+        <v>369</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>354</v>
+        <v>370</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6887,13 +6926,13 @@
         <v>2269</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>290</v>
+        <v>371</v>
       </c>
       <c r="F36" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>355</v>
+        <v>372</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -6917,13 +6956,13 @@
         <v>2269</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>327</v>
+        <v>343</v>
       </c>
       <c r="P36" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>356</v>
+        <v>373</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6938,13 +6977,13 @@
         <v>106999</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>357</v>
+        <v>374</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>358</v>
+        <v>375</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>359</v>
+        <v>376</v>
       </c>
       <c r="H37" s="7">
         <v>118</v>
@@ -6953,13 +6992,13 @@
         <v>130756</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>360</v>
+        <v>377</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>361</v>
+        <v>378</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>335</v>
+        <v>351</v>
       </c>
       <c r="M37" s="7">
         <v>214</v>
@@ -6968,13 +7007,13 @@
         <v>237757</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>362</v>
+        <v>379</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>363</v>
+        <v>380</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>364</v>
+        <v>381</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -7042,7 +7081,7 @@
         <v>1098</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>288</v>
+        <v>382</v>
       </c>
       <c r="F39" s="7" t="s">
         <v>11</v>
@@ -7057,13 +7096,13 @@
         <v>4478</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>365</v>
+        <v>383</v>
       </c>
       <c r="K39" s="7" t="s">
         <v>47</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>366</v>
+        <v>384</v>
       </c>
       <c r="M39" s="7">
         <v>5</v>
@@ -7072,10 +7111,10 @@
         <v>5577</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>367</v>
+        <v>385</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>368</v>
+        <v>386</v>
       </c>
       <c r="Q39" s="7" t="s">
         <v>174</v>
@@ -7093,13 +7132,13 @@
         <v>3352</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>369</v>
+        <v>387</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>327</v>
+        <v>343</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>370</v>
+        <v>388</v>
       </c>
       <c r="H40" s="7">
         <v>6</v>
@@ -7108,13 +7147,13 @@
         <v>6743</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>371</v>
+        <v>389</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>345</v>
+        <v>361</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>372</v>
+        <v>390</v>
       </c>
       <c r="M40" s="7">
         <v>9</v>
@@ -7126,10 +7165,10 @@
         <v>58</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>373</v>
+        <v>391</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>374</v>
+        <v>392</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -7150,7 +7189,7 @@
         <v>12</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>229</v>
+        <v>250</v>
       </c>
       <c r="H41" s="7">
         <v>1</v>
@@ -7159,13 +7198,13 @@
         <v>1077</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>375</v>
+        <v>393</v>
       </c>
       <c r="K41" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>376</v>
+        <v>394</v>
       </c>
       <c r="M41" s="7">
         <v>1</v>
@@ -7174,13 +7213,13 @@
         <v>1077</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>377</v>
+        <v>395</v>
       </c>
       <c r="P41" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>378</v>
+        <v>396</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -7195,13 +7234,13 @@
         <v>116302</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>364</v>
+        <v>381</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>379</v>
+        <v>397</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>380</v>
+        <v>398</v>
       </c>
       <c r="H42" s="7">
         <v>140</v>
@@ -7210,13 +7249,13 @@
         <v>152120</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>381</v>
+        <v>399</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>382</v>
+        <v>400</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>383</v>
+        <v>401</v>
       </c>
       <c r="M42" s="7">
         <v>242</v>
@@ -7225,13 +7264,13 @@
         <v>268422</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>384</v>
+        <v>402</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>385</v>
+        <v>403</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>386</v>
+        <v>404</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -7299,13 +7338,13 @@
         <v>9438</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>387</v>
+        <v>405</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>388</v>
+        <v>406</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>389</v>
+        <v>407</v>
       </c>
       <c r="H44" s="7">
         <v>24</v>
@@ -7314,13 +7353,13 @@
         <v>27149</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>390</v>
+        <v>408</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>391</v>
+        <v>409</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>392</v>
+        <v>410</v>
       </c>
       <c r="M44" s="7">
         <v>33</v>
@@ -7329,13 +7368,13 @@
         <v>36587</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>393</v>
+        <v>411</v>
       </c>
       <c r="P44" s="7" t="s">
         <v>128</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>312</v>
+        <v>328</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -7350,13 +7389,13 @@
         <v>11754</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>394</v>
+        <v>412</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>395</v>
+        <v>413</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>396</v>
+        <v>414</v>
       </c>
       <c r="H45" s="7">
         <v>33</v>
@@ -7365,13 +7404,13 @@
         <v>35043</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>397</v>
+        <v>415</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>398</v>
+        <v>416</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>239</v>
+        <v>260</v>
       </c>
       <c r="M45" s="7">
         <v>44</v>
@@ -7380,13 +7419,13 @@
         <v>46797</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>399</v>
+        <v>417</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>400</v>
+        <v>418</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>401</v>
+        <v>419</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -7404,10 +7443,10 @@
         <v>168</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>402</v>
+        <v>420</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>403</v>
+        <v>421</v>
       </c>
       <c r="H46" s="7">
         <v>4</v>
@@ -7416,13 +7455,13 @@
         <v>4434</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>404</v>
+        <v>422</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>405</v>
+        <v>423</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>324</v>
+        <v>340</v>
       </c>
       <c r="M46" s="7">
         <v>7</v>
@@ -7434,10 +7473,10 @@
         <v>35</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>406</v>
+        <v>424</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>407</v>
+        <v>425</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -7452,13 +7491,13 @@
         <v>534090</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>408</v>
+        <v>426</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>409</v>
+        <v>427</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>410</v>
+        <v>428</v>
       </c>
       <c r="H47" s="7">
         <v>633</v>
@@ -7467,10 +7506,10 @@
         <v>676349</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>411</v>
+        <v>429</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>412</v>
+        <v>430</v>
       </c>
       <c r="L47" s="7" t="s">
         <v>94</v>
@@ -7482,13 +7521,13 @@
         <v>1210439</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>413</v>
+        <v>431</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>414</v>
+        <v>432</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>415</v>
+        <v>433</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -7568,7 +7607,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F85A9AF4-8A77-4317-A25B-AF2CD7D29EFA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20D6A873-5F92-4758-ADE5-91065D6D654F}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7585,7 +7624,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>416</v>
+        <v>434</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7692,13 +7731,13 @@
         <v>802</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>417</v>
+        <v>435</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>418</v>
+        <v>436</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -7707,13 +7746,13 @@
         <v>1126</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>419</v>
+        <v>437</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>420</v>
+        <v>438</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
@@ -7728,7 +7767,7 @@
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>421</v>
+        <v>439</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7743,13 +7782,13 @@
         <v>791</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>353</v>
+        <v>369</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>422</v>
+        <v>440</v>
       </c>
       <c r="H5" s="7">
         <v>3</v>
@@ -7758,13 +7797,13 @@
         <v>3454</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>421</v>
+        <v>439</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>328</v>
+        <v>344</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>423</v>
+        <v>441</v>
       </c>
       <c r="M5" s="7">
         <v>4</v>
@@ -7773,13 +7812,13 @@
         <v>4246</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>424</v>
+        <v>442</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>425</v>
+        <v>443</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>426</v>
+        <v>444</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7800,7 +7839,7 @@
         <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>427</v>
+        <v>445</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -7815,7 +7854,7 @@
         <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>428</v>
+        <v>446</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -7830,7 +7869,7 @@
         <v>12</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>429</v>
+        <v>232</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -7845,10 +7884,10 @@
         <v>37303</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>430</v>
+        <v>447</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>431</v>
+        <v>448</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>22</v>
@@ -7860,13 +7899,13 @@
         <v>44811</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>432</v>
+        <v>449</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>433</v>
+        <v>450</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>434</v>
+        <v>451</v>
       </c>
       <c r="M7" s="7">
         <v>79</v>
@@ -7875,13 +7914,13 @@
         <v>82114</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>435</v>
+        <v>452</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>436</v>
+        <v>453</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>410</v>
+        <v>428</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7955,7 +7994,7 @@
         <v>12</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>437</v>
+        <v>454</v>
       </c>
       <c r="H9" s="7">
         <v>1</v>
@@ -7964,13 +8003,13 @@
         <v>1347</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>438</v>
+        <v>301</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>439</v>
+        <v>455</v>
       </c>
       <c r="M9" s="7">
         <v>1</v>
@@ -7985,7 +8024,7 @@
         <v>11</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>440</v>
+        <v>456</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -8000,13 +8039,13 @@
         <v>2923</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>441</v>
+        <v>457</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>442</v>
+        <v>458</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>443</v>
+        <v>459</v>
       </c>
       <c r="H10" s="7">
         <v>6</v>
@@ -8015,13 +8054,13 @@
         <v>7796</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>444</v>
+        <v>460</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>445</v>
+        <v>461</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>446</v>
+        <v>462</v>
       </c>
       <c r="M10" s="7">
         <v>9</v>
@@ -8030,13 +8069,13 @@
         <v>10719</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>447</v>
+        <v>463</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>448</v>
+        <v>464</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>322</v>
+        <v>338</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -8057,7 +8096,7 @@
         <v>12</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>437</v>
+        <v>454</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -8087,7 +8126,7 @@
         <v>12</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>449</v>
+        <v>465</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -8102,10 +8141,10 @@
         <v>84372</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>450</v>
+        <v>466</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>451</v>
+        <v>467</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>182</v>
@@ -8117,13 +8156,13 @@
         <v>106085</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>452</v>
+        <v>468</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>453</v>
+        <v>469</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>454</v>
+        <v>470</v>
       </c>
       <c r="M12" s="7">
         <v>175</v>
@@ -8132,13 +8171,13 @@
         <v>190457</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>455</v>
+        <v>471</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>456</v>
+        <v>472</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>457</v>
+        <v>473</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -8221,13 +8260,13 @@
         <v>4477</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>458</v>
+        <v>474</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>459</v>
+        <v>475</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>460</v>
+        <v>476</v>
       </c>
       <c r="M14" s="7">
         <v>3</v>
@@ -8236,13 +8275,13 @@
         <v>4477</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>461</v>
+        <v>477</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>157</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>462</v>
+        <v>478</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -8257,13 +8296,13 @@
         <v>2817</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>463</v>
+        <v>479</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>303</v>
+        <v>319</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>464</v>
+        <v>480</v>
       </c>
       <c r="H15" s="7">
         <v>0</v>
@@ -8278,7 +8317,7 @@
         <v>12</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>237</v>
+        <v>258</v>
       </c>
       <c r="M15" s="7">
         <v>3</v>
@@ -8287,13 +8326,13 @@
         <v>2817</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>367</v>
+        <v>385</v>
       </c>
       <c r="P15" s="7" t="s">
         <v>189</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>225</v>
+        <v>246</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -8329,7 +8368,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>237</v>
+        <v>258</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -8344,7 +8383,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>313</v>
+        <v>329</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -8359,13 +8398,13 @@
         <v>60729</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>465</v>
+        <v>481</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>466</v>
+        <v>482</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>467</v>
+        <v>483</v>
       </c>
       <c r="H17" s="7">
         <v>66</v>
@@ -8374,13 +8413,13 @@
         <v>75420</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>468</v>
+        <v>484</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>453</v>
+        <v>469</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>469</v>
+        <v>485</v>
       </c>
       <c r="M17" s="7">
         <v>135</v>
@@ -8389,13 +8428,13 @@
         <v>136149</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>470</v>
+        <v>486</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>471</v>
+        <v>487</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>472</v>
+        <v>488</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -8463,13 +8502,13 @@
         <v>813</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>473</v>
+        <v>489</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>474</v>
+        <v>490</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -8493,13 +8532,13 @@
         <v>813</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>475</v>
+        <v>491</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>308</v>
+        <v>324</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -8514,13 +8553,13 @@
         <v>827</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>476</v>
+        <v>492</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>477</v>
+        <v>493</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -8544,13 +8583,13 @@
         <v>827</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>478</v>
+        <v>494</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>479</v>
+        <v>305</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -8565,13 +8604,13 @@
         <v>1804</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>480</v>
+        <v>495</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>481</v>
+        <v>496</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -8601,7 +8640,7 @@
         <v>11</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>482</v>
+        <v>497</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -8616,13 +8655,13 @@
         <v>61268</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>483</v>
+        <v>498</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>484</v>
+        <v>499</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>485</v>
+        <v>500</v>
       </c>
       <c r="H22" s="7">
         <v>76</v>
@@ -8634,7 +8673,7 @@
         <v>22</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>486</v>
+        <v>501</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>24</v>
@@ -8646,13 +8685,13 @@
         <v>152841</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>487</v>
+        <v>502</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>488</v>
+        <v>503</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>489</v>
+        <v>504</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8726,7 +8765,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>490</v>
+        <v>234</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -8756,7 +8795,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>321</v>
+        <v>337</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -8771,13 +8810,13 @@
         <v>799</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>491</v>
+        <v>505</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>492</v>
+        <v>506</v>
       </c>
       <c r="H25" s="7">
         <v>5</v>
@@ -8786,13 +8825,13 @@
         <v>5461</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>262</v>
+        <v>283</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>493</v>
+        <v>507</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>494</v>
+        <v>508</v>
       </c>
       <c r="M25" s="7">
         <v>6</v>
@@ -8801,13 +8840,13 @@
         <v>6260</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>366</v>
+        <v>384</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>391</v>
+        <v>409</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>495</v>
+        <v>509</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8828,7 +8867,7 @@
         <v>12</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>490</v>
+        <v>234</v>
       </c>
       <c r="H26" s="7">
         <v>2</v>
@@ -8837,13 +8876,13 @@
         <v>2318</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>496</v>
+        <v>510</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>497</v>
+        <v>511</v>
       </c>
       <c r="M26" s="7">
         <v>2</v>
@@ -8858,7 +8897,7 @@
         <v>11</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>498</v>
+        <v>512</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8873,10 +8912,10 @@
         <v>41281</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>499</v>
+        <v>513</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>500</v>
+        <v>514</v>
       </c>
       <c r="G27" s="7" t="s">
         <v>22</v>
@@ -8888,10 +8927,10 @@
         <v>42753</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>501</v>
+        <v>515</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>502</v>
+        <v>516</v>
       </c>
       <c r="L27" s="7" t="s">
         <v>136</v>
@@ -8903,13 +8942,13 @@
         <v>84034</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>503</v>
+        <v>517</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>504</v>
+        <v>518</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>505</v>
+        <v>519</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -8983,7 +9022,7 @@
         <v>12</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>506</v>
+        <v>520</v>
       </c>
       <c r="H29" s="7">
         <v>3</v>
@@ -8992,13 +9031,13 @@
         <v>3713</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>507</v>
+        <v>521</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>343</v>
+        <v>359</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>508</v>
+        <v>522</v>
       </c>
       <c r="M29" s="7">
         <v>3</v>
@@ -9007,13 +9046,13 @@
         <v>3713</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>509</v>
+        <v>523</v>
       </c>
       <c r="P29" s="7" t="s">
         <v>194</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>510</v>
+        <v>524</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -9028,13 +9067,13 @@
         <v>4902</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>511</v>
+        <v>525</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>512</v>
+        <v>526</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>513</v>
+        <v>527</v>
       </c>
       <c r="H30" s="7">
         <v>4</v>
@@ -9043,13 +9082,13 @@
         <v>4847</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>514</v>
+        <v>528</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>515</v>
+        <v>529</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>516</v>
+        <v>530</v>
       </c>
       <c r="M30" s="7">
         <v>10</v>
@@ -9058,13 +9097,13 @@
         <v>9749</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>517</v>
+        <v>531</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>260</v>
+        <v>281</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>518</v>
+        <v>532</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -9079,13 +9118,13 @@
         <v>767</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>347</v>
+        <v>363</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>519</v>
+        <v>533</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -9100,7 +9139,7 @@
         <v>12</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>520</v>
+        <v>534</v>
       </c>
       <c r="M31" s="7">
         <v>1</v>
@@ -9109,7 +9148,7 @@
         <v>767</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>521</v>
+        <v>535</v>
       </c>
       <c r="P31" s="7" t="s">
         <v>11</v>
@@ -9130,13 +9169,13 @@
         <v>42777</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>522</v>
+        <v>536</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>523</v>
+        <v>537</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>524</v>
+        <v>538</v>
       </c>
       <c r="H32" s="7">
         <v>52</v>
@@ -9145,13 +9184,13 @@
         <v>58829</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>525</v>
+        <v>539</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>526</v>
+        <v>540</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>527</v>
+        <v>541</v>
       </c>
       <c r="M32" s="7">
         <v>100</v>
@@ -9160,10 +9199,10 @@
         <v>101606</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>528</v>
+        <v>542</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>529</v>
+        <v>543</v>
       </c>
       <c r="Q32" s="7" t="s">
         <v>94</v>
@@ -9234,13 +9273,13 @@
         <v>3715</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>376</v>
+        <v>394</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>530</v>
+        <v>544</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>531</v>
+        <v>545</v>
       </c>
       <c r="H34" s="7">
         <v>2</v>
@@ -9249,13 +9288,13 @@
         <v>2542</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>532</v>
+        <v>546</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>533</v>
+        <v>547</v>
       </c>
       <c r="M34" s="7">
         <v>6</v>
@@ -9264,13 +9303,13 @@
         <v>6257</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>534</v>
+        <v>548</v>
       </c>
       <c r="P34" s="7" t="s">
         <v>69</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>535</v>
+        <v>549</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -9291,7 +9330,7 @@
         <v>11</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>536</v>
+        <v>550</v>
       </c>
       <c r="H35" s="7">
         <v>8</v>
@@ -9300,13 +9339,13 @@
         <v>10369</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>537</v>
+        <v>304</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>538</v>
+        <v>551</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>539</v>
+        <v>552</v>
       </c>
       <c r="M35" s="7">
         <v>9</v>
@@ -9315,13 +9354,13 @@
         <v>11259</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>540</v>
+        <v>553</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>417</v>
+        <v>435</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>541</v>
+        <v>226</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -9336,13 +9375,13 @@
         <v>898</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>542</v>
+        <v>554</v>
       </c>
       <c r="F36" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>310</v>
+        <v>326</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -9357,7 +9396,7 @@
         <v>12</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>543</v>
+        <v>555</v>
       </c>
       <c r="M36" s="7">
         <v>1</v>
@@ -9366,13 +9405,13 @@
         <v>898</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>544</v>
+        <v>556</v>
       </c>
       <c r="P36" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>545</v>
+        <v>557</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -9390,7 +9429,7 @@
         <v>23</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>546</v>
+        <v>558</v>
       </c>
       <c r="G37" s="7" t="s">
         <v>158</v>
@@ -9402,13 +9441,13 @@
         <v>134714</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>451</v>
+        <v>467</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>547</v>
+        <v>559</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>548</v>
+        <v>560</v>
       </c>
       <c r="M37" s="7">
         <v>218</v>
@@ -9417,13 +9456,13 @@
         <v>241397</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>549</v>
+        <v>561</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>550</v>
+        <v>562</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>551</v>
+        <v>563</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -9497,7 +9536,7 @@
         <v>12</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>313</v>
+        <v>329</v>
       </c>
       <c r="H39" s="7">
         <v>0</v>
@@ -9512,7 +9551,7 @@
         <v>12</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>231</v>
+        <v>252</v>
       </c>
       <c r="M39" s="7">
         <v>0</v>
@@ -9542,13 +9581,13 @@
         <v>3248</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>552</v>
+        <v>564</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>404</v>
+        <v>422</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>553</v>
+        <v>565</v>
       </c>
       <c r="H40" s="7">
         <v>9</v>
@@ -9557,13 +9596,13 @@
         <v>12152</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>232</v>
+        <v>253</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>554</v>
+        <v>566</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>555</v>
+        <v>567</v>
       </c>
       <c r="M40" s="7">
         <v>12</v>
@@ -9572,13 +9611,13 @@
         <v>15400</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>556</v>
+        <v>568</v>
       </c>
       <c r="P40" s="7" t="s">
         <v>126</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>557</v>
+        <v>569</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -9599,7 +9638,7 @@
         <v>12</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>313</v>
+        <v>329</v>
       </c>
       <c r="H41" s="7">
         <v>0</v>
@@ -9614,7 +9653,7 @@
         <v>12</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>231</v>
+        <v>252</v>
       </c>
       <c r="M41" s="7">
         <v>0</v>
@@ -9644,13 +9683,13 @@
         <v>130920</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>558</v>
+        <v>570</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>559</v>
+        <v>571</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>560</v>
+        <v>572</v>
       </c>
       <c r="H42" s="7">
         <v>133</v>
@@ -9659,13 +9698,13 @@
         <v>164145</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>561</v>
+        <v>573</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>562</v>
+        <v>574</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>563</v>
+        <v>575</v>
       </c>
       <c r="M42" s="7">
         <v>271</v>
@@ -9674,13 +9713,13 @@
         <v>295065</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>564</v>
+        <v>576</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>565</v>
+        <v>577</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>566</v>
+        <v>578</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -9748,7 +9787,7 @@
         <v>5329</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>333</v>
+        <v>349</v>
       </c>
       <c r="F44" s="7" t="s">
         <v>178</v>
@@ -9763,13 +9802,13 @@
         <v>13205</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>378</v>
+        <v>396</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>530</v>
+        <v>544</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>567</v>
+        <v>579</v>
       </c>
       <c r="M44" s="7">
         <v>16</v>
@@ -9778,13 +9817,13 @@
         <v>18534</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>313</v>
+        <v>329</v>
       </c>
       <c r="P44" s="7" t="s">
         <v>168</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>417</v>
+        <v>435</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -9802,10 +9841,10 @@
         <v>155</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>229</v>
+        <v>250</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>568</v>
+        <v>223</v>
       </c>
       <c r="H45" s="7">
         <v>35</v>
@@ -9814,13 +9853,13 @@
         <v>44077</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>569</v>
+        <v>580</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>570</v>
+        <v>581</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>571</v>
+        <v>582</v>
       </c>
       <c r="M45" s="7">
         <v>54</v>
@@ -9829,13 +9868,13 @@
         <v>61276</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>572</v>
+        <v>583</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>573</v>
+        <v>584</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>439</v>
+        <v>455</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -9850,13 +9889,13 @@
         <v>3468</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>574</v>
+        <v>585</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>405</v>
+        <v>423</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>425</v>
+        <v>443</v>
       </c>
       <c r="H46" s="7">
         <v>2</v>
@@ -9865,7 +9904,7 @@
         <v>2318</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>575</v>
+        <v>586</v>
       </c>
       <c r="K46" s="7" t="s">
         <v>11</v>
@@ -9880,13 +9919,13 @@
         <v>5786</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>576</v>
+        <v>587</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>405</v>
+        <v>423</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>288</v>
+        <v>382</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -9901,13 +9940,13 @@
         <v>565332</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>577</v>
+        <v>243</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>578</v>
+        <v>588</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>579</v>
+        <v>589</v>
       </c>
       <c r="H47" s="7">
         <v>608</v>
@@ -9916,13 +9955,13 @@
         <v>718330</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>559</v>
+        <v>571</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>580</v>
+        <v>590</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>581</v>
+        <v>591</v>
       </c>
       <c r="M47" s="7">
         <v>1206</v>
@@ -9931,13 +9970,13 @@
         <v>1283663</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>582</v>
+        <v>592</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>583</v>
+        <v>593</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>584</v>
+        <v>594</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -10017,7 +10056,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31696655-5862-4B27-B471-DD204D9C1B0A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90A39647-04D6-41EC-BA94-030A6B449D9B}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10034,7 +10073,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>585</v>
+        <v>595</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -10147,37 +10186,37 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>419</v>
+        <v>437</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
       </c>
       <c r="I4" s="7">
-        <v>616</v>
+        <v>620</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>206</v>
+        <v>458</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>586</v>
+        <v>596</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
       </c>
       <c r="N4" s="7">
-        <v>616</v>
+        <v>620</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>189</v>
+        <v>491</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>587</v>
+        <v>597</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -10198,37 +10237,37 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>419</v>
+        <v>437</v>
       </c>
       <c r="H5" s="7">
         <v>2</v>
       </c>
       <c r="I5" s="7">
-        <v>1284</v>
+        <v>1309</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>417</v>
+        <v>435</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>588</v>
+        <v>598</v>
       </c>
       <c r="M5" s="7">
         <v>2</v>
       </c>
       <c r="N5" s="7">
-        <v>1284</v>
+        <v>1309</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>589</v>
+        <v>413</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>490</v>
+        <v>328</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -10249,37 +10288,37 @@
         <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>419</v>
+        <v>437</v>
       </c>
       <c r="H6" s="7">
         <v>3</v>
       </c>
       <c r="I6" s="7">
-        <v>2041</v>
+        <v>2022</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>590</v>
+        <v>534</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>591</v>
+        <v>535</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>592</v>
+        <v>599</v>
       </c>
       <c r="M6" s="7">
         <v>3</v>
       </c>
       <c r="N6" s="7">
-        <v>2041</v>
+        <v>2022</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>229</v>
+        <v>405</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>593</v>
+        <v>556</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>277</v>
+        <v>600</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -10291,13 +10330,13 @@
         <v>83</v>
       </c>
       <c r="D7" s="7">
-        <v>51920</v>
+        <v>55901</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>22</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>594</v>
+        <v>601</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>24</v>
@@ -10306,31 +10345,31 @@
         <v>126</v>
       </c>
       <c r="I7" s="7">
-        <v>58278</v>
+        <v>59458</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>595</v>
+        <v>602</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>596</v>
+        <v>603</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>597</v>
+        <v>604</v>
       </c>
       <c r="M7" s="7">
         <v>209</v>
       </c>
       <c r="N7" s="7">
-        <v>110198</v>
+        <v>115359</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>598</v>
+        <v>605</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>599</v>
+        <v>606</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>600</v>
+        <v>607</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -10342,7 +10381,7 @@
         <v>83</v>
       </c>
       <c r="D8" s="7">
-        <v>51920</v>
+        <v>55901</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>24</v>
@@ -10357,7 +10396,7 @@
         <v>132</v>
       </c>
       <c r="I8" s="7">
-        <v>62219</v>
+        <v>63409</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>24</v>
@@ -10372,7 +10411,7 @@
         <v>215</v>
       </c>
       <c r="N8" s="7">
-        <v>114139</v>
+        <v>119310</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>24</v>
@@ -10395,46 +10434,46 @@
         <v>1</v>
       </c>
       <c r="D9" s="7">
-        <v>882</v>
+        <v>832</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>601</v>
+        <v>465</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>602</v>
+        <v>608</v>
       </c>
       <c r="H9" s="7">
         <v>7</v>
       </c>
       <c r="I9" s="7">
-        <v>5385</v>
+        <v>4622</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>603</v>
+        <v>271</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>266</v>
+        <v>192</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>252</v>
+        <v>609</v>
       </c>
       <c r="M9" s="7">
         <v>8</v>
       </c>
       <c r="N9" s="7">
-        <v>6267</v>
+        <v>5454</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>604</v>
+        <v>84</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>605</v>
+        <v>610</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>257</v>
+        <v>611</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -10446,46 +10485,46 @@
         <v>4</v>
       </c>
       <c r="D10" s="7">
-        <v>3952</v>
+        <v>3627</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>152</v>
+        <v>350</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>606</v>
+        <v>198</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>607</v>
+        <v>612</v>
       </c>
       <c r="H10" s="7">
         <v>15</v>
       </c>
       <c r="I10" s="7">
-        <v>10549</v>
+        <v>9426</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>101</v>
+        <v>613</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>428</v>
+        <v>364</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>608</v>
+        <v>614</v>
       </c>
       <c r="M10" s="7">
         <v>19</v>
       </c>
       <c r="N10" s="7">
-        <v>14500</v>
+        <v>13052</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>609</v>
+        <v>615</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>312</v>
+        <v>125</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>610</v>
+        <v>325</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -10512,31 +10551,31 @@
         <v>3</v>
       </c>
       <c r="I11" s="7">
-        <v>1940</v>
+        <v>1761</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>62</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>280</v>
+        <v>616</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>390</v>
+        <v>617</v>
       </c>
       <c r="M11" s="7">
         <v>3</v>
       </c>
       <c r="N11" s="7">
-        <v>1940</v>
+        <v>1761</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>157</v>
+        <v>618</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>611</v>
+        <v>619</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>612</v>
+        <v>620</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -10548,46 +10587,46 @@
         <v>90</v>
       </c>
       <c r="D12" s="7">
-        <v>81481</v>
+        <v>76250</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>468</v>
+        <v>621</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>613</v>
+        <v>622</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>614</v>
+        <v>623</v>
       </c>
       <c r="H12" s="7">
         <v>198</v>
       </c>
       <c r="I12" s="7">
-        <v>123483</v>
+        <v>113183</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>615</v>
+        <v>624</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>616</v>
+        <v>625</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>51</v>
+        <v>626</v>
       </c>
       <c r="M12" s="7">
         <v>288</v>
       </c>
       <c r="N12" s="7">
-        <v>204964</v>
+        <v>189432</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>617</v>
+        <v>627</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>618</v>
+        <v>628</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>619</v>
+        <v>629</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -10599,7 +10638,7 @@
         <v>95</v>
       </c>
       <c r="D13" s="7">
-        <v>86314</v>
+        <v>80709</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>24</v>
@@ -10614,7 +10653,7 @@
         <v>223</v>
       </c>
       <c r="I13" s="7">
-        <v>141357</v>
+        <v>128992</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>24</v>
@@ -10629,7 +10668,7 @@
         <v>318</v>
       </c>
       <c r="N13" s="7">
-        <v>227671</v>
+        <v>209700</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>24</v>
@@ -10652,46 +10691,46 @@
         <v>3</v>
       </c>
       <c r="D14" s="7">
-        <v>2127</v>
+        <v>1981</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>237</v>
+        <v>464</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>69</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>620</v>
+        <v>630</v>
       </c>
       <c r="H14" s="7">
         <v>4</v>
       </c>
       <c r="I14" s="7">
-        <v>2289</v>
+        <v>2085</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>534</v>
+        <v>631</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>43</v>
+        <v>422</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>621</v>
+        <v>521</v>
       </c>
       <c r="M14" s="7">
         <v>7</v>
       </c>
       <c r="N14" s="7">
-        <v>4417</v>
+        <v>4066</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>622</v>
+        <v>632</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>449</v>
+        <v>633</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>623</v>
+        <v>634</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -10703,46 +10742,46 @@
         <v>4</v>
       </c>
       <c r="D15" s="7">
-        <v>2406</v>
+        <v>2282</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>200</v>
+        <v>635</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>157</v>
+        <v>69</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>624</v>
+        <v>636</v>
       </c>
       <c r="H15" s="7">
         <v>13</v>
       </c>
       <c r="I15" s="7">
-        <v>7416</v>
+        <v>6673</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>19</v>
+        <v>637</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>334</v>
+        <v>362</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>625</v>
+        <v>638</v>
       </c>
       <c r="M15" s="7">
         <v>17</v>
       </c>
       <c r="N15" s="7">
-        <v>9821</v>
+        <v>8955</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>626</v>
+        <v>639</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>627</v>
+        <v>640</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>628</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -10754,46 +10793,46 @@
         <v>2</v>
       </c>
       <c r="D16" s="7">
-        <v>1339</v>
+        <v>1275</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>629</v>
+        <v>557</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>225</v>
+        <v>70</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
       </c>
       <c r="I16" s="7">
-        <v>632</v>
+        <v>571</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>35</v>
+        <v>393</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>630</v>
+        <v>641</v>
       </c>
       <c r="M16" s="7">
         <v>3</v>
       </c>
       <c r="N16" s="7">
-        <v>1972</v>
+        <v>1846</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>606</v>
+        <v>45</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>593</v>
+        <v>642</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>631</v>
+        <v>643</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -10805,46 +10844,46 @@
         <v>113</v>
       </c>
       <c r="D17" s="7">
-        <v>71729</v>
+        <v>67951</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>632</v>
+        <v>644</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>633</v>
+        <v>645</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>634</v>
+        <v>263</v>
       </c>
       <c r="H17" s="7">
         <v>151</v>
       </c>
       <c r="I17" s="7">
-        <v>84614</v>
+        <v>78097</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>635</v>
+        <v>646</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>636</v>
+        <v>647</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>637</v>
+        <v>648</v>
       </c>
       <c r="M17" s="7">
         <v>264</v>
       </c>
       <c r="N17" s="7">
-        <v>156342</v>
+        <v>146048</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>638</v>
+        <v>649</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>639</v>
+        <v>650</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>640</v>
+        <v>651</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -10856,7 +10895,7 @@
         <v>122</v>
       </c>
       <c r="D18" s="7">
-        <v>77601</v>
+        <v>73490</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>24</v>
@@ -10871,7 +10910,7 @@
         <v>169</v>
       </c>
       <c r="I18" s="7">
-        <v>94951</v>
+        <v>87425</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>24</v>
@@ -10886,7 +10925,7 @@
         <v>291</v>
       </c>
       <c r="N18" s="7">
-        <v>172552</v>
+        <v>160915</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>24</v>
@@ -10918,37 +10957,37 @@
         <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>641</v>
+        <v>652</v>
       </c>
       <c r="H19" s="7">
         <v>3</v>
       </c>
       <c r="I19" s="7">
-        <v>1359</v>
+        <v>1265</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>113</v>
+        <v>653</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>642</v>
+        <v>654</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>643</v>
+        <v>655</v>
       </c>
       <c r="M19" s="7">
         <v>3</v>
       </c>
       <c r="N19" s="7">
-        <v>1359</v>
+        <v>1265</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>644</v>
+        <v>173</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>645</v>
+        <v>656</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>646</v>
+        <v>657</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -10969,28 +11008,28 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>641</v>
+        <v>652</v>
       </c>
       <c r="H20" s="7">
         <v>7</v>
       </c>
       <c r="I20" s="7">
-        <v>2932</v>
+        <v>2759</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>203</v>
+        <v>658</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>606</v>
+        <v>659</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>647</v>
+        <v>660</v>
       </c>
       <c r="M20" s="7">
         <v>7</v>
       </c>
       <c r="N20" s="7">
-        <v>2932</v>
+        <v>2759</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>191</v>
@@ -10999,7 +11038,7 @@
         <v>35</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>648</v>
+        <v>661</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -11020,37 +11059,37 @@
         <v>12</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>641</v>
+        <v>652</v>
       </c>
       <c r="H21" s="7">
         <v>1</v>
       </c>
       <c r="I21" s="7">
-        <v>474</v>
+        <v>436</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>280</v>
+        <v>587</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>649</v>
+        <v>662</v>
       </c>
       <c r="M21" s="7">
         <v>1</v>
       </c>
       <c r="N21" s="7">
-        <v>474</v>
+        <v>436</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>650</v>
+        <v>663</v>
       </c>
       <c r="P21" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>473</v>
+        <v>113</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -11062,13 +11101,13 @@
         <v>118</v>
       </c>
       <c r="D22" s="7">
-        <v>78805</v>
+        <v>74668</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>22</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>651</v>
+        <v>664</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>24</v>
@@ -11077,31 +11116,31 @@
         <v>245</v>
       </c>
       <c r="I22" s="7">
-        <v>105690</v>
+        <v>99176</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>652</v>
+        <v>665</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>653</v>
+        <v>94</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>654</v>
+        <v>236</v>
       </c>
       <c r="M22" s="7">
         <v>363</v>
       </c>
       <c r="N22" s="7">
-        <v>184495</v>
+        <v>173843</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>655</v>
+        <v>666</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>656</v>
+        <v>667</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>657</v>
+        <v>668</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -11113,7 +11152,7 @@
         <v>118</v>
       </c>
       <c r="D23" s="7">
-        <v>78805</v>
+        <v>74668</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>24</v>
@@ -11128,7 +11167,7 @@
         <v>256</v>
       </c>
       <c r="I23" s="7">
-        <v>110455</v>
+        <v>103636</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>24</v>
@@ -11143,7 +11182,7 @@
         <v>374</v>
       </c>
       <c r="N23" s="7">
-        <v>189260</v>
+        <v>178303</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>24</v>
@@ -11181,31 +11220,31 @@
         <v>2</v>
       </c>
       <c r="I24" s="7">
-        <v>983</v>
+        <v>857</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>324</v>
+        <v>669</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>659</v>
+        <v>670</v>
       </c>
       <c r="M24" s="7">
         <v>2</v>
       </c>
       <c r="N24" s="7">
-        <v>983</v>
+        <v>857</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>660</v>
+        <v>382</v>
       </c>
       <c r="P24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>661</v>
+        <v>671</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -11217,46 +11256,46 @@
         <v>3</v>
       </c>
       <c r="D25" s="7">
-        <v>1616</v>
+        <v>1443</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>662</v>
+        <v>153</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>226</v>
+        <v>247</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>663</v>
+        <v>672</v>
       </c>
       <c r="H25" s="7">
         <v>12</v>
       </c>
       <c r="I25" s="7">
-        <v>5361</v>
+        <v>4743</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>664</v>
+        <v>533</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>665</v>
+        <v>673</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>666</v>
+        <v>674</v>
       </c>
       <c r="M25" s="7">
         <v>15</v>
       </c>
       <c r="N25" s="7">
-        <v>6978</v>
+        <v>6187</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>239</v>
+        <v>675</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>667</v>
+        <v>676</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>668</v>
+        <v>677</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -11292,7 +11331,7 @@
         <v>12</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>669</v>
+        <v>678</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -11307,7 +11346,7 @@
         <v>12</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>530</v>
+        <v>544</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -11319,46 +11358,46 @@
         <v>68</v>
       </c>
       <c r="D27" s="7">
-        <v>36715</v>
+        <v>33373</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>670</v>
+        <v>679</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>671</v>
+        <v>680</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>672</v>
+        <v>681</v>
       </c>
       <c r="H27" s="7">
         <v>151</v>
       </c>
       <c r="I27" s="7">
-        <v>59136</v>
+        <v>53646</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>673</v>
+        <v>682</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>674</v>
+        <v>683</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>675</v>
+        <v>684</v>
       </c>
       <c r="M27" s="7">
         <v>219</v>
       </c>
       <c r="N27" s="7">
-        <v>95851</v>
+        <v>87018</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>676</v>
+        <v>215</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>677</v>
+        <v>685</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>678</v>
+        <v>665</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -11370,7 +11409,7 @@
         <v>71</v>
       </c>
       <c r="D28" s="7">
-        <v>38331</v>
+        <v>34816</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>24</v>
@@ -11385,7 +11424,7 @@
         <v>165</v>
       </c>
       <c r="I28" s="7">
-        <v>65480</v>
+        <v>59246</v>
       </c>
       <c r="J28" s="7" t="s">
         <v>24</v>
@@ -11400,7 +11439,7 @@
         <v>236</v>
       </c>
       <c r="N28" s="7">
-        <v>103812</v>
+        <v>94062</v>
       </c>
       <c r="O28" s="7" t="s">
         <v>24</v>
@@ -11423,46 +11462,46 @@
         <v>4</v>
       </c>
       <c r="D29" s="7">
-        <v>1591</v>
+        <v>1512</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>265</v>
+        <v>662</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>195</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>44</v>
+        <v>315</v>
       </c>
       <c r="H29" s="7">
         <v>9</v>
       </c>
       <c r="I29" s="7">
-        <v>3775</v>
+        <v>3473</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>679</v>
+        <v>686</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>203</v>
+        <v>324</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>86</v>
+        <v>687</v>
       </c>
       <c r="M29" s="7">
         <v>13</v>
       </c>
       <c r="N29" s="7">
-        <v>5366</v>
+        <v>4985</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>680</v>
+        <v>688</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>681</v>
+        <v>461</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>682</v>
+        <v>689</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -11474,46 +11513,46 @@
         <v>1</v>
       </c>
       <c r="D30" s="7">
-        <v>409</v>
+        <v>389</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>375</v>
+        <v>83</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>683</v>
+        <v>690</v>
       </c>
       <c r="H30" s="7">
         <v>13</v>
       </c>
       <c r="I30" s="7">
-        <v>4487</v>
+        <v>4227</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>684</v>
+        <v>689</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>685</v>
+        <v>691</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>686</v>
+        <v>692</v>
       </c>
       <c r="M30" s="7">
         <v>14</v>
       </c>
       <c r="N30" s="7">
-        <v>4895</v>
+        <v>4616</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>205</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>687</v>
+        <v>344</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>688</v>
+        <v>693</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -11549,7 +11588,7 @@
         <v>12</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>276</v>
+        <v>694</v>
       </c>
       <c r="M31" s="7">
         <v>0</v>
@@ -11576,46 +11615,46 @@
         <v>130</v>
       </c>
       <c r="D32" s="7">
-        <v>61183</v>
+        <v>58361</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>298</v>
+        <v>695</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>689</v>
+        <v>696</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>690</v>
+        <v>311</v>
       </c>
       <c r="H32" s="7">
         <v>155</v>
       </c>
       <c r="I32" s="7">
-        <v>61592</v>
+        <v>57558</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>691</v>
+        <v>697</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>692</v>
+        <v>295</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>693</v>
+        <v>698</v>
       </c>
       <c r="M32" s="7">
         <v>285</v>
       </c>
       <c r="N32" s="7">
-        <v>122776</v>
+        <v>115919</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>694</v>
+        <v>699</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>695</v>
+        <v>700</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>488</v>
+        <v>701</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -11627,7 +11666,7 @@
         <v>135</v>
       </c>
       <c r="D33" s="7">
-        <v>63183</v>
+        <v>60261</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>24</v>
@@ -11642,7 +11681,7 @@
         <v>177</v>
       </c>
       <c r="I33" s="7">
-        <v>69853</v>
+        <v>65258</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>24</v>
@@ -11657,7 +11696,7 @@
         <v>312</v>
       </c>
       <c r="N33" s="7">
-        <v>133037</v>
+        <v>125519</v>
       </c>
       <c r="O33" s="7" t="s">
         <v>24</v>
@@ -11680,46 +11719,46 @@
         <v>1</v>
       </c>
       <c r="D34" s="7">
-        <v>760</v>
+        <v>731</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>235</v>
+        <v>585</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>554</v>
+        <v>526</v>
       </c>
       <c r="H34" s="7">
         <v>4</v>
       </c>
       <c r="I34" s="7">
-        <v>2610</v>
+        <v>2358</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>696</v>
+        <v>702</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>697</v>
+        <v>703</v>
       </c>
       <c r="M34" s="7">
         <v>5</v>
       </c>
       <c r="N34" s="7">
-        <v>3370</v>
+        <v>3089</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>69</v>
+        <v>35</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>698</v>
+        <v>704</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>491</v>
+        <v>87</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -11731,46 +11770,46 @@
         <v>2</v>
       </c>
       <c r="D35" s="7">
-        <v>1641</v>
+        <v>1548</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>240</v>
+        <v>489</v>
       </c>
       <c r="F35" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>699</v>
+        <v>479</v>
       </c>
       <c r="H35" s="7">
         <v>10</v>
       </c>
       <c r="I35" s="7">
-        <v>5793</v>
+        <v>5332</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>700</v>
+        <v>18</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>544</v>
+        <v>423</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>701</v>
+        <v>705</v>
       </c>
       <c r="M35" s="7">
         <v>12</v>
       </c>
       <c r="N35" s="7">
-        <v>7434</v>
+        <v>6880</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>515</v>
+        <v>287</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>195</v>
+        <v>706</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>702</v>
+        <v>200</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -11782,46 +11821,46 @@
         <v>1</v>
       </c>
       <c r="D36" s="7">
-        <v>698</v>
+        <v>671</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>478</v>
+        <v>189</v>
       </c>
       <c r="F36" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>85</v>
+        <v>707</v>
       </c>
       <c r="H36" s="7">
         <v>8</v>
       </c>
       <c r="I36" s="7">
-        <v>4194</v>
+        <v>3819</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>100</v>
+        <v>708</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>645</v>
+        <v>704</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>703</v>
+        <v>709</v>
       </c>
       <c r="M36" s="7">
         <v>9</v>
       </c>
       <c r="N36" s="7">
-        <v>4892</v>
+        <v>4491</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>473</v>
+        <v>710</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>642</v>
+        <v>711</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>704</v>
+        <v>105</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -11833,46 +11872,46 @@
         <v>164</v>
       </c>
       <c r="D37" s="7">
-        <v>127740</v>
+        <v>120303</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>705</v>
+        <v>712</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>706</v>
+        <v>713</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>707</v>
+        <v>714</v>
       </c>
       <c r="H37" s="7">
         <v>220</v>
       </c>
       <c r="I37" s="7">
-        <v>246247</v>
+        <v>327673</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>708</v>
+        <v>715</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>709</v>
+        <v>716</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>710</v>
+        <v>717</v>
       </c>
       <c r="M37" s="7">
         <v>384</v>
       </c>
       <c r="N37" s="7">
-        <v>373987</v>
+        <v>447976</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>242</v>
+        <v>718</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>711</v>
+        <v>719</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>712</v>
+        <v>720</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -11884,7 +11923,7 @@
         <v>168</v>
       </c>
       <c r="D38" s="7">
-        <v>130840</v>
+        <v>123254</v>
       </c>
       <c r="E38" s="7" t="s">
         <v>24</v>
@@ -11899,7 +11938,7 @@
         <v>242</v>
       </c>
       <c r="I38" s="7">
-        <v>258843</v>
+        <v>339182</v>
       </c>
       <c r="J38" s="7" t="s">
         <v>24</v>
@@ -11914,7 +11953,7 @@
         <v>410</v>
       </c>
       <c r="N38" s="7">
-        <v>389683</v>
+        <v>462436</v>
       </c>
       <c r="O38" s="7" t="s">
         <v>24</v>
@@ -11946,7 +11985,7 @@
         <v>12</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>530</v>
+        <v>544</v>
       </c>
       <c r="H39" s="7">
         <v>0</v>
@@ -11961,7 +12000,7 @@
         <v>12</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>713</v>
+        <v>721</v>
       </c>
       <c r="M39" s="7">
         <v>0</v>
@@ -11976,7 +12015,7 @@
         <v>12</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>714</v>
+        <v>706</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -11988,46 +12027,46 @@
         <v>3</v>
       </c>
       <c r="D40" s="7">
-        <v>2161</v>
+        <v>1837</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>715</v>
+        <v>261</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>178</v>
+        <v>722</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>482</v>
+        <v>723</v>
       </c>
       <c r="H40" s="7">
         <v>17</v>
       </c>
       <c r="I40" s="7">
-        <v>13858</v>
+        <v>10341</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>299</v>
+        <v>724</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>716</v>
+        <v>723</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>717</v>
+        <v>725</v>
       </c>
       <c r="M40" s="7">
         <v>20</v>
       </c>
       <c r="N40" s="7">
-        <v>16019</v>
+        <v>12178</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>64</v>
+        <v>408</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>718</v>
+        <v>232</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>130</v>
+        <v>726</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -12039,22 +12078,22 @@
         <v>2</v>
       </c>
       <c r="D41" s="7">
-        <v>865</v>
+        <v>751</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>719</v>
+        <v>727</v>
       </c>
       <c r="F41" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>720</v>
+        <v>728</v>
       </c>
       <c r="H41" s="7">
         <v>1</v>
       </c>
       <c r="I41" s="7">
-        <v>614</v>
+        <v>523</v>
       </c>
       <c r="J41" s="7" t="s">
         <v>209</v>
@@ -12063,22 +12102,22 @@
         <v>11</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>721</v>
+        <v>67</v>
       </c>
       <c r="M41" s="7">
         <v>3</v>
       </c>
       <c r="N41" s="7">
-        <v>1479</v>
+        <v>1275</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>377</v>
+        <v>395</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>722</v>
+        <v>729</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>303</v>
+        <v>730</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -12090,46 +12129,46 @@
         <v>230</v>
       </c>
       <c r="D42" s="7">
-        <v>166902</v>
+        <v>144492</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>724</v>
+        <v>732</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>725</v>
+        <v>733</v>
       </c>
       <c r="H42" s="7">
         <v>325</v>
       </c>
       <c r="I42" s="7">
-        <v>208570</v>
+        <v>175778</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>726</v>
+        <v>734</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>727</v>
+        <v>288</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>728</v>
+        <v>735</v>
       </c>
       <c r="M42" s="7">
         <v>555</v>
       </c>
       <c r="N42" s="7">
-        <v>375472</v>
+        <v>320270</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>729</v>
+        <v>263</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>435</v>
+        <v>734</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>730</v>
+        <v>736</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -12141,7 +12180,7 @@
         <v>235</v>
       </c>
       <c r="D43" s="7">
-        <v>169927</v>
+        <v>147080</v>
       </c>
       <c r="E43" s="7" t="s">
         <v>24</v>
@@ -12156,7 +12195,7 @@
         <v>343</v>
       </c>
       <c r="I43" s="7">
-        <v>223043</v>
+        <v>186642</v>
       </c>
       <c r="J43" s="7" t="s">
         <v>24</v>
@@ -12171,7 +12210,7 @@
         <v>578</v>
       </c>
       <c r="N43" s="7">
-        <v>392970</v>
+        <v>333722</v>
       </c>
       <c r="O43" s="7" t="s">
         <v>24</v>
@@ -12194,46 +12233,46 @@
         <v>9</v>
       </c>
       <c r="D44" s="7">
-        <v>5360</v>
+        <v>5055</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>146</v>
+        <v>168</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>731</v>
+        <v>642</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>732</v>
+        <v>287</v>
       </c>
       <c r="H44" s="7">
         <v>30</v>
       </c>
       <c r="I44" s="7">
-        <v>17017</v>
+        <v>15280</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>264</v>
+        <v>37</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>194</v>
+        <v>737</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>42</v>
+        <v>421</v>
       </c>
       <c r="M44" s="7">
         <v>39</v>
       </c>
       <c r="N44" s="7">
-        <v>22377</v>
+        <v>20336</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>733</v>
+        <v>319</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>151</v>
+        <v>738</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>229</v>
+        <v>405</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -12245,46 +12284,46 @@
         <v>17</v>
       </c>
       <c r="D45" s="7">
-        <v>12184</v>
+        <v>11126</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>148</v>
+        <v>279</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>734</v>
+        <v>194</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="H45" s="7">
         <v>89</v>
       </c>
       <c r="I45" s="7">
-        <v>51679</v>
+        <v>44809</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>735</v>
+        <v>553</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>398</v>
+        <v>739</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>736</v>
+        <v>740</v>
       </c>
       <c r="M45" s="7">
         <v>106</v>
       </c>
       <c r="N45" s="7">
-        <v>63864</v>
+        <v>55935</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>737</v>
+        <v>741</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>480</v>
+        <v>742</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>738</v>
+        <v>153</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -12296,46 +12335,46 @@
         <v>5</v>
       </c>
       <c r="D46" s="7">
-        <v>2902</v>
+        <v>2698</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>576</v>
+        <v>178</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>739</v>
+        <v>743</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>740</v>
+        <v>206</v>
       </c>
       <c r="H46" s="7">
         <v>17</v>
       </c>
       <c r="I46" s="7">
-        <v>9895</v>
+        <v>9133</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>281</v>
+        <v>151</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>741</v>
+        <v>587</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>742</v>
+        <v>191</v>
       </c>
       <c r="M46" s="7">
         <v>22</v>
       </c>
       <c r="N46" s="7">
-        <v>12797</v>
+        <v>11831</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>368</v>
+        <v>702</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>743</v>
+        <v>654</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>45</v>
+        <v>744</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -12347,46 +12386,46 @@
         <v>996</v>
       </c>
       <c r="D47" s="7">
-        <v>676474</v>
+        <v>631298</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>335</v>
+        <v>746</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="H47" s="7">
         <v>1571</v>
       </c>
       <c r="I47" s="7">
-        <v>947611</v>
+        <v>964567</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>559</v>
+        <v>748</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>746</v>
+        <v>749</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>747</v>
+        <v>312</v>
       </c>
       <c r="M47" s="7">
         <v>2567</v>
       </c>
       <c r="N47" s="7">
-        <v>1624086</v>
+        <v>1595866</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>183</v>
+        <v>752</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -12398,7 +12437,7 @@
         <v>1027</v>
       </c>
       <c r="D48" s="7">
-        <v>696921</v>
+        <v>650178</v>
       </c>
       <c r="E48" s="7" t="s">
         <v>24</v>
@@ -12413,7 +12452,7 @@
         <v>1707</v>
       </c>
       <c r="I48" s="7">
-        <v>1026202</v>
+        <v>1033789</v>
       </c>
       <c r="J48" s="7" t="s">
         <v>24</v>
@@ -12428,7 +12467,7 @@
         <v>2734</v>
       </c>
       <c r="N48" s="7">
-        <v>1723124</v>
+        <v>1683968</v>
       </c>
       <c r="O48" s="7" t="s">
         <v>24</v>
